--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="202">
   <si>
     <t>프로젝트 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -632,10 +632,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오태훈, 박진권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김보경, 신예은</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -644,10 +640,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ver.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2D</t>
   </si>
   <si>
@@ -791,6 +783,22 @@
   </si>
   <si>
     <t>오태훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오태훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver.1.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1799,22 +1807,157 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1826,13 +1969,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1855,135 +1992,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2291,7 +2299,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2302,11 +2310,11 @@
   <dimension ref="B2:BW80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2329,10 +2337,10 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="115"/>
+      <c r="E2" s="78"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -2341,10 +2349,10 @@
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="115"/>
+      <c r="E3" s="78"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -2353,10 +2361,10 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="115"/>
+      <c r="E4" s="78"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -2365,10 +2373,10 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="115" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="115"/>
+      <c r="D5" s="78" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="78"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -2377,237 +2385,237 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="115" t="s">
+      <c r="D6" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="115"/>
+      <c r="E6" s="78"/>
     </row>
     <row r="7" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="115" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="115"/>
+      <c r="D7" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="78"/>
     </row>
     <row r="9" spans="2:75" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="10" spans="2:75" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="80" t="s">
+      <c r="G10" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="80" t="s">
+      <c r="H10" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="80" t="s">
+      <c r="I10" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="80" t="s">
+      <c r="J10" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="80" t="s">
+      <c r="K10" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="103" t="s">
+      <c r="L10" s="119" t="s">
         <v>49</v>
       </c>
       <c r="M10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="102" t="s">
-        <v>166</v>
-      </c>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="102"/>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="102"/>
-      <c r="AC10" s="102"/>
-      <c r="AD10" s="102"/>
-      <c r="AE10" s="102"/>
-      <c r="AF10" s="102"/>
-      <c r="AG10" s="102"/>
-      <c r="AH10" s="102"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="102"/>
-      <c r="AK10" s="102"/>
-      <c r="AL10" s="102"/>
-      <c r="AM10" s="102"/>
-      <c r="AN10" s="102"/>
-      <c r="AO10" s="102"/>
-      <c r="AP10" s="102"/>
-      <c r="AQ10" s="102"/>
-      <c r="AR10" s="102"/>
-      <c r="AS10" s="83" t="s">
-        <v>167</v>
-      </c>
-      <c r="AT10" s="84"/>
-      <c r="AU10" s="84"/>
-      <c r="AV10" s="84"/>
-      <c r="AW10" s="84"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="84"/>
-      <c r="AZ10" s="84"/>
-      <c r="BA10" s="84"/>
-      <c r="BB10" s="84"/>
-      <c r="BC10" s="84"/>
-      <c r="BD10" s="84"/>
-      <c r="BE10" s="84"/>
-      <c r="BF10" s="84"/>
-      <c r="BG10" s="84"/>
-      <c r="BH10" s="84"/>
-      <c r="BI10" s="84"/>
-      <c r="BJ10" s="84"/>
-      <c r="BK10" s="84"/>
-      <c r="BL10" s="84"/>
-      <c r="BM10" s="84"/>
-      <c r="BN10" s="84"/>
-      <c r="BO10" s="84"/>
-      <c r="BP10" s="84"/>
-      <c r="BQ10" s="84"/>
-      <c r="BR10" s="84"/>
-      <c r="BS10" s="84"/>
-      <c r="BT10" s="84"/>
-      <c r="BU10" s="84"/>
-      <c r="BV10" s="84"/>
-      <c r="BW10" s="85"/>
+      <c r="N10" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="118"/>
+      <c r="V10" s="118"/>
+      <c r="W10" s="118"/>
+      <c r="X10" s="118"/>
+      <c r="Y10" s="118"/>
+      <c r="Z10" s="118"/>
+      <c r="AA10" s="118"/>
+      <c r="AB10" s="118"/>
+      <c r="AC10" s="118"/>
+      <c r="AD10" s="118"/>
+      <c r="AE10" s="118"/>
+      <c r="AF10" s="118"/>
+      <c r="AG10" s="118"/>
+      <c r="AH10" s="118"/>
+      <c r="AI10" s="118"/>
+      <c r="AJ10" s="118"/>
+      <c r="AK10" s="118"/>
+      <c r="AL10" s="118"/>
+      <c r="AM10" s="118"/>
+      <c r="AN10" s="118"/>
+      <c r="AO10" s="118"/>
+      <c r="AP10" s="118"/>
+      <c r="AQ10" s="118"/>
+      <c r="AR10" s="118"/>
+      <c r="AS10" s="128" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT10" s="129"/>
+      <c r="AU10" s="129"/>
+      <c r="AV10" s="129"/>
+      <c r="AW10" s="129"/>
+      <c r="AX10" s="129"/>
+      <c r="AY10" s="129"/>
+      <c r="AZ10" s="129"/>
+      <c r="BA10" s="129"/>
+      <c r="BB10" s="129"/>
+      <c r="BC10" s="129"/>
+      <c r="BD10" s="129"/>
+      <c r="BE10" s="129"/>
+      <c r="BF10" s="129"/>
+      <c r="BG10" s="129"/>
+      <c r="BH10" s="129"/>
+      <c r="BI10" s="129"/>
+      <c r="BJ10" s="129"/>
+      <c r="BK10" s="129"/>
+      <c r="BL10" s="129"/>
+      <c r="BM10" s="129"/>
+      <c r="BN10" s="129"/>
+      <c r="BO10" s="129"/>
+      <c r="BP10" s="129"/>
+      <c r="BQ10" s="129"/>
+      <c r="BR10" s="129"/>
+      <c r="BS10" s="129"/>
+      <c r="BT10" s="129"/>
+      <c r="BU10" s="129"/>
+      <c r="BV10" s="129"/>
+      <c r="BW10" s="130"/>
     </row>
     <row r="11" spans="2:75" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="107"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="104"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="120"/>
       <c r="M11" s="15" t="s">
         <v>13</v>
       </c>
       <c r="N11" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="77" t="s">
+      <c r="O11" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77" t="s">
+      <c r="P11" s="114"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="114"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="114"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="W11" s="77"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77" t="s">
+      <c r="W11" s="114"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="114"/>
+      <c r="AA11" s="114"/>
+      <c r="AB11" s="114"/>
+      <c r="AC11" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="77"/>
-      <c r="AF11" s="77"/>
-      <c r="AG11" s="77"/>
-      <c r="AH11" s="77"/>
-      <c r="AI11" s="77"/>
-      <c r="AJ11" s="77" t="s">
+      <c r="AD11" s="114"/>
+      <c r="AE11" s="114"/>
+      <c r="AF11" s="114"/>
+      <c r="AG11" s="114"/>
+      <c r="AH11" s="114"/>
+      <c r="AI11" s="114"/>
+      <c r="AJ11" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="AK11" s="77"/>
-      <c r="AL11" s="77"/>
-      <c r="AM11" s="77"/>
-      <c r="AN11" s="77"/>
-      <c r="AO11" s="77"/>
-      <c r="AP11" s="77"/>
-      <c r="AQ11" s="77" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR11" s="77"/>
-      <c r="AS11" s="112" t="s">
+      <c r="AK11" s="114"/>
+      <c r="AL11" s="114"/>
+      <c r="AM11" s="114"/>
+      <c r="AN11" s="114"/>
+      <c r="AO11" s="114"/>
+      <c r="AP11" s="114"/>
+      <c r="AQ11" s="114" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR11" s="114"/>
+      <c r="AS11" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="AT11" s="113"/>
-      <c r="AU11" s="113"/>
-      <c r="AV11" s="113"/>
-      <c r="AW11" s="114"/>
-      <c r="AX11" s="77" t="s">
+      <c r="AT11" s="116"/>
+      <c r="AU11" s="116"/>
+      <c r="AV11" s="116"/>
+      <c r="AW11" s="117"/>
+      <c r="AX11" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="AY11" s="77"/>
-      <c r="AZ11" s="77"/>
-      <c r="BA11" s="77"/>
-      <c r="BB11" s="77"/>
-      <c r="BC11" s="77"/>
-      <c r="BD11" s="77"/>
-      <c r="BE11" s="77" t="s">
+      <c r="AY11" s="114"/>
+      <c r="AZ11" s="114"/>
+      <c r="BA11" s="114"/>
+      <c r="BB11" s="114"/>
+      <c r="BC11" s="114"/>
+      <c r="BD11" s="114"/>
+      <c r="BE11" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="BF11" s="77"/>
-      <c r="BG11" s="77"/>
-      <c r="BH11" s="77"/>
-      <c r="BI11" s="77"/>
-      <c r="BJ11" s="77"/>
-      <c r="BK11" s="77"/>
-      <c r="BL11" s="77" t="s">
+      <c r="BF11" s="114"/>
+      <c r="BG11" s="114"/>
+      <c r="BH11" s="114"/>
+      <c r="BI11" s="114"/>
+      <c r="BJ11" s="114"/>
+      <c r="BK11" s="114"/>
+      <c r="BL11" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="BM11" s="77"/>
-      <c r="BN11" s="77"/>
-      <c r="BO11" s="77"/>
-      <c r="BP11" s="77"/>
-      <c r="BQ11" s="77"/>
-      <c r="BR11" s="77"/>
-      <c r="BS11" s="77" t="s">
+      <c r="BM11" s="114"/>
+      <c r="BN11" s="114"/>
+      <c r="BO11" s="114"/>
+      <c r="BP11" s="114"/>
+      <c r="BQ11" s="114"/>
+      <c r="BR11" s="114"/>
+      <c r="BS11" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="BT11" s="77"/>
-      <c r="BU11" s="77"/>
-      <c r="BV11" s="77"/>
-      <c r="BW11" s="77"/>
+      <c r="BT11" s="114"/>
+      <c r="BU11" s="114"/>
+      <c r="BV11" s="114"/>
+      <c r="BW11" s="114"/>
     </row>
     <row r="12" spans="2:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="108"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="105"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="121"/>
       <c r="M12" s="15" t="s">
         <v>14</v>
       </c>
@@ -2615,7 +2623,7 @@
         <v>16</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>17</v>
@@ -2702,13 +2710,13 @@
         <v>44</v>
       </c>
       <c r="AR12" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AS12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AT12" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AU12" s="5" t="s">
         <v>17</v>
@@ -2795,23 +2803,23 @@
         <v>44</v>
       </c>
       <c r="BW12" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="123" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="132" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="109"/>
+      <c r="F13" s="111"/>
       <c r="G13" s="55" t="str">
         <f t="shared" ref="G13:G43" si="0">IF(H13=1, "진행완료", "진행중")</f>
         <v>진행완료</v>
@@ -2835,13 +2843,13 @@
       <c r="AG13" s="6"/>
     </row>
     <row r="14" spans="2:75" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="88"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
       <c r="E14" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="109"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="59" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -2865,19 +2873,19 @@
       <c r="AH14" s="6"/>
     </row>
     <row r="15" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="99" t="s">
+      <c r="D15" s="97" t="s">
         <v>71</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="109"/>
+      <c r="F15" s="111"/>
       <c r="G15" s="61" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -2902,13 +2910,13 @@
       <c r="AL15" s="6"/>
     </row>
     <row r="16" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="79"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
       <c r="E16" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="109"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -2933,13 +2941,13 @@
       <c r="AL16" s="6"/>
     </row>
     <row r="17" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="79"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
       <c r="E17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="109"/>
+      <c r="F17" s="111"/>
       <c r="G17" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -2958,18 +2966,18 @@
         <v>45132</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AL17" s="6"/>
     </row>
     <row r="18" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="79"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
       <c r="E18" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="109"/>
+      <c r="F18" s="111"/>
       <c r="G18" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -2994,13 +3002,13 @@
       <c r="AN18" s="6"/>
     </row>
     <row r="19" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="79"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
       <c r="E19" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="109"/>
+      <c r="F19" s="111"/>
       <c r="G19" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3025,13 +3033,13 @@
       <c r="AN19" s="6"/>
     </row>
     <row r="20" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="79"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
       <c r="E20" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="109"/>
+      <c r="F20" s="111"/>
       <c r="G20" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3050,18 +3058,18 @@
         <v>45135</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO20" s="6"/>
     </row>
     <row r="21" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="88"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
       <c r="E21" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="109"/>
+      <c r="F21" s="111"/>
       <c r="G21" s="53" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3085,19 +3093,19 @@
       <c r="AO21" s="6"/>
     </row>
     <row r="22" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="96" t="s">
+      <c r="D22" s="125" t="s">
         <v>72</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="110"/>
+      <c r="F22" s="112"/>
       <c r="G22" s="55" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3116,18 +3124,18 @@
         <v>45138</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AR22" s="6"/>
     </row>
     <row r="23" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="97"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="126"/>
       <c r="E23" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="110"/>
+      <c r="F23" s="112"/>
       <c r="G23" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3146,18 +3154,18 @@
         <v>45138</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AR23" s="6"/>
     </row>
     <row r="24" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="97"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="126"/>
       <c r="E24" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="110"/>
+      <c r="F24" s="112"/>
       <c r="G24" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3181,13 +3189,13 @@
       <c r="AS24" s="6"/>
     </row>
     <row r="25" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="97"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="126"/>
       <c r="E25" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="110"/>
+      <c r="F25" s="112"/>
       <c r="G25" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3206,18 +3214,18 @@
         <v>45138</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AR25" s="6"/>
     </row>
     <row r="26" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="97"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="126"/>
       <c r="E26" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="110"/>
+      <c r="F26" s="112"/>
       <c r="G26" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3241,13 +3249,13 @@
       <c r="AS26" s="6"/>
     </row>
     <row r="27" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="98"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="127"/>
       <c r="E27" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="111"/>
+      <c r="F27" s="113"/>
       <c r="G27" s="59" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3271,16 +3279,16 @@
       <c r="AS27" s="6"/>
     </row>
     <row r="28" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="122" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="93" t="s">
+      <c r="C28" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="93" t="s">
+      <c r="D28" s="136" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="91" t="s">
+      <c r="E28" s="134" t="s">
         <v>76</v>
       </c>
       <c r="F28" s="33" t="s">
@@ -3304,17 +3312,17 @@
         <v>45142</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
       <c r="AV28" s="6"/>
     </row>
     <row r="29" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="79"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="92"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="135"/>
       <c r="F29" s="34" t="s">
         <v>80</v>
       </c>
@@ -3343,10 +3351,10 @@
       <c r="AV29" s="6"/>
     </row>
     <row r="30" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="79"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="92" t="s">
+      <c r="B30" s="123"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="135" t="s">
         <v>77</v>
       </c>
       <c r="F30" s="33" t="s">
@@ -3377,10 +3385,10 @@
       <c r="AV30" s="6"/>
     </row>
     <row r="31" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="79"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="92"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="135"/>
       <c r="F31" s="35" t="s">
         <v>82</v>
       </c>
@@ -3412,10 +3420,10 @@
       <c r="AV31" s="6"/>
     </row>
     <row r="32" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="79"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="92"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="135"/>
       <c r="F32" s="26" t="s">
         <v>83</v>
       </c>
@@ -3443,11 +3451,11 @@
       <c r="AU32" s="6"/>
       <c r="AV32" s="6"/>
     </row>
-    <row r="33" spans="2:49" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="79"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="92"/>
+    <row r="33" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="123"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="135"/>
       <c r="F33" s="27" t="s">
         <v>84</v>
       </c>
@@ -3475,11 +3483,11 @@
       <c r="AU33" s="6"/>
       <c r="AV33" s="6"/>
     </row>
-    <row r="34" spans="2:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="79"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="86" t="s">
+    <row r="34" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="123"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="82" t="s">
         <v>78</v>
       </c>
       <c r="F34" s="29" t="s">
@@ -3509,11 +3517,11 @@
       <c r="AU34" s="6"/>
       <c r="AV34" s="6"/>
     </row>
-    <row r="35" spans="2:49" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="79"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="87"/>
+    <row r="35" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="123"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="131"/>
       <c r="F35" s="30" t="s">
         <v>86</v>
       </c>
@@ -3541,14 +3549,14 @@
       <c r="AU35" s="6"/>
       <c r="AV35" s="6"/>
     </row>
-    <row r="36" spans="2:49" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="99" t="s">
+    <row r="36" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="99" t="s">
+      <c r="C36" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="135" t="s">
+      <c r="D36" s="84" t="s">
         <v>90</v>
       </c>
       <c r="E36" s="28" t="s">
@@ -3579,11 +3587,11 @@
       </c>
       <c r="AW36" s="6"/>
     </row>
-    <row r="37" spans="2:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="86" t="s">
+    <row r="37" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="98"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="82" t="s">
         <v>92</v>
       </c>
       <c r="F37" s="25" t="s">
@@ -3611,11 +3619,11 @@
       </c>
       <c r="AW37" s="6"/>
     </row>
-    <row r="38" spans="2:49" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="100"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="136"/>
-      <c r="E38" s="86"/>
+    <row r="38" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="82"/>
       <c r="F38" s="27" t="s">
         <v>98</v>
       </c>
@@ -3641,11 +3649,11 @@
       </c>
       <c r="AW38" s="6"/>
     </row>
-    <row r="39" spans="2:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="100"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="136"/>
-      <c r="E39" s="86" t="s">
+    <row r="39" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="82" t="s">
         <v>93</v>
       </c>
       <c r="F39" s="25" t="s">
@@ -3673,11 +3681,11 @@
       </c>
       <c r="AW39" s="6"/>
     </row>
-    <row r="40" spans="2:49" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="100"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="136"/>
-      <c r="E40" s="86"/>
+    <row r="40" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="82"/>
       <c r="F40" s="21" t="s">
         <v>100</v>
       </c>
@@ -3703,11 +3711,11 @@
       </c>
       <c r="AW40" s="6"/>
     </row>
-    <row r="41" spans="2:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="86" t="s">
+    <row r="41" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="82" t="s">
         <v>94</v>
       </c>
       <c r="F41" s="25" t="s">
@@ -3735,11 +3743,11 @@
       </c>
       <c r="AW41" s="6"/>
     </row>
-    <row r="42" spans="2:49" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="100"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="134"/>
+    <row r="42" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="83"/>
       <c r="F42" s="4" t="s">
         <v>102</v>
       </c>
@@ -3765,13 +3773,13 @@
       </c>
       <c r="AW42" s="6"/>
     </row>
-    <row r="43" spans="2:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="129" t="s">
+    <row r="43" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="133" t="s">
+      <c r="E43" s="104" t="s">
         <v>123</v>
       </c>
       <c r="F43" s="22" t="s">
@@ -3797,12 +3805,15 @@
       <c r="L43" s="12" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="44" spans="2:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="100"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="121"/>
+      <c r="BB43" s="6"/>
+      <c r="BC43" s="6"/>
+      <c r="BD43" s="6"/>
+    </row>
+    <row r="44" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="80"/>
       <c r="F44" s="48" t="s">
         <v>130</v>
       </c>
@@ -3824,14 +3835,22 @@
         <v>45155</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="45" spans="2:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="100"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="130"/>
-      <c r="E45" s="121"/>
+        <v>188</v>
+      </c>
+      <c r="BB44" s="6"/>
+      <c r="BC44" s="6"/>
+      <c r="BD44" s="6"/>
+      <c r="BE44" s="6"/>
+      <c r="BF44" s="6"/>
+      <c r="BG44" s="6"/>
+      <c r="BH44" s="6"/>
+      <c r="BI44" s="6"/>
+    </row>
+    <row r="45" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="80"/>
       <c r="F45" s="48" t="s">
         <v>129</v>
       </c>
@@ -3842,23 +3861,28 @@
       <c r="H45" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="I45" s="7" t="str">
+      <c r="I45" s="7">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="J45" s="46">
         <v>45148</v>
       </c>
-      <c r="K45" s="46"/>
+      <c r="K45" s="46">
+        <v>45150</v>
+      </c>
       <c r="L45" s="13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="46" spans="2:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="100"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="121"/>
+      <c r="BB45" s="6"/>
+      <c r="BC45" s="6"/>
+      <c r="BD45" s="6"/>
+    </row>
+    <row r="46" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="80"/>
       <c r="F46" s="48" t="s">
         <v>128</v>
       </c>
@@ -3880,14 +3904,22 @@
         <v>45155</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="2:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="100"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="130"/>
-      <c r="E47" s="121"/>
+        <v>189</v>
+      </c>
+      <c r="BB46" s="6"/>
+      <c r="BC46" s="6"/>
+      <c r="BD46" s="6"/>
+      <c r="BE46" s="6"/>
+      <c r="BF46" s="6"/>
+      <c r="BG46" s="6"/>
+      <c r="BH46" s="6"/>
+      <c r="BI46" s="6"/>
+    </row>
+    <row r="47" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="80"/>
       <c r="F47" s="48" t="s">
         <v>127</v>
       </c>
@@ -3909,14 +3941,22 @@
         <v>45155</v>
       </c>
       <c r="L47" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" spans="2:49" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="100"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="130"/>
-      <c r="E48" s="122"/>
+        <v>190</v>
+      </c>
+      <c r="BB47" s="6"/>
+      <c r="BC47" s="6"/>
+      <c r="BD47" s="6"/>
+      <c r="BE47" s="6"/>
+      <c r="BF47" s="6"/>
+      <c r="BG47" s="6"/>
+      <c r="BH47" s="6"/>
+      <c r="BI47" s="6"/>
+    </row>
+    <row r="48" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="98"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="81"/>
       <c r="F48" s="49" t="s">
         <v>126</v>
       </c>
@@ -3938,13 +3978,21 @@
         <v>45155</v>
       </c>
       <c r="L48" s="14" t="s">
-        <v>192</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="BB48" s="6"/>
+      <c r="BC48" s="6"/>
+      <c r="BD48" s="6"/>
+      <c r="BE48" s="6"/>
+      <c r="BF48" s="6"/>
+      <c r="BG48" s="6"/>
+      <c r="BH48" s="6"/>
+      <c r="BI48" s="6"/>
     </row>
     <row r="49" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="100"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="130"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="101"/>
       <c r="E49" s="38" t="s">
         <v>117</v>
       </c>
@@ -3955,24 +4003,31 @@
         <f t="shared" si="3"/>
         <v>진행중</v>
       </c>
-      <c r="H49" s="138" t="s">
+      <c r="H49" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="I49" s="72" t="str">
+      <c r="I49" s="72">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J49" s="76"/>
-      <c r="K49" s="76"/>
+        <v>3</v>
+      </c>
+      <c r="J49" s="76">
+        <v>45152</v>
+      </c>
+      <c r="K49" s="76">
+        <v>45154</v>
+      </c>
       <c r="L49" s="73" t="s">
         <v>156</v>
       </c>
+      <c r="BF49" s="6"/>
+      <c r="BG49" s="6"/>
+      <c r="BH49" s="6"/>
     </row>
     <row r="50" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="100"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="130"/>
-      <c r="E50" s="120" t="s">
+      <c r="B50" s="98"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="79" t="s">
         <v>118</v>
       </c>
       <c r="F50" s="22" t="s">
@@ -3998,12 +4053,14 @@
       <c r="L50" s="12" t="s">
         <v>154</v>
       </c>
+      <c r="BD50" s="6"/>
+      <c r="BE50" s="6"/>
     </row>
     <row r="51" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="130"/>
-      <c r="E51" s="121"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="80"/>
       <c r="F51" s="48" t="s">
         <v>122</v>
       </c>
@@ -4027,12 +4084,14 @@
       <c r="L51" s="13" t="s">
         <v>154</v>
       </c>
+      <c r="BD51" s="6"/>
+      <c r="BE51" s="6"/>
     </row>
     <row r="52" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="100"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="130"/>
-      <c r="E52" s="121"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="80"/>
       <c r="F52" s="51" t="s">
         <v>119</v>
       </c>
@@ -4054,14 +4113,14 @@
       </c>
     </row>
     <row r="53" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="100"/>
-      <c r="C53" s="100"/>
-      <c r="D53" s="131"/>
-      <c r="E53" s="117" t="s">
-        <v>169</v>
+      <c r="B53" s="98"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="87" t="s">
+        <v>167</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G53" s="61" t="str">
         <f t="shared" si="3"/>
@@ -4083,14 +4142,15 @@
       <c r="L53" s="12" t="s">
         <v>73</v>
       </c>
+      <c r="BD53" s="6"/>
     </row>
     <row r="54" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="100"/>
-      <c r="C54" s="100"/>
-      <c r="D54" s="131"/>
-      <c r="E54" s="118"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="88"/>
       <c r="F54" s="29" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G54" s="55" t="str">
         <f t="shared" si="3"/>
@@ -4110,7 +4170,7 @@
         <v>45151</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M54" s="47"/>
       <c r="N54" s="47"/>
@@ -4155,8 +4215,8 @@
       <c r="BA54" s="47"/>
       <c r="BB54" s="47"/>
       <c r="BC54" s="47"/>
-      <c r="BD54" s="47"/>
-      <c r="BE54" s="47"/>
+      <c r="BD54" s="6"/>
+      <c r="BE54" s="6"/>
       <c r="BF54" s="47"/>
       <c r="BG54" s="47"/>
       <c r="BH54" s="47"/>
@@ -4173,12 +4233,12 @@
       <c r="BS54" s="47"/>
     </row>
     <row r="55" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="100"/>
-      <c r="C55" s="100"/>
-      <c r="D55" s="131"/>
-      <c r="E55" s="118"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="88"/>
       <c r="F55" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G55" s="52" t="str">
         <f t="shared" si="3"/>
@@ -4200,14 +4260,16 @@
       <c r="L55" s="13" t="s">
         <v>73</v>
       </c>
+      <c r="BE55" s="6"/>
+      <c r="BF55" s="6"/>
     </row>
     <row r="56" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="100"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="131"/>
-      <c r="E56" s="118"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="88"/>
       <c r="F56" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G56" s="52" t="str">
         <f t="shared" si="3"/>
@@ -4229,14 +4291,16 @@
       <c r="L56" s="13" t="s">
         <v>73</v>
       </c>
+      <c r="BG56" s="6"/>
+      <c r="BH56" s="6"/>
     </row>
     <row r="57" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="100"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="131"/>
-      <c r="E57" s="119"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="89"/>
       <c r="F57" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G57" s="59" t="str">
         <f t="shared" si="3"/>
@@ -4258,16 +4322,19 @@
       <c r="L57" s="20" t="s">
         <v>73</v>
       </c>
+      <c r="BE57" s="6"/>
+      <c r="BF57" s="6"/>
+      <c r="BG57" s="6"/>
     </row>
     <row r="58" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="100"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="130"/>
-      <c r="E58" s="121" t="s">
+      <c r="B58" s="98"/>
+      <c r="C58" s="98"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="80" t="s">
+        <v>168</v>
+      </c>
+      <c r="F58" s="50" t="s">
         <v>170</v>
-      </c>
-      <c r="F58" s="50" t="s">
-        <v>172</v>
       </c>
       <c r="G58" s="61" t="str">
         <f t="shared" si="3"/>
@@ -4276,23 +4343,29 @@
       <c r="H58" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="I58" s="75" t="str">
+      <c r="I58" s="75">
         <f>IF(OR(J58="",K58=""),"",K58-J58+1)</f>
-        <v/>
-      </c>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
+        <v>2</v>
+      </c>
+      <c r="J58" s="69">
+        <v>45154</v>
+      </c>
+      <c r="K58" s="69">
+        <v>45155</v>
+      </c>
       <c r="L58" s="12" t="s">
-        <v>187</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="BH58" s="6"/>
+      <c r="BI58" s="6"/>
     </row>
     <row r="59" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="100"/>
-      <c r="C59" s="100"/>
-      <c r="D59" s="130"/>
-      <c r="E59" s="121"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="80"/>
       <c r="F59" s="49" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G59" s="53" t="str">
         <f t="shared" si="3"/>
@@ -4312,7 +4385,7 @@
         <v>45155</v>
       </c>
       <c r="L59" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M59" s="74"/>
       <c r="N59" s="74"/>
@@ -4361,8 +4434,8 @@
       <c r="BE59" s="74"/>
       <c r="BF59" s="74"/>
       <c r="BG59" s="74"/>
-      <c r="BH59" s="74"/>
-      <c r="BI59" s="74"/>
+      <c r="BH59" s="6"/>
+      <c r="BI59" s="6"/>
       <c r="BJ59" s="74"/>
       <c r="BK59" s="74"/>
       <c r="BL59" s="74"/>
@@ -4375,12 +4448,12 @@
       <c r="BS59" s="74"/>
     </row>
     <row r="60" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="100"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="130"/>
-      <c r="E60" s="122"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="81"/>
       <c r="F60" s="49" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G60" s="53" t="str">
         <f t="shared" si="3"/>
@@ -4400,18 +4473,20 @@
         <v>45155</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>189</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="BH60" s="6"/>
+      <c r="BI60" s="6"/>
     </row>
     <row r="61" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="100"/>
-      <c r="C61" s="100"/>
-      <c r="D61" s="130"/>
-      <c r="E61" s="120" t="s">
-        <v>171</v>
+      <c r="B61" s="98"/>
+      <c r="C61" s="98"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="79" t="s">
+        <v>169</v>
       </c>
       <c r="F61" s="50" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G61" s="55" t="str">
         <f t="shared" si="3"/>
@@ -4420,36 +4495,51 @@
       <c r="H61" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="I61" s="64" t="str">
+      <c r="I61" s="64">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J61" s="65"/>
-      <c r="K61" s="65"/>
+        <v>4</v>
+      </c>
+      <c r="J61" s="65">
+        <v>45152</v>
+      </c>
+      <c r="K61" s="65">
+        <v>45155</v>
+      </c>
       <c r="L61" s="19" t="s">
         <v>74</v>
       </c>
+      <c r="BF61" s="6"/>
+      <c r="BG61" s="6"/>
+      <c r="BH61" s="6"/>
+      <c r="BI61" s="6"/>
     </row>
     <row r="62" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="100"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="121"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="101"/>
+      <c r="E62" s="80"/>
       <c r="F62" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G62" s="52" t="str">
         <f t="shared" si="3"/>
         <v>진행중</v>
       </c>
       <c r="H62" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="I62" s="64"/>
-      <c r="J62" s="65"/>
-      <c r="K62" s="65"/>
+        <v>196</v>
+      </c>
+      <c r="I62" s="64">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J62" s="65">
+        <v>45152</v>
+      </c>
+      <c r="K62" s="65">
+        <v>45155</v>
+      </c>
       <c r="L62" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M62" s="74"/>
       <c r="N62" s="74"/>
@@ -4496,10 +4586,10 @@
       <c r="BC62" s="74"/>
       <c r="BD62" s="74"/>
       <c r="BE62" s="74"/>
-      <c r="BF62" s="74"/>
-      <c r="BG62" s="74"/>
-      <c r="BH62" s="74"/>
-      <c r="BI62" s="74"/>
+      <c r="BF62" s="6"/>
+      <c r="BG62" s="6"/>
+      <c r="BH62" s="6"/>
+      <c r="BI62" s="6"/>
       <c r="BJ62" s="74"/>
       <c r="BK62" s="74"/>
       <c r="BL62" s="74"/>
@@ -4512,12 +4602,12 @@
       <c r="BS62" s="74"/>
     </row>
     <row r="63" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="100"/>
-      <c r="C63" s="100"/>
-      <c r="D63" s="130"/>
-      <c r="E63" s="121"/>
+      <c r="B63" s="98"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="80"/>
       <c r="F63" s="48" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G63" s="52" t="str">
         <f t="shared" si="3"/>
@@ -4526,23 +4616,31 @@
       <c r="H63" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="I63" s="7" t="str">
+      <c r="I63" s="7">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J63" s="46"/>
-      <c r="K63" s="46"/>
+        <v>4</v>
+      </c>
+      <c r="J63" s="46">
+        <v>45152</v>
+      </c>
+      <c r="K63" s="46">
+        <v>45155</v>
+      </c>
       <c r="L63" s="13" t="s">
         <v>158</v>
       </c>
+      <c r="BF63" s="6"/>
+      <c r="BG63" s="6"/>
+      <c r="BH63" s="6"/>
+      <c r="BI63" s="6"/>
     </row>
     <row r="64" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="100"/>
-      <c r="C64" s="100"/>
-      <c r="D64" s="130"/>
-      <c r="E64" s="121"/>
+      <c r="B64" s="98"/>
+      <c r="C64" s="98"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="80"/>
       <c r="F64" s="48" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G64" s="52" t="str">
         <f t="shared" si="3"/>
@@ -4551,23 +4649,31 @@
       <c r="H64" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="I64" s="7" t="str">
+      <c r="I64" s="7">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J64" s="46"/>
-      <c r="K64" s="46"/>
+        <v>4</v>
+      </c>
+      <c r="J64" s="46">
+        <v>45152</v>
+      </c>
+      <c r="K64" s="46">
+        <v>45155</v>
+      </c>
       <c r="L64" s="13" t="s">
         <v>158</v>
       </c>
+      <c r="BF64" s="6"/>
+      <c r="BG64" s="6"/>
+      <c r="BH64" s="6"/>
+      <c r="BI64" s="6"/>
     </row>
     <row r="65" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="100"/>
-      <c r="C65" s="100"/>
-      <c r="D65" s="132"/>
-      <c r="E65" s="122"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="98"/>
+      <c r="D65" s="103"/>
+      <c r="E65" s="81"/>
       <c r="F65" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G65" s="53" t="str">
         <f t="shared" si="3"/>
@@ -4576,23 +4682,31 @@
       <c r="H65" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="I65" s="54" t="str">
+      <c r="I65" s="54">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J65" s="70"/>
-      <c r="K65" s="70"/>
+        <v>4</v>
+      </c>
+      <c r="J65" s="46">
+        <v>45152</v>
+      </c>
+      <c r="K65" s="46">
+        <v>45155</v>
+      </c>
       <c r="L65" s="14" t="s">
-        <v>193</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="BF65" s="6"/>
+      <c r="BG65" s="6"/>
+      <c r="BH65" s="6"/>
+      <c r="BI65" s="6"/>
     </row>
     <row r="66" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="100"/>
-      <c r="C66" s="100"/>
-      <c r="D66" s="126" t="s">
+      <c r="B66" s="98"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="123" t="s">
+      <c r="E66" s="91" t="s">
         <v>124</v>
       </c>
       <c r="F66" s="22" t="s">
@@ -4605,19 +4719,30 @@
       <c r="H66" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="I66" s="64" t="str">
+      <c r="I66" s="64">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J66" s="65"/>
-      <c r="K66" s="65"/>
-      <c r="L66" s="19"/>
+        <v>6</v>
+      </c>
+      <c r="J66" s="65">
+        <v>45150</v>
+      </c>
+      <c r="K66" s="65">
+        <v>45155</v>
+      </c>
+      <c r="L66" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE66" s="6"/>
+      <c r="BF66" s="6"/>
+      <c r="BG66" s="6"/>
+      <c r="BH66" s="6"/>
+      <c r="BI66" s="6"/>
     </row>
     <row r="67" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="100"/>
-      <c r="C67" s="100"/>
-      <c r="D67" s="127"/>
-      <c r="E67" s="124"/>
+      <c r="B67" s="98"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="92"/>
       <c r="F67" s="48" t="s">
         <v>133</v>
       </c>
@@ -4630,23 +4755,26 @@
       </c>
       <c r="I67" s="7">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J67" s="46">
         <v>45150</v>
       </c>
       <c r="K67" s="46">
-        <v>45155</v>
+        <v>45153</v>
       </c>
       <c r="L67" s="13" t="s">
         <v>154</v>
       </c>
+      <c r="BE67" s="6"/>
+      <c r="BF67" s="6"/>
+      <c r="BG67" s="6"/>
     </row>
     <row r="68" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="100"/>
-      <c r="C68" s="100"/>
-      <c r="D68" s="127"/>
-      <c r="E68" s="124"/>
+      <c r="B68" s="98"/>
+      <c r="C68" s="98"/>
+      <c r="D68" s="95"/>
+      <c r="E68" s="92"/>
       <c r="F68" s="48" t="s">
         <v>134</v>
       </c>
@@ -4670,12 +4798,15 @@
       <c r="L68" s="13" t="s">
         <v>154</v>
       </c>
+      <c r="BE68" s="6"/>
+      <c r="BF68" s="6"/>
+      <c r="BG68" s="6"/>
     </row>
     <row r="69" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="100"/>
-      <c r="C69" s="100"/>
-      <c r="D69" s="127"/>
-      <c r="E69" s="124"/>
+      <c r="B69" s="98"/>
+      <c r="C69" s="98"/>
+      <c r="D69" s="95"/>
+      <c r="E69" s="92"/>
       <c r="F69" s="48" t="s">
         <v>135</v>
       </c>
@@ -4686,21 +4817,30 @@
       <c r="H69" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="I69" s="7" t="str">
+      <c r="I69" s="7">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J69" s="46"/>
-      <c r="K69" s="46"/>
+        <v>6</v>
+      </c>
+      <c r="J69" s="46">
+        <v>45150</v>
+      </c>
+      <c r="K69" s="46">
+        <v>45155</v>
+      </c>
       <c r="L69" s="13" t="s">
         <v>74</v>
       </c>
+      <c r="BE69" s="6"/>
+      <c r="BF69" s="6"/>
+      <c r="BG69" s="6"/>
+      <c r="BH69" s="6"/>
+      <c r="BI69" s="6"/>
     </row>
     <row r="70" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="100"/>
-      <c r="C70" s="100"/>
-      <c r="D70" s="127"/>
-      <c r="E70" s="124"/>
+      <c r="B70" s="98"/>
+      <c r="C70" s="98"/>
+      <c r="D70" s="95"/>
+      <c r="E70" s="92"/>
       <c r="F70" s="48" t="s">
         <v>136</v>
       </c>
@@ -4711,23 +4851,30 @@
       <c r="H70" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="I70" s="7" t="str">
+      <c r="I70" s="7">
         <f t="shared" si="4"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="J70" s="46">
         <v>45150</v>
       </c>
-      <c r="K70" s="46"/>
+      <c r="K70" s="46">
+        <v>45155</v>
+      </c>
       <c r="L70" s="13" t="s">
         <v>158</v>
       </c>
+      <c r="BE70" s="6"/>
+      <c r="BF70" s="6"/>
+      <c r="BG70" s="6"/>
+      <c r="BH70" s="6"/>
+      <c r="BI70" s="6"/>
     </row>
     <row r="71" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="100"/>
-      <c r="C71" s="100"/>
-      <c r="D71" s="127"/>
-      <c r="E71" s="124"/>
+      <c r="B71" s="98"/>
+      <c r="C71" s="98"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="92"/>
       <c r="F71" s="48" t="s">
         <v>137</v>
       </c>
@@ -4738,43 +4885,52 @@
       <c r="H71" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="I71" s="7" t="str">
+      <c r="I71" s="7">
         <f t="shared" si="4"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="J71" s="46">
         <v>45150</v>
       </c>
-      <c r="K71" s="46"/>
+      <c r="K71" s="46">
+        <v>45155</v>
+      </c>
       <c r="L71" s="13" t="s">
         <v>158</v>
       </c>
+      <c r="BE71" s="6"/>
+      <c r="BF71" s="6"/>
+      <c r="BG71" s="6"/>
+      <c r="BH71" s="6"/>
+      <c r="BI71" s="6"/>
     </row>
     <row r="72" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="100"/>
-      <c r="C72" s="100"/>
-      <c r="D72" s="127"/>
-      <c r="E72" s="124"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="98"/>
+      <c r="D72" s="95"/>
+      <c r="E72" s="92"/>
       <c r="F72" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G72" s="59" t="str">
         <f t="shared" si="3"/>
         <v>진행중</v>
       </c>
       <c r="H72" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="I72" s="66" t="str">
+        <v>183</v>
+      </c>
+      <c r="I72" s="66">
         <f t="shared" si="4"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="J72" s="67">
         <v>45150</v>
       </c>
-      <c r="K72" s="67"/>
+      <c r="K72" s="67">
+        <v>45155</v>
+      </c>
       <c r="L72" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M72" s="47"/>
       <c r="N72" s="47"/>
@@ -4820,11 +4976,11 @@
       <c r="BB72" s="47"/>
       <c r="BC72" s="47"/>
       <c r="BD72" s="47"/>
-      <c r="BE72" s="47"/>
-      <c r="BF72" s="47"/>
-      <c r="BG72" s="47"/>
-      <c r="BH72" s="47"/>
-      <c r="BI72" s="47"/>
+      <c r="BE72" s="6"/>
+      <c r="BF72" s="6"/>
+      <c r="BG72" s="6"/>
+      <c r="BH72" s="6"/>
+      <c r="BI72" s="6"/>
       <c r="BJ72" s="47"/>
       <c r="BK72" s="47"/>
       <c r="BL72" s="47"/>
@@ -4837,12 +4993,12 @@
       <c r="BS72" s="47"/>
     </row>
     <row r="73" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="100"/>
-      <c r="C73" s="100"/>
-      <c r="D73" s="127"/>
-      <c r="E73" s="125"/>
+      <c r="B73" s="98"/>
+      <c r="C73" s="98"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="93"/>
       <c r="F73" s="51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G73" s="59" t="str">
         <f t="shared" si="3"/>
@@ -4851,23 +5007,30 @@
       <c r="H73" s="60">
         <v>0.9</v>
       </c>
-      <c r="I73" s="66" t="str">
+      <c r="I73" s="66">
         <f t="shared" si="4"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="J73" s="67">
         <v>45150</v>
       </c>
-      <c r="K73" s="67"/>
+      <c r="K73" s="67">
+        <v>45155</v>
+      </c>
       <c r="L73" s="20" t="s">
-        <v>184</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="BE73" s="6"/>
+      <c r="BF73" s="6"/>
+      <c r="BG73" s="6"/>
+      <c r="BH73" s="6"/>
+      <c r="BI73" s="6"/>
     </row>
     <row r="74" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="100"/>
-      <c r="C74" s="100"/>
-      <c r="D74" s="127"/>
-      <c r="E74" s="120" t="s">
+      <c r="B74" s="98"/>
+      <c r="C74" s="98"/>
+      <c r="D74" s="95"/>
+      <c r="E74" s="79" t="s">
         <v>138</v>
       </c>
       <c r="F74" s="22" t="s">
@@ -4893,12 +5056,13 @@
       <c r="L74" s="12" t="s">
         <v>73</v>
       </c>
+      <c r="BG74" s="6"/>
     </row>
     <row r="75" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="100"/>
-      <c r="C75" s="100"/>
-      <c r="D75" s="127"/>
-      <c r="E75" s="122"/>
+      <c r="B75" s="98"/>
+      <c r="C75" s="98"/>
+      <c r="D75" s="95"/>
+      <c r="E75" s="81"/>
       <c r="F75" s="48" t="s">
         <v>140</v>
       </c>
@@ -4924,9 +5088,9 @@
       </c>
     </row>
     <row r="76" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="101"/>
-      <c r="C76" s="101"/>
-      <c r="D76" s="128"/>
+      <c r="B76" s="99"/>
+      <c r="C76" s="99"/>
+      <c r="D76" s="96"/>
       <c r="E76" s="38" t="s">
         <v>141</v>
       </c>
@@ -4944,20 +5108,22 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J76" s="70"/>
+      <c r="J76" s="70">
+        <v>45155</v>
+      </c>
       <c r="K76" s="70"/>
       <c r="L76" s="14" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="117" t="s">
+      <c r="B77" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C77" s="117" t="s">
+      <c r="C77" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="D77" s="120" t="s">
+      <c r="D77" s="79" t="s">
         <v>144</v>
       </c>
       <c r="E77" s="28" t="s">
@@ -4984,9 +5150,9 @@
       </c>
     </row>
     <row r="78" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="118"/>
-      <c r="C78" s="118"/>
-      <c r="D78" s="121"/>
+      <c r="B78" s="88"/>
+      <c r="C78" s="88"/>
+      <c r="D78" s="80"/>
       <c r="E78" s="23" t="s">
         <v>147</v>
       </c>
@@ -5011,9 +5177,9 @@
       </c>
     </row>
     <row r="79" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="118"/>
-      <c r="C79" s="118"/>
-      <c r="D79" s="121"/>
+      <c r="B79" s="88"/>
+      <c r="C79" s="88"/>
+      <c r="D79" s="80"/>
       <c r="E79" s="23" t="s">
         <v>149</v>
       </c>
@@ -5038,9 +5204,9 @@
       </c>
     </row>
     <row r="80" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="119"/>
-      <c r="C80" s="119"/>
-      <c r="D80" s="122"/>
+      <c r="B80" s="89"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="81"/>
       <c r="E80" s="24" t="s">
         <v>151</v>
       </c>
@@ -5066,14 +5232,45 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D36:D42"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="AS10:BW10"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="D28:D35"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="BS11:BW11"/>
+    <mergeCell ref="AX11:BD11"/>
+    <mergeCell ref="BE11:BK11"/>
+    <mergeCell ref="AC11:AI11"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D15:D21"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="F13:F27"/>
+    <mergeCell ref="BL11:BR11"/>
+    <mergeCell ref="AJ11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="N10:AR10"/>
+    <mergeCell ref="O11:U11"/>
+    <mergeCell ref="V11:AB11"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
@@ -5090,45 +5287,14 @@
     <mergeCell ref="E43:E48"/>
     <mergeCell ref="E50:E52"/>
     <mergeCell ref="E58:E60"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="F13:F27"/>
-    <mergeCell ref="BL11:BR11"/>
-    <mergeCell ref="AJ11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="N10:AR10"/>
-    <mergeCell ref="O11:U11"/>
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="AC11:AI11"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D15:D21"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="BS11:BW11"/>
-    <mergeCell ref="AX11:BD11"/>
-    <mergeCell ref="BE11:BK11"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="AS10:BW10"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="D28:D35"/>
-    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D36:D42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E53:E57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="200">
   <si>
     <t>프로젝트 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -726,10 +726,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추후 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김현경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -778,27 +774,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추후 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오태훈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오태훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전 원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ver.1.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전 원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신예은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver.1.1.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -919,7 +911,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1153,17 +1145,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1546,18 +1527,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1566,7 +1549,65 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1575,7 +1616,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1627,28 +1668,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1657,40 +1701,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1699,7 +1740,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1720,152 +1761,143 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1874,57 +1906,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1933,65 +1959,95 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2299,7 +2355,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2310,11 +2366,11 @@
   <dimension ref="B2:BW80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2337,10 +2393,10 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="78"/>
+      <c r="E2" s="114"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -2349,10 +2405,10 @@
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="78"/>
+      <c r="E3" s="114"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -2361,10 +2417,10 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="78"/>
+      <c r="E4" s="114"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -2373,10 +2429,10 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="78" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" s="78"/>
+      <c r="D5" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="114"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -2385,237 +2441,237 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="78"/>
+      <c r="E6" s="114"/>
     </row>
     <row r="7" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="78" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="78"/>
+      <c r="D7" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="114"/>
     </row>
     <row r="9" spans="2:75" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="10" spans="2:75" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="105" t="s">
+      <c r="H10" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="105" t="s">
+      <c r="I10" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="105" t="s">
+      <c r="J10" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="105" t="s">
+      <c r="K10" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="119" t="s">
+      <c r="L10" s="98" t="s">
         <v>49</v>
       </c>
       <c r="M10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="118" t="s">
+      <c r="N10" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="118"/>
-      <c r="X10" s="118"/>
-      <c r="Y10" s="118"/>
-      <c r="Z10" s="118"/>
-      <c r="AA10" s="118"/>
-      <c r="AB10" s="118"/>
-      <c r="AC10" s="118"/>
-      <c r="AD10" s="118"/>
-      <c r="AE10" s="118"/>
-      <c r="AF10" s="118"/>
-      <c r="AG10" s="118"/>
-      <c r="AH10" s="118"/>
-      <c r="AI10" s="118"/>
-      <c r="AJ10" s="118"/>
-      <c r="AK10" s="118"/>
-      <c r="AL10" s="118"/>
-      <c r="AM10" s="118"/>
-      <c r="AN10" s="118"/>
-      <c r="AO10" s="118"/>
-      <c r="AP10" s="118"/>
-      <c r="AQ10" s="118"/>
-      <c r="AR10" s="118"/>
-      <c r="AS10" s="128" t="s">
+      <c r="O10" s="113"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="113"/>
+      <c r="R10" s="113"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="113"/>
+      <c r="AJ10" s="113"/>
+      <c r="AK10" s="113"/>
+      <c r="AL10" s="113"/>
+      <c r="AM10" s="113"/>
+      <c r="AN10" s="113"/>
+      <c r="AO10" s="113"/>
+      <c r="AP10" s="113"/>
+      <c r="AQ10" s="113"/>
+      <c r="AR10" s="113"/>
+      <c r="AS10" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="AT10" s="129"/>
-      <c r="AU10" s="129"/>
-      <c r="AV10" s="129"/>
-      <c r="AW10" s="129"/>
-      <c r="AX10" s="129"/>
-      <c r="AY10" s="129"/>
-      <c r="AZ10" s="129"/>
-      <c r="BA10" s="129"/>
-      <c r="BB10" s="129"/>
-      <c r="BC10" s="129"/>
-      <c r="BD10" s="129"/>
-      <c r="BE10" s="129"/>
-      <c r="BF10" s="129"/>
-      <c r="BG10" s="129"/>
-      <c r="BH10" s="129"/>
-      <c r="BI10" s="129"/>
-      <c r="BJ10" s="129"/>
-      <c r="BK10" s="129"/>
-      <c r="BL10" s="129"/>
-      <c r="BM10" s="129"/>
-      <c r="BN10" s="129"/>
-      <c r="BO10" s="129"/>
-      <c r="BP10" s="129"/>
-      <c r="BQ10" s="129"/>
-      <c r="BR10" s="129"/>
-      <c r="BS10" s="129"/>
-      <c r="BT10" s="129"/>
-      <c r="BU10" s="129"/>
-      <c r="BV10" s="129"/>
-      <c r="BW10" s="130"/>
+      <c r="AT10" s="82"/>
+      <c r="AU10" s="82"/>
+      <c r="AV10" s="82"/>
+      <c r="AW10" s="82"/>
+      <c r="AX10" s="82"/>
+      <c r="AY10" s="82"/>
+      <c r="AZ10" s="82"/>
+      <c r="BA10" s="82"/>
+      <c r="BB10" s="82"/>
+      <c r="BC10" s="82"/>
+      <c r="BD10" s="82"/>
+      <c r="BE10" s="82"/>
+      <c r="BF10" s="82"/>
+      <c r="BG10" s="82"/>
+      <c r="BH10" s="82"/>
+      <c r="BI10" s="82"/>
+      <c r="BJ10" s="82"/>
+      <c r="BK10" s="82"/>
+      <c r="BL10" s="82"/>
+      <c r="BM10" s="82"/>
+      <c r="BN10" s="82"/>
+      <c r="BO10" s="82"/>
+      <c r="BP10" s="82"/>
+      <c r="BQ10" s="82"/>
+      <c r="BR10" s="82"/>
+      <c r="BS10" s="82"/>
+      <c r="BT10" s="82"/>
+      <c r="BU10" s="82"/>
+      <c r="BV10" s="82"/>
+      <c r="BW10" s="83"/>
     </row>
     <row r="11" spans="2:75" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="109"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="120"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="99"/>
       <c r="M11" s="15" t="s">
         <v>13</v>
       </c>
       <c r="N11" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="114" t="s">
+      <c r="O11" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="114"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="114"/>
-      <c r="S11" s="114"/>
-      <c r="T11" s="114"/>
-      <c r="U11" s="114"/>
-      <c r="V11" s="114" t="s">
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="W11" s="114"/>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="114"/>
-      <c r="Z11" s="114"/>
-      <c r="AA11" s="114"/>
-      <c r="AB11" s="114"/>
-      <c r="AC11" s="114" t="s">
+      <c r="W11" s="97"/>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="97"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="97"/>
+      <c r="AB11" s="97"/>
+      <c r="AC11" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="AD11" s="114"/>
-      <c r="AE11" s="114"/>
-      <c r="AF11" s="114"/>
-      <c r="AG11" s="114"/>
-      <c r="AH11" s="114"/>
-      <c r="AI11" s="114"/>
-      <c r="AJ11" s="114" t="s">
+      <c r="AD11" s="97"/>
+      <c r="AE11" s="97"/>
+      <c r="AF11" s="97"/>
+      <c r="AG11" s="97"/>
+      <c r="AH11" s="97"/>
+      <c r="AI11" s="97"/>
+      <c r="AJ11" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="AK11" s="114"/>
-      <c r="AL11" s="114"/>
-      <c r="AM11" s="114"/>
-      <c r="AN11" s="114"/>
-      <c r="AO11" s="114"/>
-      <c r="AP11" s="114"/>
-      <c r="AQ11" s="114" t="s">
+      <c r="AK11" s="97"/>
+      <c r="AL11" s="97"/>
+      <c r="AM11" s="97"/>
+      <c r="AN11" s="97"/>
+      <c r="AO11" s="97"/>
+      <c r="AP11" s="97"/>
+      <c r="AQ11" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="AR11" s="114"/>
-      <c r="AS11" s="115" t="s">
+      <c r="AR11" s="97"/>
+      <c r="AS11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="AT11" s="116"/>
-      <c r="AU11" s="116"/>
-      <c r="AV11" s="116"/>
-      <c r="AW11" s="117"/>
-      <c r="AX11" s="114" t="s">
+      <c r="AT11" s="111"/>
+      <c r="AU11" s="111"/>
+      <c r="AV11" s="111"/>
+      <c r="AW11" s="112"/>
+      <c r="AX11" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="AY11" s="114"/>
-      <c r="AZ11" s="114"/>
-      <c r="BA11" s="114"/>
-      <c r="BB11" s="114"/>
-      <c r="BC11" s="114"/>
-      <c r="BD11" s="114"/>
-      <c r="BE11" s="114" t="s">
+      <c r="AY11" s="97"/>
+      <c r="AZ11" s="97"/>
+      <c r="BA11" s="97"/>
+      <c r="BB11" s="97"/>
+      <c r="BC11" s="97"/>
+      <c r="BD11" s="97"/>
+      <c r="BE11" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="BF11" s="114"/>
-      <c r="BG11" s="114"/>
-      <c r="BH11" s="114"/>
-      <c r="BI11" s="114"/>
-      <c r="BJ11" s="114"/>
-      <c r="BK11" s="114"/>
-      <c r="BL11" s="114" t="s">
+      <c r="BF11" s="97"/>
+      <c r="BG11" s="97"/>
+      <c r="BH11" s="97"/>
+      <c r="BI11" s="97"/>
+      <c r="BJ11" s="97"/>
+      <c r="BK11" s="97"/>
+      <c r="BL11" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="BM11" s="114"/>
-      <c r="BN11" s="114"/>
-      <c r="BO11" s="114"/>
-      <c r="BP11" s="114"/>
-      <c r="BQ11" s="114"/>
-      <c r="BR11" s="114"/>
-      <c r="BS11" s="114" t="s">
+      <c r="BM11" s="97"/>
+      <c r="BN11" s="97"/>
+      <c r="BO11" s="97"/>
+      <c r="BP11" s="97"/>
+      <c r="BQ11" s="97"/>
+      <c r="BR11" s="97"/>
+      <c r="BS11" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="BT11" s="114"/>
-      <c r="BU11" s="114"/>
-      <c r="BV11" s="114"/>
-      <c r="BW11" s="114"/>
+      <c r="BT11" s="97"/>
+      <c r="BU11" s="97"/>
+      <c r="BV11" s="97"/>
+      <c r="BW11" s="97"/>
     </row>
     <row r="12" spans="2:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="110"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="121"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="100"/>
       <c r="M12" s="15" t="s">
         <v>14</v>
       </c>
@@ -2807,19 +2863,19 @@
       </c>
     </row>
     <row r="13" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="132" t="s">
+      <c r="D13" s="87" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="111"/>
+      <c r="F13" s="107"/>
       <c r="G13" s="55" t="str">
         <f t="shared" ref="G13:G43" si="0">IF(H13=1, "진행완료", "진행중")</f>
         <v>진행완료</v>
@@ -2843,13 +2899,13 @@
       <c r="AG13" s="6"/>
     </row>
     <row r="14" spans="2:75" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="124"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
       <c r="E14" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="111"/>
+      <c r="F14" s="107"/>
       <c r="G14" s="59" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -2873,19 +2929,19 @@
       <c r="AH14" s="6"/>
     </row>
     <row r="15" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="97" t="s">
+      <c r="D15" s="94" t="s">
         <v>71</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="111"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="61" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -2910,13 +2966,13 @@
       <c r="AL15" s="6"/>
     </row>
     <row r="16" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="123"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="111"/>
+      <c r="F16" s="107"/>
       <c r="G16" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -2941,13 +2997,13 @@
       <c r="AL16" s="6"/>
     </row>
     <row r="17" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="123"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
       <c r="E17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="111"/>
+      <c r="F17" s="107"/>
       <c r="G17" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -2971,13 +3027,13 @@
       <c r="AL17" s="6"/>
     </row>
     <row r="18" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="123"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="111"/>
+      <c r="F18" s="107"/>
       <c r="G18" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3002,13 +3058,13 @@
       <c r="AN18" s="6"/>
     </row>
     <row r="19" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="123"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
       <c r="E19" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="111"/>
+      <c r="F19" s="107"/>
       <c r="G19" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3033,13 +3089,13 @@
       <c r="AN19" s="6"/>
     </row>
     <row r="20" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="123"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
       <c r="E20" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="111"/>
+      <c r="F20" s="107"/>
       <c r="G20" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3063,13 +3119,13 @@
       <c r="AO20" s="6"/>
     </row>
     <row r="21" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="124"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
       <c r="E21" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="111"/>
+      <c r="F21" s="107"/>
       <c r="G21" s="53" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3093,19 +3149,19 @@
       <c r="AO21" s="6"/>
     </row>
     <row r="22" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="122" t="s">
+      <c r="B22" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="122" t="s">
+      <c r="C22" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="125" t="s">
+      <c r="D22" s="101" t="s">
         <v>72</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="112"/>
+      <c r="F22" s="108"/>
       <c r="G22" s="55" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3129,13 +3185,13 @@
       <c r="AR22" s="6"/>
     </row>
     <row r="23" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="126"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="102"/>
       <c r="E23" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="112"/>
+      <c r="F23" s="108"/>
       <c r="G23" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3159,13 +3215,13 @@
       <c r="AR23" s="6"/>
     </row>
     <row r="24" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="123"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="126"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="102"/>
       <c r="E24" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="112"/>
+      <c r="F24" s="108"/>
       <c r="G24" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3189,13 +3245,13 @@
       <c r="AS24" s="6"/>
     </row>
     <row r="25" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="123"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="126"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="102"/>
       <c r="E25" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="112"/>
+      <c r="F25" s="108"/>
       <c r="G25" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3219,13 +3275,13 @@
       <c r="AR25" s="6"/>
     </row>
     <row r="26" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="126"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="102"/>
       <c r="E26" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="112"/>
+      <c r="F26" s="108"/>
       <c r="G26" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3249,13 +3305,13 @@
       <c r="AS26" s="6"/>
     </row>
     <row r="27" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="124"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="127"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="103"/>
       <c r="E27" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="113"/>
+      <c r="F27" s="109"/>
       <c r="G27" s="59" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3279,16 +3335,16 @@
       <c r="AS27" s="6"/>
     </row>
     <row r="28" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="122" t="s">
+      <c r="B28" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="136" t="s">
+      <c r="C28" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="136" t="s">
+      <c r="D28" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="134" t="s">
+      <c r="E28" s="89" t="s">
         <v>76</v>
       </c>
       <c r="F28" s="33" t="s">
@@ -3319,65 +3375,65 @@
       <c r="AV28" s="6"/>
     </row>
     <row r="29" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="123"/>
-      <c r="C29" s="137"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="135"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="90"/>
       <c r="F29" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="52" t="str">
+      <c r="G29" s="59" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H29" s="40">
-        <v>1</v>
-      </c>
-      <c r="I29" s="9">
+      <c r="H29" s="60">
+        <v>1</v>
+      </c>
+      <c r="I29" s="16">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J29" s="44">
+      <c r="J29" s="45">
         <v>45140</v>
       </c>
-      <c r="K29" s="44">
+      <c r="K29" s="45">
         <v>45142</v>
       </c>
-      <c r="L29" s="13" t="s">
-        <v>74</v>
+      <c r="L29" s="20" t="s">
+        <v>198</v>
       </c>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
       <c r="AV29" s="6"/>
     </row>
     <row r="30" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="123"/>
-      <c r="C30" s="137"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="135" t="s">
+      <c r="B30" s="77"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="90" t="s">
         <v>77</v>
       </c>
       <c r="F30" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="G30" s="52" t="str">
+      <c r="G30" s="61" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H30" s="40">
-        <v>1</v>
-      </c>
-      <c r="I30" s="9">
+      <c r="H30" s="62">
+        <v>1</v>
+      </c>
+      <c r="I30" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J30" s="44">
+      <c r="J30" s="42">
         <v>45140</v>
       </c>
-      <c r="K30" s="44">
+      <c r="K30" s="42">
         <v>45142</v>
       </c>
-      <c r="L30" s="13" t="s">
+      <c r="L30" s="12" t="s">
         <v>153</v>
       </c>
       <c r="AT30" s="6"/>
@@ -3385,10 +3441,10 @@
       <c r="AV30" s="6"/>
     </row>
     <row r="31" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="123"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="135"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="90"/>
       <c r="F31" s="35" t="s">
         <v>82</v>
       </c>
@@ -3420,10 +3476,10 @@
       <c r="AV31" s="6"/>
     </row>
     <row r="32" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="123"/>
-      <c r="C32" s="137"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="135"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="90"/>
       <c r="F32" s="26" t="s">
         <v>83</v>
       </c>
@@ -3452,31 +3508,31 @@
       <c r="AV32" s="6"/>
     </row>
     <row r="33" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="123"/>
-      <c r="C33" s="137"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="135"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="90"/>
       <c r="F33" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="52" t="str">
+      <c r="G33" s="53" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H33" s="40">
-        <v>1</v>
-      </c>
-      <c r="I33" s="9">
+      <c r="H33" s="63">
+        <v>1</v>
+      </c>
+      <c r="I33" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J33" s="44">
+      <c r="J33" s="43">
         <v>45140</v>
       </c>
-      <c r="K33" s="44">
+      <c r="K33" s="43">
         <v>45142</v>
       </c>
-      <c r="L33" s="13" t="s">
+      <c r="L33" s="14" t="s">
         <v>153</v>
       </c>
       <c r="AT33" s="6"/>
@@ -3484,33 +3540,33 @@
       <c r="AV33" s="6"/>
     </row>
     <row r="34" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="123"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="82" t="s">
+      <c r="B34" s="77"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="84" t="s">
         <v>78</v>
       </c>
       <c r="F34" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="G34" s="52" t="str">
+      <c r="G34" s="55" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H34" s="40">
-        <v>1</v>
-      </c>
-      <c r="I34" s="9">
+      <c r="H34" s="56">
+        <v>1</v>
+      </c>
+      <c r="I34" s="57">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J34" s="44">
+      <c r="J34" s="58">
         <v>45140</v>
       </c>
-      <c r="K34" s="44">
+      <c r="K34" s="58">
         <v>45142</v>
       </c>
-      <c r="L34" s="13" t="s">
+      <c r="L34" s="19" t="s">
         <v>74</v>
       </c>
       <c r="AT34" s="6"/>
@@ -3518,10 +3574,10 @@
       <c r="AV34" s="6"/>
     </row>
     <row r="35" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="123"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="131"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="85"/>
       <c r="F35" s="30" t="s">
         <v>86</v>
       </c>
@@ -3550,13 +3606,13 @@
       <c r="AV35" s="6"/>
     </row>
     <row r="36" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="97" t="s">
+      <c r="B36" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="97" t="s">
+      <c r="C36" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="84" t="s">
+      <c r="D36" s="134" t="s">
         <v>90</v>
       </c>
       <c r="E36" s="28" t="s">
@@ -3565,65 +3621,65 @@
       <c r="F36" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="55" t="str">
+      <c r="G36" s="137" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H36" s="56">
-        <v>1</v>
-      </c>
-      <c r="I36" s="64">
+      <c r="H36" s="138">
+        <v>1</v>
+      </c>
+      <c r="I36" s="139">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J36" s="65">
+      <c r="J36" s="140">
         <v>45145</v>
       </c>
-      <c r="K36" s="65">
+      <c r="K36" s="140">
         <v>45145</v>
       </c>
-      <c r="L36" s="19" t="s">
+      <c r="L36" s="141" t="s">
         <v>157</v>
       </c>
       <c r="AW36" s="6"/>
     </row>
     <row r="37" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="82" t="s">
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="84" t="s">
         <v>92</v>
       </c>
       <c r="F37" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="G37" s="52" t="str">
+      <c r="G37" s="55" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H37" s="40">
-        <v>1</v>
-      </c>
-      <c r="I37" s="7">
+      <c r="H37" s="56">
+        <v>1</v>
+      </c>
+      <c r="I37" s="64">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J37" s="46">
+      <c r="J37" s="65">
         <v>45145</v>
       </c>
-      <c r="K37" s="46">
+      <c r="K37" s="65">
         <v>45145</v>
       </c>
-      <c r="L37" s="13" t="s">
+      <c r="L37" s="19" t="s">
         <v>157</v>
       </c>
       <c r="AW37" s="6"/>
     </row>
     <row r="38" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="82"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="84"/>
       <c r="F38" s="27" t="s">
         <v>98</v>
       </c>
@@ -3650,10 +3706,10 @@
       <c r="AW38" s="6"/>
     </row>
     <row r="39" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="98"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="82" t="s">
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="84" t="s">
         <v>93</v>
       </c>
       <c r="F39" s="25" t="s">
@@ -3682,10 +3738,10 @@
       <c r="AW39" s="6"/>
     </row>
     <row r="40" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="98"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="82"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="84"/>
       <c r="F40" s="21" t="s">
         <v>100</v>
       </c>
@@ -3712,97 +3768,97 @@
       <c r="AW40" s="6"/>
     </row>
     <row r="41" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="82" t="s">
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="84" t="s">
         <v>94</v>
       </c>
       <c r="F41" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="G41" s="55" t="str">
+      <c r="G41" s="61" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H41" s="56">
-        <v>1</v>
-      </c>
-      <c r="I41" s="64">
+      <c r="H41" s="62">
+        <v>1</v>
+      </c>
+      <c r="I41" s="68">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J41" s="65">
+      <c r="J41" s="69">
         <v>45145</v>
       </c>
-      <c r="K41" s="65">
+      <c r="K41" s="69">
         <v>45145</v>
       </c>
-      <c r="L41" s="19" t="s">
+      <c r="L41" s="12" t="s">
         <v>157</v>
       </c>
       <c r="AW41" s="6"/>
     </row>
     <row r="42" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="83"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="133"/>
       <c r="F42" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G42" s="59" t="str">
+      <c r="G42" s="53" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H42" s="60">
-        <v>1</v>
-      </c>
-      <c r="I42" s="66">
+      <c r="H42" s="63">
+        <v>1</v>
+      </c>
+      <c r="I42" s="54">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J42" s="67">
+      <c r="J42" s="70">
         <v>45145</v>
       </c>
-      <c r="K42" s="67">
+      <c r="K42" s="70">
         <v>45145</v>
       </c>
-      <c r="L42" s="20" t="s">
+      <c r="L42" s="14" t="s">
         <v>157</v>
       </c>
       <c r="AW42" s="6"/>
     </row>
     <row r="43" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="100" t="s">
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="128" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="104" t="s">
+      <c r="E43" s="132" t="s">
         <v>123</v>
       </c>
       <c r="F43" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="G43" s="61" t="str">
+      <c r="G43" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>진행중</v>
-      </c>
-      <c r="H43" s="62">
-        <v>0.9</v>
-      </c>
-      <c r="I43" s="68">
+        <v>진행완료</v>
+      </c>
+      <c r="H43" s="56">
+        <v>1</v>
+      </c>
+      <c r="I43" s="64">
         <f>IF(OR(J43="",K43=""),"",K43-J43+1)</f>
         <v>3</v>
       </c>
-      <c r="J43" s="69">
+      <c r="J43" s="65">
         <v>45148</v>
       </c>
-      <c r="K43" s="69">
+      <c r="K43" s="65">
         <v>45150</v>
       </c>
-      <c r="L43" s="12" t="s">
+      <c r="L43" s="19" t="s">
         <v>155</v>
       </c>
       <c r="BB43" s="6"/>
@@ -3810,10 +3866,10 @@
       <c r="BD43" s="6"/>
     </row>
     <row r="44" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="80"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="120"/>
       <c r="F44" s="48" t="s">
         <v>130</v>
       </c>
@@ -3835,7 +3891,7 @@
         <v>45155</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BB44" s="6"/>
       <c r="BC44" s="6"/>
@@ -3847,19 +3903,19 @@
       <c r="BI44" s="6"/>
     </row>
     <row r="45" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="98"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="80"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="120"/>
       <c r="F45" s="48" t="s">
         <v>129</v>
       </c>
       <c r="G45" s="52" t="str">
         <f t="shared" ref="G45:G80" si="3">IF(H45=1, "진행완료", "진행중")</f>
-        <v>진행중</v>
-      </c>
-      <c r="H45" s="40" t="s">
-        <v>95</v>
+        <v>진행완료</v>
+      </c>
+      <c r="H45" s="40">
+        <v>1</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="2"/>
@@ -3879,10 +3935,10 @@
       <c r="BD45" s="6"/>
     </row>
     <row r="46" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="98"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="80"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="120"/>
       <c r="F46" s="48" t="s">
         <v>128</v>
       </c>
@@ -3904,7 +3960,7 @@
         <v>45155</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB46" s="6"/>
       <c r="BC46" s="6"/>
@@ -3916,10 +3972,10 @@
       <c r="BI46" s="6"/>
     </row>
     <row r="47" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="98"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="80"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="120"/>
       <c r="F47" s="48" t="s">
         <v>127</v>
       </c>
@@ -3941,7 +3997,7 @@
         <v>45155</v>
       </c>
       <c r="L47" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB47" s="6"/>
       <c r="BC47" s="6"/>
@@ -3953,10 +4009,10 @@
       <c r="BI47" s="6"/>
     </row>
     <row r="48" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="98"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="81"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="121"/>
       <c r="F48" s="49" t="s">
         <v>126</v>
       </c>
@@ -3978,7 +4034,7 @@
         <v>45155</v>
       </c>
       <c r="L48" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB48" s="6"/>
       <c r="BC48" s="6"/>
@@ -3990,33 +4046,33 @@
       <c r="BI48" s="6"/>
     </row>
     <row r="49" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="98"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="101"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="129"/>
       <c r="E49" s="38" t="s">
         <v>117</v>
       </c>
       <c r="F49" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="G49" s="71" t="str">
+      <c r="G49" s="137" t="str">
         <f t="shared" si="3"/>
-        <v>진행중</v>
-      </c>
-      <c r="H49" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="I49" s="72">
+        <v>진행완료</v>
+      </c>
+      <c r="H49" s="138">
+        <v>1</v>
+      </c>
+      <c r="I49" s="139">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J49" s="76">
+      <c r="J49" s="140">
         <v>45152</v>
       </c>
-      <c r="K49" s="76">
+      <c r="K49" s="140">
         <v>45154</v>
       </c>
-      <c r="L49" s="73" t="s">
+      <c r="L49" s="141" t="s">
         <v>156</v>
       </c>
       <c r="BF49" s="6"/>
@@ -4024,52 +4080,52 @@
       <c r="BH49" s="6"/>
     </row>
     <row r="50" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="98"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="79" t="s">
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="119" t="s">
         <v>118</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G50" s="61" t="str">
+      <c r="G50" s="55" t="str">
         <f t="shared" si="3"/>
-        <v>진행중</v>
-      </c>
-      <c r="H50" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="I50" s="68">
+        <v>진행완료</v>
+      </c>
+      <c r="H50" s="56">
+        <v>1</v>
+      </c>
+      <c r="I50" s="64">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J50" s="69">
+      <c r="J50" s="65">
         <v>45150</v>
       </c>
-      <c r="K50" s="69">
+      <c r="K50" s="65">
         <v>45151</v>
       </c>
-      <c r="L50" s="12" t="s">
+      <c r="L50" s="19" t="s">
         <v>154</v>
       </c>
       <c r="BD50" s="6"/>
       <c r="BE50" s="6"/>
     </row>
     <row r="51" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="98"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="80"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="120"/>
       <c r="F51" s="48" t="s">
         <v>122</v>
       </c>
       <c r="G51" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>진행중</v>
-      </c>
-      <c r="H51" s="40" t="s">
-        <v>95</v>
+        <v>진행완료</v>
+      </c>
+      <c r="H51" s="40">
+        <v>1</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="2"/>
@@ -4088,10 +4144,10 @@
       <c r="BE51" s="6"/>
     </row>
     <row r="52" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="98"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="80"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="120"/>
       <c r="F52" s="51" t="s">
         <v>119</v>
       </c>
@@ -4113,10 +4169,10 @@
       </c>
     </row>
     <row r="53" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="98"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="87" t="s">
+      <c r="B53" s="95"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="116" t="s">
         <v>167</v>
       </c>
       <c r="F53" s="25" t="s">
@@ -4145,10 +4201,10 @@
       <c r="BD53" s="6"/>
     </row>
     <row r="54" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="98"/>
-      <c r="C54" s="98"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="88"/>
+      <c r="B54" s="95"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="117"/>
       <c r="F54" s="29" t="s">
         <v>177</v>
       </c>
@@ -4233,10 +4289,10 @@
       <c r="BS54" s="47"/>
     </row>
     <row r="55" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="98"/>
-      <c r="C55" s="98"/>
-      <c r="D55" s="102"/>
-      <c r="E55" s="88"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="117"/>
       <c r="F55" s="26" t="s">
         <v>174</v>
       </c>
@@ -4247,7 +4303,7 @@
       <c r="H55" s="40">
         <v>1</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="75">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -4264,10 +4320,10 @@
       <c r="BF55" s="6"/>
     </row>
     <row r="56" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="98"/>
-      <c r="C56" s="98"/>
-      <c r="D56" s="102"/>
-      <c r="E56" s="88"/>
+      <c r="B56" s="95"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="117"/>
       <c r="F56" s="26" t="s">
         <v>175</v>
       </c>
@@ -4278,7 +4334,7 @@
       <c r="H56" s="40">
         <v>1</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="75">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -4295,31 +4351,31 @@
       <c r="BH56" s="6"/>
     </row>
     <row r="57" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="98"/>
-      <c r="C57" s="98"/>
-      <c r="D57" s="102"/>
-      <c r="E57" s="89"/>
+      <c r="B57" s="95"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="118"/>
       <c r="F57" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="G57" s="59" t="str">
+      <c r="G57" s="53" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H57" s="60">
-        <v>1</v>
-      </c>
-      <c r="I57" s="66">
+      <c r="H57" s="63">
+        <v>1</v>
+      </c>
+      <c r="I57" s="54">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J57" s="67">
+      <c r="J57" s="70">
         <v>45151</v>
       </c>
-      <c r="K57" s="67">
+      <c r="K57" s="70">
         <v>45153</v>
       </c>
-      <c r="L57" s="20" t="s">
+      <c r="L57" s="14" t="s">
         <v>73</v>
       </c>
       <c r="BE57" s="6"/>
@@ -4327,10 +4383,10 @@
       <c r="BG57" s="6"/>
     </row>
     <row r="58" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="98"/>
-      <c r="C58" s="98"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="80" t="s">
+      <c r="B58" s="95"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="129"/>
+      <c r="E58" s="120" t="s">
         <v>168</v>
       </c>
       <c r="F58" s="50" t="s">
@@ -4338,12 +4394,12 @@
       </c>
       <c r="G58" s="61" t="str">
         <f t="shared" si="3"/>
-        <v>진행중</v>
-      </c>
-      <c r="H58" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="I58" s="75">
+        <v>진행완료</v>
+      </c>
+      <c r="H58" s="62">
+        <v>1</v>
+      </c>
+      <c r="I58" s="72">
         <f>IF(OR(J58="",K58=""),"",K58-J58+1)</f>
         <v>2</v>
       </c>
@@ -4354,106 +4410,106 @@
         <v>45155</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BH58" s="6"/>
       <c r="BI58" s="6"/>
     </row>
-    <row r="59" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="98"/>
-      <c r="C59" s="98"/>
-      <c r="D59" s="101"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="49" t="s">
+    <row r="59" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="95"/>
+      <c r="C59" s="95"/>
+      <c r="D59" s="129"/>
+      <c r="E59" s="120"/>
+      <c r="F59" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="G59" s="53" t="str">
+      <c r="G59" s="59" t="str">
         <f t="shared" si="3"/>
-        <v>진행중</v>
-      </c>
-      <c r="H59" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="I59" s="54">
+        <v>진행완료</v>
+      </c>
+      <c r="H59" s="74">
+        <v>1</v>
+      </c>
+      <c r="I59" s="66">
         <f t="shared" ref="I59:I80" si="4">IF(OR(J59="",K59=""),"",K59-J59+1)</f>
         <v>2</v>
       </c>
-      <c r="J59" s="76">
+      <c r="J59" s="73">
         <v>45154</v>
       </c>
-      <c r="K59" s="76">
+      <c r="K59" s="73">
         <v>45155</v>
       </c>
-      <c r="L59" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="M59" s="74"/>
-      <c r="N59" s="74"/>
-      <c r="O59" s="74"/>
-      <c r="P59" s="74"/>
-      <c r="Q59" s="74"/>
-      <c r="R59" s="74"/>
-      <c r="S59" s="74"/>
-      <c r="T59" s="74"/>
-      <c r="U59" s="74"/>
-      <c r="V59" s="74"/>
-      <c r="W59" s="74"/>
-      <c r="X59" s="74"/>
-      <c r="Y59" s="74"/>
-      <c r="Z59" s="74"/>
-      <c r="AA59" s="74"/>
-      <c r="AB59" s="74"/>
-      <c r="AC59" s="74"/>
-      <c r="AD59" s="74"/>
-      <c r="AE59" s="74"/>
-      <c r="AF59" s="74"/>
-      <c r="AG59" s="74"/>
-      <c r="AH59" s="74"/>
-      <c r="AI59" s="74"/>
-      <c r="AJ59" s="74"/>
-      <c r="AK59" s="74"/>
-      <c r="AL59" s="74"/>
-      <c r="AM59" s="74"/>
-      <c r="AN59" s="74"/>
-      <c r="AO59" s="74"/>
-      <c r="AP59" s="74"/>
-      <c r="AQ59" s="74"/>
-      <c r="AR59" s="74"/>
-      <c r="AS59" s="74"/>
-      <c r="AT59" s="74"/>
-      <c r="AU59" s="74"/>
-      <c r="AV59" s="74"/>
-      <c r="AW59" s="74"/>
-      <c r="AX59" s="74"/>
-      <c r="AY59" s="74"/>
-      <c r="AZ59" s="74"/>
-      <c r="BA59" s="74"/>
-      <c r="BB59" s="74"/>
-      <c r="BC59" s="74"/>
-      <c r="BD59" s="74"/>
-      <c r="BE59" s="74"/>
-      <c r="BF59" s="74"/>
-      <c r="BG59" s="74"/>
+      <c r="L59" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M59" s="71"/>
+      <c r="N59" s="71"/>
+      <c r="O59" s="71"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="71"/>
+      <c r="R59" s="71"/>
+      <c r="S59" s="71"/>
+      <c r="T59" s="71"/>
+      <c r="U59" s="71"/>
+      <c r="V59" s="71"/>
+      <c r="W59" s="71"/>
+      <c r="X59" s="71"/>
+      <c r="Y59" s="71"/>
+      <c r="Z59" s="71"/>
+      <c r="AA59" s="71"/>
+      <c r="AB59" s="71"/>
+      <c r="AC59" s="71"/>
+      <c r="AD59" s="71"/>
+      <c r="AE59" s="71"/>
+      <c r="AF59" s="71"/>
+      <c r="AG59" s="71"/>
+      <c r="AH59" s="71"/>
+      <c r="AI59" s="71"/>
+      <c r="AJ59" s="71"/>
+      <c r="AK59" s="71"/>
+      <c r="AL59" s="71"/>
+      <c r="AM59" s="71"/>
+      <c r="AN59" s="71"/>
+      <c r="AO59" s="71"/>
+      <c r="AP59" s="71"/>
+      <c r="AQ59" s="71"/>
+      <c r="AR59" s="71"/>
+      <c r="AS59" s="71"/>
+      <c r="AT59" s="71"/>
+      <c r="AU59" s="71"/>
+      <c r="AV59" s="71"/>
+      <c r="AW59" s="71"/>
+      <c r="AX59" s="71"/>
+      <c r="AY59" s="71"/>
+      <c r="AZ59" s="71"/>
+      <c r="BA59" s="71"/>
+      <c r="BB59" s="71"/>
+      <c r="BC59" s="71"/>
+      <c r="BD59" s="71"/>
+      <c r="BE59" s="71"/>
+      <c r="BF59" s="71"/>
+      <c r="BG59" s="71"/>
       <c r="BH59" s="6"/>
       <c r="BI59" s="6"/>
-      <c r="BJ59" s="74"/>
-      <c r="BK59" s="74"/>
-      <c r="BL59" s="74"/>
-      <c r="BM59" s="74"/>
-      <c r="BN59" s="74"/>
-      <c r="BO59" s="74"/>
-      <c r="BP59" s="74"/>
-      <c r="BQ59" s="74"/>
-      <c r="BR59" s="74"/>
-      <c r="BS59" s="74"/>
+      <c r="BJ59" s="71"/>
+      <c r="BK59" s="71"/>
+      <c r="BL59" s="71"/>
+      <c r="BM59" s="71"/>
+      <c r="BN59" s="71"/>
+      <c r="BO59" s="71"/>
+      <c r="BP59" s="71"/>
+      <c r="BQ59" s="71"/>
+      <c r="BR59" s="71"/>
+      <c r="BS59" s="71"/>
     </row>
     <row r="60" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="98"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="101"/>
-      <c r="E60" s="81"/>
+      <c r="B60" s="95"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="129"/>
+      <c r="E60" s="121"/>
       <c r="F60" s="49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G60" s="53" t="str">
         <f t="shared" si="3"/>
@@ -4473,39 +4529,39 @@
         <v>45155</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BH60" s="6"/>
       <c r="BI60" s="6"/>
     </row>
     <row r="61" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="98"/>
-      <c r="C61" s="98"/>
-      <c r="D61" s="101"/>
-      <c r="E61" s="79" t="s">
+      <c r="B61" s="95"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="129"/>
+      <c r="E61" s="119" t="s">
         <v>169</v>
       </c>
       <c r="F61" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="G61" s="55" t="str">
+      <c r="G61" s="61" t="str">
         <f t="shared" si="3"/>
-        <v>진행중</v>
-      </c>
-      <c r="H61" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="I61" s="64">
+        <v>진행완료</v>
+      </c>
+      <c r="H61" s="62">
+        <v>1</v>
+      </c>
+      <c r="I61" s="68">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J61" s="65">
+      <c r="J61" s="69">
         <v>45152</v>
       </c>
-      <c r="K61" s="65">
+      <c r="K61" s="69">
         <v>45155</v>
       </c>
-      <c r="L61" s="19" t="s">
+      <c r="L61" s="12" t="s">
         <v>74</v>
       </c>
       <c r="BF61" s="6"/>
@@ -4514,19 +4570,19 @@
       <c r="BI61" s="6"/>
     </row>
     <row r="62" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="98"/>
-      <c r="C62" s="98"/>
-      <c r="D62" s="101"/>
-      <c r="E62" s="80"/>
+      <c r="B62" s="95"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="129"/>
+      <c r="E62" s="120"/>
       <c r="F62" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G62" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>진행중</v>
-      </c>
-      <c r="H62" s="56" t="s">
-        <v>196</v>
+        <v>진행완료</v>
+      </c>
+      <c r="H62" s="56">
+        <v>1</v>
       </c>
       <c r="I62" s="64">
         <f t="shared" si="4"/>
@@ -4539,84 +4595,84 @@
         <v>45155</v>
       </c>
       <c r="L62" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="M62" s="74"/>
-      <c r="N62" s="74"/>
-      <c r="O62" s="74"/>
-      <c r="P62" s="74"/>
-      <c r="Q62" s="74"/>
-      <c r="R62" s="74"/>
-      <c r="S62" s="74"/>
-      <c r="T62" s="74"/>
-      <c r="U62" s="74"/>
-      <c r="V62" s="74"/>
-      <c r="W62" s="74"/>
-      <c r="X62" s="74"/>
-      <c r="Y62" s="74"/>
-      <c r="Z62" s="74"/>
-      <c r="AA62" s="74"/>
-      <c r="AB62" s="74"/>
-      <c r="AC62" s="74"/>
-      <c r="AD62" s="74"/>
-      <c r="AE62" s="74"/>
-      <c r="AF62" s="74"/>
-      <c r="AG62" s="74"/>
-      <c r="AH62" s="74"/>
-      <c r="AI62" s="74"/>
-      <c r="AJ62" s="74"/>
-      <c r="AK62" s="74"/>
-      <c r="AL62" s="74"/>
-      <c r="AM62" s="74"/>
-      <c r="AN62" s="74"/>
-      <c r="AO62" s="74"/>
-      <c r="AP62" s="74"/>
-      <c r="AQ62" s="74"/>
-      <c r="AR62" s="74"/>
-      <c r="AS62" s="74"/>
-      <c r="AT62" s="74"/>
-      <c r="AU62" s="74"/>
-      <c r="AV62" s="74"/>
-      <c r="AW62" s="74"/>
-      <c r="AX62" s="74"/>
-      <c r="AY62" s="74"/>
-      <c r="AZ62" s="74"/>
-      <c r="BA62" s="74"/>
-      <c r="BB62" s="74"/>
-      <c r="BC62" s="74"/>
-      <c r="BD62" s="74"/>
-      <c r="BE62" s="74"/>
+        <v>195</v>
+      </c>
+      <c r="M62" s="71"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="71"/>
+      <c r="P62" s="71"/>
+      <c r="Q62" s="71"/>
+      <c r="R62" s="71"/>
+      <c r="S62" s="71"/>
+      <c r="T62" s="71"/>
+      <c r="U62" s="71"/>
+      <c r="V62" s="71"/>
+      <c r="W62" s="71"/>
+      <c r="X62" s="71"/>
+      <c r="Y62" s="71"/>
+      <c r="Z62" s="71"/>
+      <c r="AA62" s="71"/>
+      <c r="AB62" s="71"/>
+      <c r="AC62" s="71"/>
+      <c r="AD62" s="71"/>
+      <c r="AE62" s="71"/>
+      <c r="AF62" s="71"/>
+      <c r="AG62" s="71"/>
+      <c r="AH62" s="71"/>
+      <c r="AI62" s="71"/>
+      <c r="AJ62" s="71"/>
+      <c r="AK62" s="71"/>
+      <c r="AL62" s="71"/>
+      <c r="AM62" s="71"/>
+      <c r="AN62" s="71"/>
+      <c r="AO62" s="71"/>
+      <c r="AP62" s="71"/>
+      <c r="AQ62" s="71"/>
+      <c r="AR62" s="71"/>
+      <c r="AS62" s="71"/>
+      <c r="AT62" s="71"/>
+      <c r="AU62" s="71"/>
+      <c r="AV62" s="71"/>
+      <c r="AW62" s="71"/>
+      <c r="AX62" s="71"/>
+      <c r="AY62" s="71"/>
+      <c r="AZ62" s="71"/>
+      <c r="BA62" s="71"/>
+      <c r="BB62" s="71"/>
+      <c r="BC62" s="71"/>
+      <c r="BD62" s="71"/>
+      <c r="BE62" s="71"/>
       <c r="BF62" s="6"/>
       <c r="BG62" s="6"/>
       <c r="BH62" s="6"/>
       <c r="BI62" s="6"/>
-      <c r="BJ62" s="74"/>
-      <c r="BK62" s="74"/>
-      <c r="BL62" s="74"/>
-      <c r="BM62" s="74"/>
-      <c r="BN62" s="74"/>
-      <c r="BO62" s="74"/>
-      <c r="BP62" s="74"/>
-      <c r="BQ62" s="74"/>
-      <c r="BR62" s="74"/>
-      <c r="BS62" s="74"/>
+      <c r="BJ62" s="71"/>
+      <c r="BK62" s="71"/>
+      <c r="BL62" s="71"/>
+      <c r="BM62" s="71"/>
+      <c r="BN62" s="71"/>
+      <c r="BO62" s="71"/>
+      <c r="BP62" s="71"/>
+      <c r="BQ62" s="71"/>
+      <c r="BR62" s="71"/>
+      <c r="BS62" s="71"/>
     </row>
     <row r="63" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="98"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="101"/>
-      <c r="E63" s="80"/>
+      <c r="B63" s="95"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="129"/>
+      <c r="E63" s="120"/>
       <c r="F63" s="48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G63" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>진행중</v>
-      </c>
-      <c r="H63" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="I63" s="7">
+        <v>진행완료</v>
+      </c>
+      <c r="H63" s="56">
+        <v>1</v>
+      </c>
+      <c r="I63" s="75">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -4635,21 +4691,21 @@
       <c r="BI63" s="6"/>
     </row>
     <row r="64" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="98"/>
-      <c r="C64" s="98"/>
-      <c r="D64" s="101"/>
-      <c r="E64" s="80"/>
+      <c r="B64" s="95"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="129"/>
+      <c r="E64" s="120"/>
       <c r="F64" s="48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G64" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>진행중</v>
-      </c>
-      <c r="H64" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="I64" s="7">
+        <v>진행완료</v>
+      </c>
+      <c r="H64" s="56">
+        <v>1</v>
+      </c>
+      <c r="I64" s="75">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -4668,32 +4724,32 @@
       <c r="BI64" s="6"/>
     </row>
     <row r="65" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="98"/>
-      <c r="C65" s="98"/>
-      <c r="D65" s="103"/>
-      <c r="E65" s="81"/>
+      <c r="B65" s="95"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="131"/>
+      <c r="E65" s="121"/>
       <c r="F65" s="49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G65" s="53" t="str">
         <f t="shared" si="3"/>
-        <v>진행중</v>
-      </c>
-      <c r="H65" s="63" t="s">
-        <v>95</v>
+        <v>진행완료</v>
+      </c>
+      <c r="H65" s="142">
+        <v>1</v>
       </c>
       <c r="I65" s="54">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J65" s="46">
+      <c r="J65" s="70">
         <v>45152</v>
       </c>
-      <c r="K65" s="46">
+      <c r="K65" s="70">
         <v>45155</v>
       </c>
       <c r="L65" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BF65" s="6"/>
       <c r="BG65" s="6"/>
@@ -4701,12 +4757,12 @@
       <c r="BI65" s="6"/>
     </row>
     <row r="66" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="98"/>
-      <c r="C66" s="98"/>
-      <c r="D66" s="94" t="s">
+      <c r="B66" s="95"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="125" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="91" t="s">
+      <c r="E66" s="122" t="s">
         <v>124</v>
       </c>
       <c r="F66" s="22" t="s">
@@ -4714,10 +4770,10 @@
       </c>
       <c r="G66" s="55" t="str">
         <f t="shared" si="3"/>
-        <v>진행중</v>
-      </c>
-      <c r="H66" s="56" t="s">
-        <v>95</v>
+        <v>진행완료</v>
+      </c>
+      <c r="H66" s="56">
+        <v>1</v>
       </c>
       <c r="I66" s="64">
         <f t="shared" si="4"/>
@@ -4730,7 +4786,7 @@
         <v>45155</v>
       </c>
       <c r="L66" s="19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BE66" s="6"/>
       <c r="BF66" s="6"/>
@@ -4739,10 +4795,10 @@
       <c r="BI66" s="6"/>
     </row>
     <row r="67" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="98"/>
-      <c r="C67" s="98"/>
-      <c r="D67" s="95"/>
-      <c r="E67" s="92"/>
+      <c r="B67" s="95"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="126"/>
+      <c r="E67" s="123"/>
       <c r="F67" s="48" t="s">
         <v>133</v>
       </c>
@@ -4771,10 +4827,10 @@
       <c r="BG67" s="6"/>
     </row>
     <row r="68" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="98"/>
-      <c r="C68" s="98"/>
-      <c r="D68" s="95"/>
-      <c r="E68" s="92"/>
+      <c r="B68" s="95"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="126"/>
+      <c r="E68" s="123"/>
       <c r="F68" s="48" t="s">
         <v>134</v>
       </c>
@@ -4803,19 +4859,19 @@
       <c r="BG68" s="6"/>
     </row>
     <row r="69" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="98"/>
-      <c r="C69" s="98"/>
-      <c r="D69" s="95"/>
-      <c r="E69" s="92"/>
+      <c r="B69" s="95"/>
+      <c r="C69" s="95"/>
+      <c r="D69" s="126"/>
+      <c r="E69" s="123"/>
       <c r="F69" s="48" t="s">
         <v>135</v>
       </c>
       <c r="G69" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>진행중</v>
-      </c>
-      <c r="H69" s="40" t="s">
-        <v>95</v>
+        <v>진행완료</v>
+      </c>
+      <c r="H69" s="56">
+        <v>1</v>
       </c>
       <c r="I69" s="7">
         <f t="shared" si="4"/>
@@ -4837,19 +4893,19 @@
       <c r="BI69" s="6"/>
     </row>
     <row r="70" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="98"/>
-      <c r="C70" s="98"/>
-      <c r="D70" s="95"/>
-      <c r="E70" s="92"/>
+      <c r="B70" s="95"/>
+      <c r="C70" s="95"/>
+      <c r="D70" s="126"/>
+      <c r="E70" s="123"/>
       <c r="F70" s="48" t="s">
         <v>136</v>
       </c>
       <c r="G70" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>진행중</v>
-      </c>
-      <c r="H70" s="40" t="s">
-        <v>95</v>
+        <v>진행완료</v>
+      </c>
+      <c r="H70" s="56">
+        <v>1</v>
       </c>
       <c r="I70" s="7">
         <f t="shared" si="4"/>
@@ -4871,19 +4927,19 @@
       <c r="BI70" s="6"/>
     </row>
     <row r="71" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="98"/>
-      <c r="C71" s="98"/>
-      <c r="D71" s="95"/>
-      <c r="E71" s="92"/>
+      <c r="B71" s="95"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="126"/>
+      <c r="E71" s="123"/>
       <c r="F71" s="48" t="s">
         <v>137</v>
       </c>
       <c r="G71" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>진행중</v>
-      </c>
-      <c r="H71" s="40" t="s">
-        <v>95</v>
+        <v>진행완료</v>
+      </c>
+      <c r="H71" s="56">
+        <v>1</v>
       </c>
       <c r="I71" s="7">
         <f t="shared" si="4"/>
@@ -4905,19 +4961,19 @@
       <c r="BI71" s="6"/>
     </row>
     <row r="72" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="98"/>
-      <c r="C72" s="98"/>
-      <c r="D72" s="95"/>
-      <c r="E72" s="92"/>
+      <c r="B72" s="95"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="126"/>
+      <c r="E72" s="123"/>
       <c r="F72" s="51" t="s">
         <v>179</v>
       </c>
       <c r="G72" s="59" t="str">
         <f t="shared" si="3"/>
-        <v>진행중</v>
-      </c>
-      <c r="H72" s="60" t="s">
-        <v>183</v>
+        <v>진행완료</v>
+      </c>
+      <c r="H72" s="56">
+        <v>1</v>
       </c>
       <c r="I72" s="66">
         <f t="shared" si="4"/>
@@ -4993,19 +5049,19 @@
       <c r="BS72" s="47"/>
     </row>
     <row r="73" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="98"/>
-      <c r="C73" s="98"/>
-      <c r="D73" s="95"/>
-      <c r="E73" s="93"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="126"/>
+      <c r="E73" s="124"/>
       <c r="F73" s="51" t="s">
         <v>180</v>
       </c>
       <c r="G73" s="59" t="str">
         <f t="shared" si="3"/>
-        <v>진행중</v>
-      </c>
-      <c r="H73" s="60">
-        <v>0.9</v>
+        <v>진행완료</v>
+      </c>
+      <c r="H73" s="56">
+        <v>1</v>
       </c>
       <c r="I73" s="66">
         <f t="shared" si="4"/>
@@ -5027,10 +5083,10 @@
       <c r="BI73" s="6"/>
     </row>
     <row r="74" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="98"/>
-      <c r="C74" s="98"/>
-      <c r="D74" s="95"/>
-      <c r="E74" s="79" t="s">
+      <c r="B74" s="95"/>
+      <c r="C74" s="95"/>
+      <c r="D74" s="126"/>
+      <c r="E74" s="119" t="s">
         <v>138</v>
       </c>
       <c r="F74" s="22" t="s">
@@ -5059,71 +5115,73 @@
       <c r="BG74" s="6"/>
     </row>
     <row r="75" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="98"/>
-      <c r="C75" s="98"/>
-      <c r="D75" s="95"/>
-      <c r="E75" s="81"/>
-      <c r="F75" s="48" t="s">
+      <c r="B75" s="95"/>
+      <c r="C75" s="95"/>
+      <c r="D75" s="126"/>
+      <c r="E75" s="121"/>
+      <c r="F75" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="G75" s="52" t="str">
+      <c r="G75" s="59" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H75" s="40">
-        <v>1</v>
-      </c>
-      <c r="I75" s="7">
+      <c r="H75" s="60">
+        <v>1</v>
+      </c>
+      <c r="I75" s="66">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J75" s="46">
+      <c r="J75" s="67">
         <v>45153</v>
       </c>
-      <c r="K75" s="46">
+      <c r="K75" s="67">
         <v>45153</v>
       </c>
-      <c r="L75" s="13" t="s">
+      <c r="L75" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="99"/>
-      <c r="C76" s="99"/>
-      <c r="D76" s="96"/>
+      <c r="B76" s="96"/>
+      <c r="C76" s="96"/>
+      <c r="D76" s="127"/>
       <c r="E76" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F76" s="51" t="s">
+      <c r="F76" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="G76" s="53" t="str">
+      <c r="G76" s="137" t="str">
         <f t="shared" si="3"/>
-        <v>진행중</v>
-      </c>
-      <c r="H76" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="I76" s="54" t="str">
+        <v>진행완료</v>
+      </c>
+      <c r="H76" s="138">
+        <v>1</v>
+      </c>
+      <c r="I76" s="139">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J76" s="70">
+        <v>1</v>
+      </c>
+      <c r="J76" s="140">
         <v>45155</v>
       </c>
-      <c r="K76" s="70"/>
-      <c r="L76" s="14" t="s">
+      <c r="K76" s="140">
+        <v>45155</v>
+      </c>
+      <c r="L76" s="141" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="77" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="87" t="s">
+      <c r="B77" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="C77" s="87" t="s">
+      <c r="C77" s="116" t="s">
         <v>143</v>
       </c>
-      <c r="D77" s="79" t="s">
+      <c r="D77" s="119" t="s">
         <v>144</v>
       </c>
       <c r="E77" s="28" t="s">
@@ -5150,9 +5208,9 @@
       </c>
     </row>
     <row r="78" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="88"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="80"/>
+      <c r="B78" s="117"/>
+      <c r="C78" s="117"/>
+      <c r="D78" s="120"/>
       <c r="E78" s="23" t="s">
         <v>147</v>
       </c>
@@ -5177,9 +5235,9 @@
       </c>
     </row>
     <row r="79" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="88"/>
-      <c r="C79" s="88"/>
-      <c r="D79" s="80"/>
+      <c r="B79" s="117"/>
+      <c r="C79" s="117"/>
+      <c r="D79" s="120"/>
       <c r="E79" s="23" t="s">
         <v>149</v>
       </c>
@@ -5204,9 +5262,9 @@
       </c>
     </row>
     <row r="80" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="89"/>
-      <c r="C80" s="89"/>
-      <c r="D80" s="81"/>
+      <c r="B80" s="118"/>
+      <c r="C80" s="118"/>
+      <c r="D80" s="121"/>
       <c r="E80" s="24" t="s">
         <v>151</v>
       </c>
@@ -5232,6 +5290,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D36:D42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="E66:E73"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="D66:D76"/>
+    <mergeCell ref="C36:C76"/>
+    <mergeCell ref="B36:B76"/>
+    <mergeCell ref="D43:D65"/>
+    <mergeCell ref="E43:E48"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="F13:F27"/>
+    <mergeCell ref="BL11:BR11"/>
+    <mergeCell ref="AJ11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="N10:AR10"/>
+    <mergeCell ref="O11:U11"/>
+    <mergeCell ref="V11:AB11"/>
+    <mergeCell ref="AX11:BD11"/>
+    <mergeCell ref="BE11:BK11"/>
+    <mergeCell ref="AC11:AI11"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D15:D21"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="J10:J12"/>
     <mergeCell ref="B28:B35"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="E10:E12"/>
@@ -5248,53 +5353,6 @@
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="BS11:BW11"/>
-    <mergeCell ref="AX11:BD11"/>
-    <mergeCell ref="BE11:BK11"/>
-    <mergeCell ref="AC11:AI11"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D15:D21"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="F13:F27"/>
-    <mergeCell ref="BL11:BR11"/>
-    <mergeCell ref="AJ11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="N10:AR10"/>
-    <mergeCell ref="O11:U11"/>
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="E66:E73"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="D66:D76"/>
-    <mergeCell ref="C36:C76"/>
-    <mergeCell ref="B36:B76"/>
-    <mergeCell ref="D43:D65"/>
-    <mergeCell ref="E43:E48"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D36:D42"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E53:E57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -1,18 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\project\Chunjae_Team_Proj01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60012D86-7D54-465C-B86C-ABFB66CFD517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -797,7 +814,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -1616,7 +1633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1758,91 +1775,235 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1851,13 +2012,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1869,13 +2033,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1898,156 +2056,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2355,25 +2363,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:BW80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomRight" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
@@ -2389,289 +2397,289 @@
     <col min="76" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="114"/>
+      <c r="E2" s="80"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="114"/>
+      <c r="E3" s="80"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="115" t="s">
+      <c r="D4" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="114"/>
+      <c r="E4" s="80"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="114"/>
+      <c r="E5" s="80"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="114"/>
-    </row>
-    <row r="7" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="80"/>
+    </row>
+    <row r="7" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="D7" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="114"/>
-    </row>
-    <row r="9" spans="2:75" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="2:75" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="104" t="s">
+      <c r="E7" s="80"/>
+    </row>
+    <row r="9" spans="2:75" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="10" spans="2:75" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="78" t="s">
+      <c r="G10" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="78" t="s">
+      <c r="H10" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="78" t="s">
+      <c r="I10" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="78" t="s">
+      <c r="K10" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="98" t="s">
+      <c r="L10" s="121" t="s">
         <v>49</v>
       </c>
       <c r="M10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="113" t="s">
+      <c r="N10" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="113"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="113"/>
-      <c r="AD10" s="113"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="113"/>
-      <c r="AG10" s="113"/>
-      <c r="AH10" s="113"/>
-      <c r="AI10" s="113"/>
-      <c r="AJ10" s="113"/>
-      <c r="AK10" s="113"/>
-      <c r="AL10" s="113"/>
-      <c r="AM10" s="113"/>
-      <c r="AN10" s="113"/>
-      <c r="AO10" s="113"/>
-      <c r="AP10" s="113"/>
-      <c r="AQ10" s="113"/>
-      <c r="AR10" s="113"/>
-      <c r="AS10" s="81" t="s">
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="120"/>
+      <c r="U10" s="120"/>
+      <c r="V10" s="120"/>
+      <c r="W10" s="120"/>
+      <c r="X10" s="120"/>
+      <c r="Y10" s="120"/>
+      <c r="Z10" s="120"/>
+      <c r="AA10" s="120"/>
+      <c r="AB10" s="120"/>
+      <c r="AC10" s="120"/>
+      <c r="AD10" s="120"/>
+      <c r="AE10" s="120"/>
+      <c r="AF10" s="120"/>
+      <c r="AG10" s="120"/>
+      <c r="AH10" s="120"/>
+      <c r="AI10" s="120"/>
+      <c r="AJ10" s="120"/>
+      <c r="AK10" s="120"/>
+      <c r="AL10" s="120"/>
+      <c r="AM10" s="120"/>
+      <c r="AN10" s="120"/>
+      <c r="AO10" s="120"/>
+      <c r="AP10" s="120"/>
+      <c r="AQ10" s="120"/>
+      <c r="AR10" s="120"/>
+      <c r="AS10" s="130" t="s">
         <v>165</v>
       </c>
-      <c r="AT10" s="82"/>
-      <c r="AU10" s="82"/>
-      <c r="AV10" s="82"/>
-      <c r="AW10" s="82"/>
-      <c r="AX10" s="82"/>
-      <c r="AY10" s="82"/>
-      <c r="AZ10" s="82"/>
-      <c r="BA10" s="82"/>
-      <c r="BB10" s="82"/>
-      <c r="BC10" s="82"/>
-      <c r="BD10" s="82"/>
-      <c r="BE10" s="82"/>
-      <c r="BF10" s="82"/>
-      <c r="BG10" s="82"/>
-      <c r="BH10" s="82"/>
-      <c r="BI10" s="82"/>
-      <c r="BJ10" s="82"/>
-      <c r="BK10" s="82"/>
-      <c r="BL10" s="82"/>
-      <c r="BM10" s="82"/>
-      <c r="BN10" s="82"/>
-      <c r="BO10" s="82"/>
-      <c r="BP10" s="82"/>
-      <c r="BQ10" s="82"/>
-      <c r="BR10" s="82"/>
-      <c r="BS10" s="82"/>
-      <c r="BT10" s="82"/>
-      <c r="BU10" s="82"/>
-      <c r="BV10" s="82"/>
-      <c r="BW10" s="83"/>
-    </row>
-    <row r="11" spans="2:75" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="105"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="99"/>
+      <c r="AT10" s="131"/>
+      <c r="AU10" s="131"/>
+      <c r="AV10" s="131"/>
+      <c r="AW10" s="131"/>
+      <c r="AX10" s="131"/>
+      <c r="AY10" s="131"/>
+      <c r="AZ10" s="131"/>
+      <c r="BA10" s="131"/>
+      <c r="BB10" s="131"/>
+      <c r="BC10" s="131"/>
+      <c r="BD10" s="131"/>
+      <c r="BE10" s="131"/>
+      <c r="BF10" s="131"/>
+      <c r="BG10" s="131"/>
+      <c r="BH10" s="131"/>
+      <c r="BI10" s="131"/>
+      <c r="BJ10" s="131"/>
+      <c r="BK10" s="131"/>
+      <c r="BL10" s="131"/>
+      <c r="BM10" s="131"/>
+      <c r="BN10" s="131"/>
+      <c r="BO10" s="131"/>
+      <c r="BP10" s="131"/>
+      <c r="BQ10" s="131"/>
+      <c r="BR10" s="131"/>
+      <c r="BS10" s="131"/>
+      <c r="BT10" s="131"/>
+      <c r="BU10" s="131"/>
+      <c r="BV10" s="131"/>
+      <c r="BW10" s="132"/>
+    </row>
+    <row r="11" spans="2:75" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="108"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="122"/>
       <c r="M11" s="15" t="s">
         <v>13</v>
       </c>
       <c r="N11" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="97" t="s">
+      <c r="O11" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="97"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="97" t="s">
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="113"/>
+      <c r="T11" s="113"/>
+      <c r="U11" s="113"/>
+      <c r="V11" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="W11" s="97"/>
-      <c r="X11" s="97"/>
-      <c r="Y11" s="97"/>
-      <c r="Z11" s="97"/>
-      <c r="AA11" s="97"/>
-      <c r="AB11" s="97"/>
-      <c r="AC11" s="97" t="s">
+      <c r="W11" s="113"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="113"/>
+      <c r="Z11" s="113"/>
+      <c r="AA11" s="113"/>
+      <c r="AB11" s="113"/>
+      <c r="AC11" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="AD11" s="97"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="97"/>
-      <c r="AG11" s="97"/>
-      <c r="AH11" s="97"/>
-      <c r="AI11" s="97"/>
-      <c r="AJ11" s="97" t="s">
+      <c r="AD11" s="113"/>
+      <c r="AE11" s="113"/>
+      <c r="AF11" s="113"/>
+      <c r="AG11" s="113"/>
+      <c r="AH11" s="113"/>
+      <c r="AI11" s="113"/>
+      <c r="AJ11" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="AK11" s="97"/>
-      <c r="AL11" s="97"/>
-      <c r="AM11" s="97"/>
-      <c r="AN11" s="97"/>
-      <c r="AO11" s="97"/>
-      <c r="AP11" s="97"/>
-      <c r="AQ11" s="97" t="s">
+      <c r="AK11" s="113"/>
+      <c r="AL11" s="113"/>
+      <c r="AM11" s="113"/>
+      <c r="AN11" s="113"/>
+      <c r="AO11" s="113"/>
+      <c r="AP11" s="113"/>
+      <c r="AQ11" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="AR11" s="97"/>
-      <c r="AS11" s="110" t="s">
+      <c r="AR11" s="113"/>
+      <c r="AS11" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="AT11" s="111"/>
-      <c r="AU11" s="111"/>
-      <c r="AV11" s="111"/>
-      <c r="AW11" s="112"/>
-      <c r="AX11" s="97" t="s">
+      <c r="AT11" s="115"/>
+      <c r="AU11" s="115"/>
+      <c r="AV11" s="115"/>
+      <c r="AW11" s="116"/>
+      <c r="AX11" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="AY11" s="97"/>
-      <c r="AZ11" s="97"/>
-      <c r="BA11" s="97"/>
-      <c r="BB11" s="97"/>
-      <c r="BC11" s="97"/>
-      <c r="BD11" s="97"/>
-      <c r="BE11" s="97" t="s">
+      <c r="AY11" s="113"/>
+      <c r="AZ11" s="113"/>
+      <c r="BA11" s="113"/>
+      <c r="BB11" s="113"/>
+      <c r="BC11" s="113"/>
+      <c r="BD11" s="113"/>
+      <c r="BE11" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="BF11" s="97"/>
-      <c r="BG11" s="97"/>
-      <c r="BH11" s="97"/>
-      <c r="BI11" s="97"/>
-      <c r="BJ11" s="97"/>
-      <c r="BK11" s="97"/>
-      <c r="BL11" s="97" t="s">
+      <c r="BF11" s="113"/>
+      <c r="BG11" s="113"/>
+      <c r="BH11" s="113"/>
+      <c r="BI11" s="113"/>
+      <c r="BJ11" s="113"/>
+      <c r="BK11" s="113"/>
+      <c r="BL11" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="BM11" s="97"/>
-      <c r="BN11" s="97"/>
-      <c r="BO11" s="97"/>
-      <c r="BP11" s="97"/>
-      <c r="BQ11" s="97"/>
-      <c r="BR11" s="97"/>
-      <c r="BS11" s="97" t="s">
+      <c r="BM11" s="113"/>
+      <c r="BN11" s="113"/>
+      <c r="BO11" s="113"/>
+      <c r="BP11" s="113"/>
+      <c r="BQ11" s="113"/>
+      <c r="BR11" s="113"/>
+      <c r="BS11" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="BT11" s="97"/>
-      <c r="BU11" s="97"/>
-      <c r="BV11" s="97"/>
-      <c r="BW11" s="97"/>
-    </row>
-    <row r="12" spans="2:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="106"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="100"/>
+      <c r="BT11" s="113"/>
+      <c r="BU11" s="113"/>
+      <c r="BV11" s="113"/>
+      <c r="BW11" s="113"/>
+    </row>
+    <row r="12" spans="2:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B12" s="109"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="123"/>
       <c r="M12" s="15" t="s">
         <v>14</v>
       </c>
@@ -2862,35 +2870,35 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="77" t="s">
+    <row r="13" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="125" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="134" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="107"/>
-      <c r="G13" s="55" t="str">
+      <c r="F13" s="110"/>
+      <c r="G13" s="54" t="str">
         <f t="shared" ref="G13:G43" si="0">IF(H13=1, "진행완료", "진행중")</f>
         <v>진행완료</v>
       </c>
-      <c r="H13" s="56">
-        <v>1</v>
-      </c>
-      <c r="I13" s="57">
+      <c r="H13" s="55">
+        <v>1</v>
+      </c>
+      <c r="I13" s="56">
         <f t="shared" ref="I13:I42" si="1">K13-J13+1</f>
         <v>1</v>
       </c>
-      <c r="J13" s="58">
+      <c r="J13" s="57">
         <v>45127</v>
       </c>
-      <c r="K13" s="58">
+      <c r="K13" s="57">
         <v>45127</v>
       </c>
       <c r="L13" s="19" t="s">
@@ -2898,19 +2906,19 @@
       </c>
       <c r="AG13" s="6"/>
     </row>
-    <row r="14" spans="2:75" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="86"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
+    <row r="14" spans="2:75" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B14" s="126"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
       <c r="E14" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="107"/>
-      <c r="G14" s="59" t="str">
+      <c r="F14" s="110"/>
+      <c r="G14" s="58" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14" s="59">
         <v>1</v>
       </c>
       <c r="I14" s="16">
@@ -2928,25 +2936,25 @@
       </c>
       <c r="AH14" s="6"/>
     </row>
-    <row r="15" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="76" t="s">
+    <row r="15" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="94" t="s">
+      <c r="D15" s="99" t="s">
         <v>71</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="107"/>
-      <c r="G15" s="61" t="str">
+      <c r="F15" s="110"/>
+      <c r="G15" s="60" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="61">
         <v>1</v>
       </c>
       <c r="I15" s="10">
@@ -2965,15 +2973,15 @@
       <c r="AK15" s="6"/>
       <c r="AL15" s="6"/>
     </row>
-    <row r="16" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="77"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
+    <row r="16" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B16" s="125"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="107"/>
-      <c r="G16" s="52" t="str">
+      <c r="F16" s="110"/>
+      <c r="G16" s="51" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
@@ -2996,15 +3004,15 @@
       <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
     </row>
-    <row r="17" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="77"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
+    <row r="17" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B17" s="125"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
       <c r="E17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="107"/>
-      <c r="G17" s="52" t="str">
+      <c r="F17" s="110"/>
+      <c r="G17" s="51" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
@@ -3026,15 +3034,15 @@
       </c>
       <c r="AL17" s="6"/>
     </row>
-    <row r="18" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="77"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
+    <row r="18" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B18" s="125"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
       <c r="E18" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="107"/>
-      <c r="G18" s="52" t="str">
+      <c r="F18" s="110"/>
+      <c r="G18" s="51" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
@@ -3057,15 +3065,15 @@
       <c r="AM18" s="6"/>
       <c r="AN18" s="6"/>
     </row>
-    <row r="19" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="77"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
+    <row r="19" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B19" s="125"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
       <c r="E19" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="107"/>
-      <c r="G19" s="52" t="str">
+      <c r="F19" s="110"/>
+      <c r="G19" s="51" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
@@ -3088,15 +3096,15 @@
       <c r="AM19" s="6"/>
       <c r="AN19" s="6"/>
     </row>
-    <row r="20" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="77"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
+    <row r="20" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B20" s="125"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
       <c r="E20" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="107"/>
-      <c r="G20" s="52" t="str">
+      <c r="F20" s="110"/>
+      <c r="G20" s="51" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
@@ -3118,19 +3126,19 @@
       </c>
       <c r="AO20" s="6"/>
     </row>
-    <row r="21" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="86"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
+    <row r="21" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B21" s="126"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
       <c r="E21" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="107"/>
-      <c r="G21" s="53" t="str">
+      <c r="F21" s="110"/>
+      <c r="G21" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="62">
         <v>1</v>
       </c>
       <c r="I21" s="11">
@@ -3148,35 +3156,35 @@
       </c>
       <c r="AO21" s="6"/>
     </row>
-    <row r="22" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="76" t="s">
+    <row r="22" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B22" s="124" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="101" t="s">
+      <c r="D22" s="127" t="s">
         <v>72</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="108"/>
-      <c r="G22" s="55" t="str">
+      <c r="F22" s="111"/>
+      <c r="G22" s="54" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H22" s="56">
-        <v>1</v>
-      </c>
-      <c r="I22" s="57">
+      <c r="H22" s="55">
+        <v>1</v>
+      </c>
+      <c r="I22" s="56">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J22" s="58">
+      <c r="J22" s="57">
         <v>45138</v>
       </c>
-      <c r="K22" s="58">
+      <c r="K22" s="57">
         <v>45138</v>
       </c>
       <c r="L22" s="19" t="s">
@@ -3184,15 +3192,15 @@
       </c>
       <c r="AR22" s="6"/>
     </row>
-    <row r="23" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="102"/>
+    <row r="23" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="128"/>
       <c r="E23" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="108"/>
-      <c r="G23" s="52" t="str">
+      <c r="F23" s="111"/>
+      <c r="G23" s="51" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
@@ -3214,15 +3222,15 @@
       </c>
       <c r="AR23" s="6"/>
     </row>
-    <row r="24" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="102"/>
+    <row r="24" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B24" s="125"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="128"/>
       <c r="E24" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="108"/>
-      <c r="G24" s="52" t="str">
+      <c r="F24" s="111"/>
+      <c r="G24" s="51" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
@@ -3244,15 +3252,15 @@
       </c>
       <c r="AS24" s="6"/>
     </row>
-    <row r="25" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="102"/>
+    <row r="25" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="128"/>
       <c r="E25" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="108"/>
-      <c r="G25" s="52" t="str">
+      <c r="F25" s="111"/>
+      <c r="G25" s="51" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
@@ -3274,15 +3282,15 @@
       </c>
       <c r="AR25" s="6"/>
     </row>
-    <row r="26" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="102"/>
+    <row r="26" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="128"/>
       <c r="E26" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="108"/>
-      <c r="G26" s="52" t="str">
+      <c r="F26" s="111"/>
+      <c r="G26" s="51" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
@@ -3304,19 +3312,19 @@
       </c>
       <c r="AS26" s="6"/>
     </row>
-    <row r="27" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="103"/>
+    <row r="27" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="129"/>
       <c r="E27" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="109"/>
-      <c r="G27" s="59" t="str">
+      <c r="F27" s="112"/>
+      <c r="G27" s="58" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H27" s="60">
+      <c r="H27" s="59">
         <v>1</v>
       </c>
       <c r="I27" s="16">
@@ -3334,27 +3342,27 @@
       </c>
       <c r="AS27" s="6"/>
     </row>
-    <row r="28" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="76" t="s">
+    <row r="28" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B28" s="124" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="91" t="s">
+      <c r="C28" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="91" t="s">
+      <c r="D28" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="89" t="s">
+      <c r="E28" s="136" t="s">
         <v>76</v>
       </c>
       <c r="F28" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="61" t="str">
+      <c r="G28" s="60" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H28" s="62">
+      <c r="H28" s="61">
         <v>1</v>
       </c>
       <c r="I28" s="10">
@@ -3374,19 +3382,19 @@
       <c r="AU28" s="6"/>
       <c r="AV28" s="6"/>
     </row>
-    <row r="29" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="77"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="90"/>
+    <row r="29" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B29" s="125"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="137"/>
       <c r="F29" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="59" t="str">
+      <c r="G29" s="58" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H29" s="60">
+      <c r="H29" s="59">
         <v>1</v>
       </c>
       <c r="I29" s="16">
@@ -3406,21 +3414,21 @@
       <c r="AU29" s="6"/>
       <c r="AV29" s="6"/>
     </row>
-    <row r="30" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="77"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="90" t="s">
+    <row r="30" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B30" s="125"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="137" t="s">
         <v>77</v>
       </c>
       <c r="F30" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="G30" s="61" t="str">
+      <c r="G30" s="60" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H30" s="62">
+      <c r="H30" s="61">
         <v>1</v>
       </c>
       <c r="I30" s="10">
@@ -3440,15 +3448,15 @@
       <c r="AU30" s="6"/>
       <c r="AV30" s="6"/>
     </row>
-    <row r="31" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="77"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="90"/>
+    <row r="31" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B31" s="125"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="137"/>
       <c r="F31" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="52" t="str">
+      <c r="G31" s="51" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
@@ -3475,15 +3483,15 @@
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
     </row>
-    <row r="32" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="77"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="90"/>
+    <row r="32" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B32" s="125"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="137"/>
       <c r="F32" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="52" t="str">
+      <c r="G32" s="51" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
@@ -3507,19 +3515,19 @@
       <c r="AU32" s="6"/>
       <c r="AV32" s="6"/>
     </row>
-    <row r="33" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="77"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="90"/>
+    <row r="33" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B33" s="125"/>
+      <c r="C33" s="139"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="137"/>
       <c r="F33" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="53" t="str">
+      <c r="G33" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H33" s="63">
+      <c r="H33" s="62">
         <v>1</v>
       </c>
       <c r="I33" s="11">
@@ -3539,31 +3547,31 @@
       <c r="AU33" s="6"/>
       <c r="AV33" s="6"/>
     </row>
-    <row r="34" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="77"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="77"/>
+    <row r="34" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B34" s="125"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="125"/>
       <c r="E34" s="84" t="s">
         <v>78</v>
       </c>
       <c r="F34" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="G34" s="55" t="str">
+      <c r="G34" s="54" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H34" s="56">
-        <v>1</v>
-      </c>
-      <c r="I34" s="57">
+      <c r="H34" s="55">
+        <v>1</v>
+      </c>
+      <c r="I34" s="56">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J34" s="58">
+      <c r="J34" s="57">
         <v>45140</v>
       </c>
-      <c r="K34" s="58">
+      <c r="K34" s="57">
         <v>45142</v>
       </c>
       <c r="L34" s="19" t="s">
@@ -3573,19 +3581,19 @@
       <c r="AU34" s="6"/>
       <c r="AV34" s="6"/>
     </row>
-    <row r="35" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="77"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="85"/>
+    <row r="35" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B35" s="125"/>
+      <c r="C35" s="140"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="133"/>
       <c r="F35" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="G35" s="53" t="str">
+      <c r="G35" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H35" s="63">
+      <c r="H35" s="62">
         <v>1</v>
       </c>
       <c r="I35" s="11">
@@ -3605,14 +3613,14 @@
       <c r="AU35" s="6"/>
       <c r="AV35" s="6"/>
     </row>
-    <row r="36" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="94" t="s">
+    <row r="36" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B36" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="94" t="s">
+      <c r="C36" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="134" t="s">
+      <c r="D36" s="86" t="s">
         <v>90</v>
       </c>
       <c r="E36" s="28" t="s">
@@ -3621,53 +3629,53 @@
       <c r="F36" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="137" t="str">
+      <c r="G36" s="73" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H36" s="138">
-        <v>1</v>
-      </c>
-      <c r="I36" s="139">
+      <c r="H36" s="74">
+        <v>1</v>
+      </c>
+      <c r="I36" s="75">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J36" s="140">
+      <c r="J36" s="76">
         <v>45145</v>
       </c>
-      <c r="K36" s="140">
+      <c r="K36" s="76">
         <v>45145</v>
       </c>
-      <c r="L36" s="141" t="s">
+      <c r="L36" s="77" t="s">
         <v>157</v>
       </c>
       <c r="AW36" s="6"/>
     </row>
-    <row r="37" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="135"/>
+    <row r="37" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="87"/>
       <c r="E37" s="84" t="s">
         <v>92</v>
       </c>
       <c r="F37" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="G37" s="55" t="str">
+      <c r="G37" s="54" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H37" s="56">
-        <v>1</v>
-      </c>
-      <c r="I37" s="64">
+      <c r="H37" s="55">
+        <v>1</v>
+      </c>
+      <c r="I37" s="63">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J37" s="65">
+      <c r="J37" s="64">
         <v>45145</v>
       </c>
-      <c r="K37" s="65">
+      <c r="K37" s="64">
         <v>45145</v>
       </c>
       <c r="L37" s="19" t="s">
@@ -3675,29 +3683,29 @@
       </c>
       <c r="AW37" s="6"/>
     </row>
-    <row r="38" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="135"/>
+    <row r="38" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="87"/>
       <c r="E38" s="84"/>
       <c r="F38" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G38" s="59" t="str">
+      <c r="G38" s="58" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H38" s="60">
-        <v>1</v>
-      </c>
-      <c r="I38" s="66">
+      <c r="H38" s="59">
+        <v>1</v>
+      </c>
+      <c r="I38" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J38" s="67">
+      <c r="J38" s="66">
         <v>45145</v>
       </c>
-      <c r="K38" s="67">
+      <c r="K38" s="66">
         <v>45145</v>
       </c>
       <c r="L38" s="20" t="s">
@@ -3705,31 +3713,31 @@
       </c>
       <c r="AW38" s="6"/>
     </row>
-    <row r="39" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="135"/>
+    <row r="39" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="87"/>
       <c r="E39" s="84" t="s">
         <v>93</v>
       </c>
       <c r="F39" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G39" s="61" t="str">
+      <c r="G39" s="60" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H39" s="62">
-        <v>1</v>
-      </c>
-      <c r="I39" s="68">
+      <c r="H39" s="61">
+        <v>1</v>
+      </c>
+      <c r="I39" s="67">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J39" s="69">
+      <c r="J39" s="68">
         <v>45145</v>
       </c>
-      <c r="K39" s="69">
+      <c r="K39" s="68">
         <v>45145</v>
       </c>
       <c r="L39" s="12" t="s">
@@ -3737,29 +3745,29 @@
       </c>
       <c r="AW39" s="6"/>
     </row>
-    <row r="40" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="135"/>
+    <row r="40" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B40" s="100"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="87"/>
       <c r="E40" s="84"/>
       <c r="F40" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="G40" s="53" t="str">
+      <c r="G40" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H40" s="63">
-        <v>1</v>
-      </c>
-      <c r="I40" s="54">
+      <c r="H40" s="62">
+        <v>1</v>
+      </c>
+      <c r="I40" s="53">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J40" s="70">
+      <c r="J40" s="69">
         <v>45145</v>
       </c>
-      <c r="K40" s="70">
+      <c r="K40" s="69">
         <v>45145</v>
       </c>
       <c r="L40" s="14" t="s">
@@ -3767,31 +3775,31 @@
       </c>
       <c r="AW40" s="6"/>
     </row>
-    <row r="41" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="135"/>
+    <row r="41" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="87"/>
       <c r="E41" s="84" t="s">
         <v>94</v>
       </c>
       <c r="F41" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="G41" s="61" t="str">
+      <c r="G41" s="60" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H41" s="62">
-        <v>1</v>
-      </c>
-      <c r="I41" s="68">
+      <c r="H41" s="61">
+        <v>1</v>
+      </c>
+      <c r="I41" s="67">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J41" s="69">
+      <c r="J41" s="68">
         <v>45145</v>
       </c>
-      <c r="K41" s="69">
+      <c r="K41" s="68">
         <v>45145</v>
       </c>
       <c r="L41" s="12" t="s">
@@ -3799,29 +3807,29 @@
       </c>
       <c r="AW41" s="6"/>
     </row>
-    <row r="42" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="133"/>
+    <row r="42" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="85"/>
       <c r="F42" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G42" s="53" t="str">
+      <c r="G42" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H42" s="63">
-        <v>1</v>
-      </c>
-      <c r="I42" s="54">
+      <c r="H42" s="62">
+        <v>1</v>
+      </c>
+      <c r="I42" s="53">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J42" s="70">
+      <c r="J42" s="69">
         <v>45145</v>
       </c>
-      <c r="K42" s="70">
+      <c r="K42" s="69">
         <v>45145</v>
       </c>
       <c r="L42" s="14" t="s">
@@ -3829,33 +3837,33 @@
       </c>
       <c r="AW42" s="6"/>
     </row>
-    <row r="43" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="95"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="128" t="s">
+    <row r="43" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="132" t="s">
+      <c r="E43" s="106" t="s">
         <v>123</v>
       </c>
       <c r="F43" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="G43" s="55" t="str">
+      <c r="G43" s="54" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H43" s="56">
-        <v>1</v>
-      </c>
-      <c r="I43" s="64">
+      <c r="H43" s="55">
+        <v>1</v>
+      </c>
+      <c r="I43" s="63">
         <f>IF(OR(J43="",K43=""),"",K43-J43+1)</f>
         <v>3</v>
       </c>
-      <c r="J43" s="65">
+      <c r="J43" s="64">
         <v>45148</v>
       </c>
-      <c r="K43" s="65">
+      <c r="K43" s="64">
         <v>45150</v>
       </c>
       <c r="L43" s="19" t="s">
@@ -3865,15 +3873,15 @@
       <c r="BC43" s="6"/>
       <c r="BD43" s="6"/>
     </row>
-    <row r="44" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="129"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="48" t="s">
+    <row r="44" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B44" s="100"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="G44" s="52" t="str">
+      <c r="G44" s="51" t="str">
         <f>IF(H44=1, "진행완료", "진행중")</f>
         <v>진행완료</v>
       </c>
@@ -3902,15 +3910,15 @@
       <c r="BH44" s="6"/>
       <c r="BI44" s="6"/>
     </row>
-    <row r="45" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="48" t="s">
+    <row r="45" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B45" s="100"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="G45" s="52" t="str">
+      <c r="G45" s="51" t="str">
         <f t="shared" ref="G45:G80" si="3">IF(H45=1, "진행완료", "진행중")</f>
         <v>진행완료</v>
       </c>
@@ -3934,15 +3942,15 @@
       <c r="BC45" s="6"/>
       <c r="BD45" s="6"/>
     </row>
-    <row r="46" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="95"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="129"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="48" t="s">
+    <row r="46" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B46" s="100"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="G46" s="52" t="str">
+      <c r="G46" s="51" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
@@ -3971,15 +3979,15 @@
       <c r="BH46" s="6"/>
       <c r="BI46" s="6"/>
     </row>
-    <row r="47" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="95"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="129"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="48" t="s">
+    <row r="47" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="G47" s="52" t="str">
+      <c r="G47" s="51" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
@@ -4008,29 +4016,29 @@
       <c r="BH47" s="6"/>
       <c r="BI47" s="6"/>
     </row>
-    <row r="48" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="95"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="129"/>
-      <c r="E48" s="121"/>
-      <c r="F48" s="49" t="s">
+    <row r="48" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B48" s="100"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="G48" s="53" t="str">
+      <c r="G48" s="52" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H48" s="63">
-        <v>1</v>
-      </c>
-      <c r="I48" s="54">
+      <c r="H48" s="62">
+        <v>1</v>
+      </c>
+      <c r="I48" s="53">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J48" s="70">
+      <c r="J48" s="69">
         <v>45148</v>
       </c>
-      <c r="K48" s="70">
+      <c r="K48" s="69">
         <v>45155</v>
       </c>
       <c r="L48" s="14" t="s">
@@ -4045,65 +4053,65 @@
       <c r="BH48" s="6"/>
       <c r="BI48" s="6"/>
     </row>
-    <row r="49" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="95"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="129"/>
+    <row r="49" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B49" s="100"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="103"/>
       <c r="E49" s="38" t="s">
         <v>117</v>
       </c>
       <c r="F49" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="G49" s="137" t="str">
+      <c r="G49" s="73" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H49" s="138">
-        <v>1</v>
-      </c>
-      <c r="I49" s="139">
+      <c r="H49" s="74">
+        <v>1</v>
+      </c>
+      <c r="I49" s="75">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J49" s="140">
+      <c r="J49" s="76">
         <v>45152</v>
       </c>
-      <c r="K49" s="140">
+      <c r="K49" s="76">
         <v>45154</v>
       </c>
-      <c r="L49" s="141" t="s">
+      <c r="L49" s="77" t="s">
         <v>156</v>
       </c>
       <c r="BF49" s="6"/>
       <c r="BG49" s="6"/>
       <c r="BH49" s="6"/>
     </row>
-    <row r="50" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="95"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="129"/>
-      <c r="E50" s="119" t="s">
+    <row r="50" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B50" s="100"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="81" t="s">
         <v>118</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G50" s="55" t="str">
+      <c r="G50" s="54" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H50" s="56">
-        <v>1</v>
-      </c>
-      <c r="I50" s="64">
+      <c r="H50" s="55">
+        <v>1</v>
+      </c>
+      <c r="I50" s="63">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J50" s="65">
+      <c r="J50" s="64">
         <v>45150</v>
       </c>
-      <c r="K50" s="65">
+      <c r="K50" s="64">
         <v>45151</v>
       </c>
       <c r="L50" s="19" t="s">
@@ -4112,15 +4120,15 @@
       <c r="BD50" s="6"/>
       <c r="BE50" s="6"/>
     </row>
-    <row r="51" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="95"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="120"/>
-      <c r="F51" s="48" t="s">
+    <row r="51" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="G51" s="52" t="str">
+      <c r="G51" s="51" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
@@ -4143,56 +4151,61 @@
       <c r="BD51" s="6"/>
       <c r="BE51" s="6"/>
     </row>
-    <row r="52" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="95"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="129"/>
-      <c r="E52" s="120"/>
-      <c r="F52" s="51" t="s">
+    <row r="52" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B52" s="100"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="G52" s="59" t="str">
+      <c r="G52" s="58" t="str">
         <f t="shared" si="3"/>
         <v>진행중</v>
       </c>
-      <c r="H52" s="60" t="s">
+      <c r="H52" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="I52" s="66" t="str">
+      <c r="I52" s="53">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J52" s="67"/>
-      <c r="K52" s="67"/>
+        <v>1</v>
+      </c>
+      <c r="J52" s="64">
+        <v>45159</v>
+      </c>
+      <c r="K52" s="64">
+        <v>45159</v>
+      </c>
       <c r="L52" s="20" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="53" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="95"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="130"/>
-      <c r="E53" s="116" t="s">
+      <c r="BM52" s="6"/>
+    </row>
+    <row r="53" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B53" s="100"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="89" t="s">
         <v>167</v>
       </c>
       <c r="F53" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="G53" s="61" t="str">
+      <c r="G53" s="60" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H53" s="62">
-        <v>1</v>
-      </c>
-      <c r="I53" s="68">
+      <c r="H53" s="61">
+        <v>1</v>
+      </c>
+      <c r="I53" s="67">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J53" s="69">
+      <c r="J53" s="68">
         <v>45150</v>
       </c>
-      <c r="K53" s="69">
+      <c r="K53" s="68">
         <v>45150</v>
       </c>
       <c r="L53" s="12" t="s">
@@ -4200,110 +4213,53 @@
       </c>
       <c r="BD53" s="6"/>
     </row>
-    <row r="54" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="95"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="130"/>
-      <c r="E54" s="117"/>
+    <row r="54" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B54" s="100"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="90"/>
       <c r="F54" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="G54" s="55" t="str">
+      <c r="G54" s="54" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H54" s="56">
-        <v>1</v>
-      </c>
-      <c r="I54" s="64">
+      <c r="H54" s="55">
+        <v>1</v>
+      </c>
+      <c r="I54" s="63">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J54" s="65">
+      <c r="J54" s="64">
         <v>45150</v>
       </c>
-      <c r="K54" s="65">
+      <c r="K54" s="64">
         <v>45151</v>
       </c>
       <c r="L54" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="47"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
-      <c r="R54" s="47"/>
-      <c r="S54" s="47"/>
-      <c r="T54" s="47"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
-      <c r="X54" s="47"/>
-      <c r="Y54" s="47"/>
-      <c r="Z54" s="47"/>
-      <c r="AA54" s="47"/>
-      <c r="AB54" s="47"/>
-      <c r="AC54" s="47"/>
-      <c r="AD54" s="47"/>
-      <c r="AE54" s="47"/>
-      <c r="AF54" s="47"/>
-      <c r="AG54" s="47"/>
-      <c r="AH54" s="47"/>
-      <c r="AI54" s="47"/>
-      <c r="AJ54" s="47"/>
-      <c r="AK54" s="47"/>
-      <c r="AL54" s="47"/>
-      <c r="AM54" s="47"/>
-      <c r="AN54" s="47"/>
-      <c r="AO54" s="47"/>
-      <c r="AP54" s="47"/>
-      <c r="AQ54" s="47"/>
-      <c r="AR54" s="47"/>
-      <c r="AS54" s="47"/>
-      <c r="AT54" s="47"/>
-      <c r="AU54" s="47"/>
-      <c r="AV54" s="47"/>
-      <c r="AW54" s="47"/>
-      <c r="AX54" s="47"/>
-      <c r="AY54" s="47"/>
-      <c r="AZ54" s="47"/>
-      <c r="BA54" s="47"/>
-      <c r="BB54" s="47"/>
-      <c r="BC54" s="47"/>
       <c r="BD54" s="6"/>
       <c r="BE54" s="6"/>
-      <c r="BF54" s="47"/>
-      <c r="BG54" s="47"/>
-      <c r="BH54" s="47"/>
-      <c r="BI54" s="47"/>
-      <c r="BJ54" s="47"/>
-      <c r="BK54" s="47"/>
-      <c r="BL54" s="47"/>
-      <c r="BM54" s="47"/>
-      <c r="BN54" s="47"/>
-      <c r="BO54" s="47"/>
-      <c r="BP54" s="47"/>
-      <c r="BQ54" s="47"/>
-      <c r="BR54" s="47"/>
-      <c r="BS54" s="47"/>
-    </row>
-    <row r="55" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="95"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="130"/>
-      <c r="E55" s="117"/>
+    </row>
+    <row r="55" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B55" s="100"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="90"/>
       <c r="F55" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="G55" s="52" t="str">
+      <c r="G55" s="51" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
       <c r="H55" s="40">
         <v>1</v>
       </c>
-      <c r="I55" s="75">
+      <c r="I55" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -4319,22 +4275,22 @@
       <c r="BE55" s="6"/>
       <c r="BF55" s="6"/>
     </row>
-    <row r="56" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="95"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="130"/>
-      <c r="E56" s="117"/>
+    <row r="56" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B56" s="100"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="90"/>
       <c r="F56" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="G56" s="52" t="str">
+      <c r="G56" s="51" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
       <c r="H56" s="40">
         <v>1</v>
       </c>
-      <c r="I56" s="75">
+      <c r="I56" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -4350,29 +4306,29 @@
       <c r="BG56" s="6"/>
       <c r="BH56" s="6"/>
     </row>
-    <row r="57" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="95"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="130"/>
-      <c r="E57" s="118"/>
+    <row r="57" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B57" s="100"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="91"/>
       <c r="F57" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="G57" s="53" t="str">
+      <c r="G57" s="52" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H57" s="63">
-        <v>1</v>
-      </c>
-      <c r="I57" s="54">
+      <c r="H57" s="62">
+        <v>1</v>
+      </c>
+      <c r="I57" s="53">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J57" s="70">
+      <c r="J57" s="69">
         <v>45151</v>
       </c>
-      <c r="K57" s="70">
+      <c r="K57" s="69">
         <v>45153</v>
       </c>
       <c r="L57" s="14" t="s">
@@ -4382,31 +4338,31 @@
       <c r="BF57" s="6"/>
       <c r="BG57" s="6"/>
     </row>
-    <row r="58" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="95"/>
-      <c r="C58" s="95"/>
-      <c r="D58" s="129"/>
-      <c r="E58" s="120" t="s">
+    <row r="58" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B58" s="100"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="F58" s="50" t="s">
+      <c r="F58" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="G58" s="61" t="str">
+      <c r="G58" s="60" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H58" s="62">
-        <v>1</v>
-      </c>
-      <c r="I58" s="72">
+      <c r="H58" s="61">
+        <v>1</v>
+      </c>
+      <c r="I58" s="70">
         <f>IF(OR(J58="",K58=""),"",K58-J58+1)</f>
         <v>2</v>
       </c>
-      <c r="J58" s="69">
+      <c r="J58" s="68">
         <v>45154</v>
       </c>
-      <c r="K58" s="69">
+      <c r="K58" s="68">
         <v>45155</v>
       </c>
       <c r="L58" s="12" t="s">
@@ -4415,117 +4371,60 @@
       <c r="BH58" s="6"/>
       <c r="BI58" s="6"/>
     </row>
-    <row r="59" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="95"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="129"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="51" t="s">
+    <row r="59" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B59" s="100"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="G59" s="59" t="str">
+      <c r="G59" s="58" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H59" s="74">
-        <v>1</v>
-      </c>
-      <c r="I59" s="66">
+      <c r="H59" s="72">
+        <v>1</v>
+      </c>
+      <c r="I59" s="65">
         <f t="shared" ref="I59:I80" si="4">IF(OR(J59="",K59=""),"",K59-J59+1)</f>
         <v>2</v>
       </c>
-      <c r="J59" s="73">
+      <c r="J59" s="71">
         <v>45154</v>
       </c>
-      <c r="K59" s="73">
+      <c r="K59" s="71">
         <v>45155</v>
       </c>
       <c r="L59" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="M59" s="71"/>
-      <c r="N59" s="71"/>
-      <c r="O59" s="71"/>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="71"/>
-      <c r="R59" s="71"/>
-      <c r="S59" s="71"/>
-      <c r="T59" s="71"/>
-      <c r="U59" s="71"/>
-      <c r="V59" s="71"/>
-      <c r="W59" s="71"/>
-      <c r="X59" s="71"/>
-      <c r="Y59" s="71"/>
-      <c r="Z59" s="71"/>
-      <c r="AA59" s="71"/>
-      <c r="AB59" s="71"/>
-      <c r="AC59" s="71"/>
-      <c r="AD59" s="71"/>
-      <c r="AE59" s="71"/>
-      <c r="AF59" s="71"/>
-      <c r="AG59" s="71"/>
-      <c r="AH59" s="71"/>
-      <c r="AI59" s="71"/>
-      <c r="AJ59" s="71"/>
-      <c r="AK59" s="71"/>
-      <c r="AL59" s="71"/>
-      <c r="AM59" s="71"/>
-      <c r="AN59" s="71"/>
-      <c r="AO59" s="71"/>
-      <c r="AP59" s="71"/>
-      <c r="AQ59" s="71"/>
-      <c r="AR59" s="71"/>
-      <c r="AS59" s="71"/>
-      <c r="AT59" s="71"/>
-      <c r="AU59" s="71"/>
-      <c r="AV59" s="71"/>
-      <c r="AW59" s="71"/>
-      <c r="AX59" s="71"/>
-      <c r="AY59" s="71"/>
-      <c r="AZ59" s="71"/>
-      <c r="BA59" s="71"/>
-      <c r="BB59" s="71"/>
-      <c r="BC59" s="71"/>
-      <c r="BD59" s="71"/>
-      <c r="BE59" s="71"/>
-      <c r="BF59" s="71"/>
-      <c r="BG59" s="71"/>
       <c r="BH59" s="6"/>
       <c r="BI59" s="6"/>
-      <c r="BJ59" s="71"/>
-      <c r="BK59" s="71"/>
-      <c r="BL59" s="71"/>
-      <c r="BM59" s="71"/>
-      <c r="BN59" s="71"/>
-      <c r="BO59" s="71"/>
-      <c r="BP59" s="71"/>
-      <c r="BQ59" s="71"/>
-      <c r="BR59" s="71"/>
-      <c r="BS59" s="71"/>
-    </row>
-    <row r="60" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="95"/>
-      <c r="C60" s="95"/>
-      <c r="D60" s="129"/>
-      <c r="E60" s="121"/>
-      <c r="F60" s="49" t="s">
+    </row>
+    <row r="60" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B60" s="100"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="G60" s="53" t="str">
+      <c r="G60" s="52" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H60" s="63">
-        <v>1</v>
-      </c>
-      <c r="I60" s="54">
+      <c r="H60" s="62">
+        <v>1</v>
+      </c>
+      <c r="I60" s="53">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J60" s="70">
+      <c r="J60" s="69">
         <v>45154</v>
       </c>
-      <c r="K60" s="70">
+      <c r="K60" s="69">
         <v>45155</v>
       </c>
       <c r="L60" s="14" t="s">
@@ -4534,31 +4433,31 @@
       <c r="BH60" s="6"/>
       <c r="BI60" s="6"/>
     </row>
-    <row r="61" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="95"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="129"/>
-      <c r="E61" s="119" t="s">
+    <row r="61" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B61" s="100"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="F61" s="50" t="s">
+      <c r="F61" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="G61" s="61" t="str">
+      <c r="G61" s="60" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H61" s="62">
-        <v>1</v>
-      </c>
-      <c r="I61" s="68">
+      <c r="H61" s="61">
+        <v>1</v>
+      </c>
+      <c r="I61" s="67">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J61" s="69">
+      <c r="J61" s="68">
         <v>45152</v>
       </c>
-      <c r="K61" s="69">
+      <c r="K61" s="68">
         <v>45155</v>
       </c>
       <c r="L61" s="12" t="s">
@@ -4569,110 +4468,55 @@
       <c r="BH61" s="6"/>
       <c r="BI61" s="6"/>
     </row>
-    <row r="62" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="95"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="120"/>
-      <c r="F62" s="50" t="s">
+    <row r="62" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="103"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="G62" s="52" t="str">
+      <c r="G62" s="51" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H62" s="56">
-        <v>1</v>
-      </c>
-      <c r="I62" s="64">
+      <c r="H62" s="55">
+        <v>1</v>
+      </c>
+      <c r="I62" s="63">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J62" s="65">
+      <c r="J62" s="64">
         <v>45152</v>
       </c>
-      <c r="K62" s="65">
+      <c r="K62" s="64">
         <v>45155</v>
       </c>
       <c r="L62" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="M62" s="71"/>
-      <c r="N62" s="71"/>
-      <c r="O62" s="71"/>
-      <c r="P62" s="71"/>
-      <c r="Q62" s="71"/>
-      <c r="R62" s="71"/>
-      <c r="S62" s="71"/>
-      <c r="T62" s="71"/>
-      <c r="U62" s="71"/>
-      <c r="V62" s="71"/>
-      <c r="W62" s="71"/>
-      <c r="X62" s="71"/>
-      <c r="Y62" s="71"/>
-      <c r="Z62" s="71"/>
-      <c r="AA62" s="71"/>
-      <c r="AB62" s="71"/>
-      <c r="AC62" s="71"/>
-      <c r="AD62" s="71"/>
-      <c r="AE62" s="71"/>
-      <c r="AF62" s="71"/>
-      <c r="AG62" s="71"/>
-      <c r="AH62" s="71"/>
-      <c r="AI62" s="71"/>
-      <c r="AJ62" s="71"/>
-      <c r="AK62" s="71"/>
-      <c r="AL62" s="71"/>
-      <c r="AM62" s="71"/>
-      <c r="AN62" s="71"/>
-      <c r="AO62" s="71"/>
-      <c r="AP62" s="71"/>
-      <c r="AQ62" s="71"/>
-      <c r="AR62" s="71"/>
-      <c r="AS62" s="71"/>
-      <c r="AT62" s="71"/>
-      <c r="AU62" s="71"/>
-      <c r="AV62" s="71"/>
-      <c r="AW62" s="71"/>
-      <c r="AX62" s="71"/>
-      <c r="AY62" s="71"/>
-      <c r="AZ62" s="71"/>
-      <c r="BA62" s="71"/>
-      <c r="BB62" s="71"/>
-      <c r="BC62" s="71"/>
-      <c r="BD62" s="71"/>
-      <c r="BE62" s="71"/>
       <c r="BF62" s="6"/>
       <c r="BG62" s="6"/>
       <c r="BH62" s="6"/>
       <c r="BI62" s="6"/>
-      <c r="BJ62" s="71"/>
-      <c r="BK62" s="71"/>
-      <c r="BL62" s="71"/>
-      <c r="BM62" s="71"/>
-      <c r="BN62" s="71"/>
-      <c r="BO62" s="71"/>
-      <c r="BP62" s="71"/>
-      <c r="BQ62" s="71"/>
-      <c r="BR62" s="71"/>
-      <c r="BS62" s="71"/>
-    </row>
-    <row r="63" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="95"/>
-      <c r="C63" s="95"/>
-      <c r="D63" s="129"/>
-      <c r="E63" s="120"/>
-      <c r="F63" s="48" t="s">
+    </row>
+    <row r="63" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B63" s="100"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="103"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="G63" s="52" t="str">
+      <c r="G63" s="51" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H63" s="56">
-        <v>1</v>
-      </c>
-      <c r="I63" s="75">
+      <c r="H63" s="55">
+        <v>1</v>
+      </c>
+      <c r="I63" s="7">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -4690,22 +4534,22 @@
       <c r="BH63" s="6"/>
       <c r="BI63" s="6"/>
     </row>
-    <row r="64" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="95"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="129"/>
-      <c r="E64" s="120"/>
-      <c r="F64" s="48" t="s">
+    <row r="64" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B64" s="100"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="103"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="G64" s="52" t="str">
+      <c r="G64" s="51" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H64" s="56">
-        <v>1</v>
-      </c>
-      <c r="I64" s="75">
+      <c r="H64" s="55">
+        <v>1</v>
+      </c>
+      <c r="I64" s="7">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -4723,29 +4567,29 @@
       <c r="BH64" s="6"/>
       <c r="BI64" s="6"/>
     </row>
-    <row r="65" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="95"/>
-      <c r="C65" s="95"/>
-      <c r="D65" s="131"/>
-      <c r="E65" s="121"/>
-      <c r="F65" s="49" t="s">
+    <row r="65" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B65" s="100"/>
+      <c r="C65" s="100"/>
+      <c r="D65" s="105"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="G65" s="53" t="str">
+      <c r="G65" s="52" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H65" s="142">
-        <v>1</v>
-      </c>
-      <c r="I65" s="54">
+      <c r="H65" s="78">
+        <v>1</v>
+      </c>
+      <c r="I65" s="53">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J65" s="70">
+      <c r="J65" s="69">
         <v>45152</v>
       </c>
-      <c r="K65" s="70">
+      <c r="K65" s="69">
         <v>45155</v>
       </c>
       <c r="L65" s="14" t="s">
@@ -4756,33 +4600,33 @@
       <c r="BH65" s="6"/>
       <c r="BI65" s="6"/>
     </row>
-    <row r="66" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="95"/>
-      <c r="C66" s="95"/>
-      <c r="D66" s="125" t="s">
+    <row r="66" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B66" s="100"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="122" t="s">
+      <c r="E66" s="93" t="s">
         <v>124</v>
       </c>
       <c r="F66" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G66" s="55" t="str">
+      <c r="G66" s="54" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H66" s="56">
-        <v>1</v>
-      </c>
-      <c r="I66" s="64">
+      <c r="H66" s="55">
+        <v>1</v>
+      </c>
+      <c r="I66" s="63">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="J66" s="65">
+      <c r="J66" s="64">
         <v>45150</v>
       </c>
-      <c r="K66" s="65">
+      <c r="K66" s="64">
         <v>45155</v>
       </c>
       <c r="L66" s="19" t="s">
@@ -4794,15 +4638,15 @@
       <c r="BH66" s="6"/>
       <c r="BI66" s="6"/>
     </row>
-    <row r="67" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="95"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="126"/>
-      <c r="E67" s="123"/>
-      <c r="F67" s="48" t="s">
+    <row r="67" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B67" s="100"/>
+      <c r="C67" s="100"/>
+      <c r="D67" s="97"/>
+      <c r="E67" s="94"/>
+      <c r="F67" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="G67" s="52" t="str">
+      <c r="G67" s="51" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
@@ -4826,15 +4670,15 @@
       <c r="BF67" s="6"/>
       <c r="BG67" s="6"/>
     </row>
-    <row r="68" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="95"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="126"/>
-      <c r="E68" s="123"/>
-      <c r="F68" s="48" t="s">
+    <row r="68" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B68" s="100"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="94"/>
+      <c r="F68" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="G68" s="52" t="str">
+      <c r="G68" s="51" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
@@ -4858,19 +4702,19 @@
       <c r="BF68" s="6"/>
       <c r="BG68" s="6"/>
     </row>
-    <row r="69" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="95"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="126"/>
-      <c r="E69" s="123"/>
-      <c r="F69" s="48" t="s">
+    <row r="69" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B69" s="100"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="94"/>
+      <c r="F69" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="G69" s="52" t="str">
+      <c r="G69" s="51" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H69" s="56">
+      <c r="H69" s="55">
         <v>1</v>
       </c>
       <c r="I69" s="7">
@@ -4892,19 +4736,19 @@
       <c r="BH69" s="6"/>
       <c r="BI69" s="6"/>
     </row>
-    <row r="70" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="95"/>
-      <c r="C70" s="95"/>
-      <c r="D70" s="126"/>
-      <c r="E70" s="123"/>
-      <c r="F70" s="48" t="s">
+    <row r="70" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B70" s="100"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="94"/>
+      <c r="F70" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="G70" s="52" t="str">
+      <c r="G70" s="51" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H70" s="56">
+      <c r="H70" s="55">
         <v>1</v>
       </c>
       <c r="I70" s="7">
@@ -4926,19 +4770,19 @@
       <c r="BH70" s="6"/>
       <c r="BI70" s="6"/>
     </row>
-    <row r="71" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="95"/>
-      <c r="C71" s="95"/>
-      <c r="D71" s="126"/>
-      <c r="E71" s="123"/>
-      <c r="F71" s="48" t="s">
+    <row r="71" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B71" s="100"/>
+      <c r="C71" s="100"/>
+      <c r="D71" s="97"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="G71" s="52" t="str">
+      <c r="G71" s="51" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H71" s="56">
+      <c r="H71" s="55">
         <v>1</v>
       </c>
       <c r="I71" s="7">
@@ -4960,117 +4804,63 @@
       <c r="BH71" s="6"/>
       <c r="BI71" s="6"/>
     </row>
-    <row r="72" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="95"/>
-      <c r="C72" s="95"/>
-      <c r="D72" s="126"/>
-      <c r="E72" s="123"/>
-      <c r="F72" s="51" t="s">
+    <row r="72" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B72" s="100"/>
+      <c r="C72" s="100"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="G72" s="59" t="str">
+      <c r="G72" s="58" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H72" s="56">
-        <v>1</v>
-      </c>
-      <c r="I72" s="66">
+      <c r="H72" s="55">
+        <v>1</v>
+      </c>
+      <c r="I72" s="65">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="J72" s="67">
+      <c r="J72" s="66">
         <v>45150</v>
       </c>
-      <c r="K72" s="67">
+      <c r="K72" s="66">
         <v>45155</v>
       </c>
       <c r="L72" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="M72" s="47"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="47"/>
-      <c r="P72" s="47"/>
-      <c r="Q72" s="47"/>
-      <c r="R72" s="47"/>
-      <c r="S72" s="47"/>
-      <c r="T72" s="47"/>
-      <c r="U72" s="47"/>
-      <c r="V72" s="47"/>
-      <c r="W72" s="47"/>
-      <c r="X72" s="47"/>
-      <c r="Y72" s="47"/>
-      <c r="Z72" s="47"/>
-      <c r="AA72" s="47"/>
-      <c r="AB72" s="47"/>
-      <c r="AC72" s="47"/>
-      <c r="AD72" s="47"/>
-      <c r="AE72" s="47"/>
-      <c r="AF72" s="47"/>
-      <c r="AG72" s="47"/>
-      <c r="AH72" s="47"/>
-      <c r="AI72" s="47"/>
-      <c r="AJ72" s="47"/>
-      <c r="AK72" s="47"/>
-      <c r="AL72" s="47"/>
-      <c r="AM72" s="47"/>
-      <c r="AN72" s="47"/>
-      <c r="AO72" s="47"/>
-      <c r="AP72" s="47"/>
-      <c r="AQ72" s="47"/>
-      <c r="AR72" s="47"/>
-      <c r="AS72" s="47"/>
-      <c r="AT72" s="47"/>
-      <c r="AU72" s="47"/>
-      <c r="AV72" s="47"/>
-      <c r="AW72" s="47"/>
-      <c r="AX72" s="47"/>
-      <c r="AY72" s="47"/>
-      <c r="AZ72" s="47"/>
-      <c r="BA72" s="47"/>
-      <c r="BB72" s="47"/>
-      <c r="BC72" s="47"/>
-      <c r="BD72" s="47"/>
       <c r="BE72" s="6"/>
       <c r="BF72" s="6"/>
       <c r="BG72" s="6"/>
       <c r="BH72" s="6"/>
       <c r="BI72" s="6"/>
-      <c r="BJ72" s="47"/>
-      <c r="BK72" s="47"/>
-      <c r="BL72" s="47"/>
-      <c r="BM72" s="47"/>
-      <c r="BN72" s="47"/>
-      <c r="BO72" s="47"/>
-      <c r="BP72" s="47"/>
-      <c r="BQ72" s="47"/>
-      <c r="BR72" s="47"/>
-      <c r="BS72" s="47"/>
-    </row>
-    <row r="73" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="95"/>
-      <c r="C73" s="95"/>
-      <c r="D73" s="126"/>
-      <c r="E73" s="124"/>
-      <c r="F73" s="51" t="s">
+    </row>
+    <row r="73" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B73" s="100"/>
+      <c r="C73" s="100"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="95"/>
+      <c r="F73" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="G73" s="59" t="str">
+      <c r="G73" s="58" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H73" s="56">
-        <v>1</v>
-      </c>
-      <c r="I73" s="66">
+      <c r="H73" s="55">
+        <v>1</v>
+      </c>
+      <c r="I73" s="65">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="J73" s="67">
+      <c r="J73" s="66">
         <v>45150</v>
       </c>
-      <c r="K73" s="67">
+      <c r="K73" s="66">
         <v>45155</v>
       </c>
       <c r="L73" s="20" t="s">
@@ -5082,31 +4872,31 @@
       <c r="BH73" s="6"/>
       <c r="BI73" s="6"/>
     </row>
-    <row r="74" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="95"/>
-      <c r="C74" s="95"/>
-      <c r="D74" s="126"/>
-      <c r="E74" s="119" t="s">
+    <row r="74" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B74" s="100"/>
+      <c r="C74" s="100"/>
+      <c r="D74" s="97"/>
+      <c r="E74" s="81" t="s">
         <v>138</v>
       </c>
       <c r="F74" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G74" s="61" t="str">
+      <c r="G74" s="60" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H74" s="62">
-        <v>1</v>
-      </c>
-      <c r="I74" s="68">
+      <c r="H74" s="61">
+        <v>1</v>
+      </c>
+      <c r="I74" s="67">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J74" s="69">
+      <c r="J74" s="68">
         <v>45153</v>
       </c>
-      <c r="K74" s="69">
+      <c r="K74" s="68">
         <v>45153</v>
       </c>
       <c r="L74" s="12" t="s">
@@ -5114,74 +4904,74 @@
       </c>
       <c r="BG74" s="6"/>
     </row>
-    <row r="75" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="95"/>
-      <c r="C75" s="95"/>
-      <c r="D75" s="126"/>
-      <c r="E75" s="121"/>
-      <c r="F75" s="51" t="s">
+    <row r="75" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B75" s="100"/>
+      <c r="C75" s="100"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="83"/>
+      <c r="F75" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="G75" s="59" t="str">
+      <c r="G75" s="58" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H75" s="60">
-        <v>1</v>
-      </c>
-      <c r="I75" s="66">
+      <c r="H75" s="59">
+        <v>1</v>
+      </c>
+      <c r="I75" s="65">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J75" s="67">
+      <c r="J75" s="66">
         <v>45153</v>
       </c>
-      <c r="K75" s="67">
+      <c r="K75" s="66">
         <v>45153</v>
       </c>
       <c r="L75" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="96"/>
-      <c r="C76" s="96"/>
-      <c r="D76" s="127"/>
+    <row r="76" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B76" s="101"/>
+      <c r="C76" s="101"/>
+      <c r="D76" s="98"/>
       <c r="E76" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F76" s="143" t="s">
+      <c r="F76" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="G76" s="137" t="str">
+      <c r="G76" s="73" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H76" s="138">
-        <v>1</v>
-      </c>
-      <c r="I76" s="139">
+      <c r="H76" s="74">
+        <v>1</v>
+      </c>
+      <c r="I76" s="75">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J76" s="140">
+      <c r="J76" s="76">
         <v>45155</v>
       </c>
-      <c r="K76" s="140">
+      <c r="K76" s="76">
         <v>45155</v>
       </c>
-      <c r="L76" s="141" t="s">
+      <c r="L76" s="77" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="77" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="116" t="s">
+    <row r="77" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B77" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="C77" s="116" t="s">
+      <c r="C77" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="D77" s="119" t="s">
+      <c r="D77" s="81" t="s">
         <v>144</v>
       </c>
       <c r="E77" s="28" t="s">
@@ -5190,114 +4980,165 @@
       <c r="F77" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="G77" s="55" t="str">
+      <c r="G77" s="54" t="str">
         <f t="shared" si="3"/>
         <v>진행중</v>
       </c>
-      <c r="H77" s="56" t="s">
+      <c r="H77" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="I77" s="64" t="str">
+      <c r="I77" s="63">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J77" s="65"/>
-      <c r="K77" s="65"/>
+        <v>1</v>
+      </c>
+      <c r="J77" s="64">
+        <v>45159</v>
+      </c>
+      <c r="K77" s="64">
+        <v>45159</v>
+      </c>
       <c r="L77" s="19" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="78" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="117"/>
-      <c r="C78" s="117"/>
-      <c r="D78" s="120"/>
+      <c r="BM77" s="6"/>
+    </row>
+    <row r="78" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B78" s="90"/>
+      <c r="C78" s="90"/>
+      <c r="D78" s="82"/>
       <c r="E78" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="F78" s="48" t="s">
+      <c r="F78" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="G78" s="52" t="str">
+      <c r="G78" s="51" t="str">
         <f t="shared" si="3"/>
         <v>진행중</v>
       </c>
       <c r="H78" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="I78" s="7" t="str">
+      <c r="I78" s="7">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J78" s="46"/>
-      <c r="K78" s="46"/>
+        <v>1</v>
+      </c>
+      <c r="J78" s="64">
+        <v>45159</v>
+      </c>
+      <c r="K78" s="64">
+        <v>45159</v>
+      </c>
       <c r="L78" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="79" spans="2:71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="117"/>
-      <c r="C79" s="117"/>
-      <c r="D79" s="120"/>
+      <c r="BM78" s="6"/>
+    </row>
+    <row r="79" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B79" s="90"/>
+      <c r="C79" s="90"/>
+      <c r="D79" s="82"/>
       <c r="E79" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="F79" s="48" t="s">
+      <c r="F79" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="G79" s="52" t="str">
+      <c r="G79" s="51" t="str">
         <f t="shared" si="3"/>
         <v>진행중</v>
       </c>
       <c r="H79" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="I79" s="7" t="str">
+      <c r="I79" s="7">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J79" s="46"/>
-      <c r="K79" s="46"/>
+        <v>1</v>
+      </c>
+      <c r="J79" s="64">
+        <v>45159</v>
+      </c>
+      <c r="K79" s="64">
+        <v>45159</v>
+      </c>
       <c r="L79" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="80" spans="2:71" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="118"/>
-      <c r="C80" s="118"/>
-      <c r="D80" s="121"/>
+      <c r="BM79" s="6"/>
+    </row>
+    <row r="80" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B80" s="91"/>
+      <c r="C80" s="91"/>
+      <c r="D80" s="83"/>
       <c r="E80" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="F80" s="49" t="s">
+      <c r="F80" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="G80" s="53" t="str">
+      <c r="G80" s="52" t="str">
         <f t="shared" si="3"/>
         <v>진행중</v>
       </c>
-      <c r="H80" s="63" t="s">
+      <c r="H80" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="I80" s="54" t="str">
+      <c r="I80" s="53">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J80" s="70"/>
-      <c r="K80" s="70"/>
+        <v>1</v>
+      </c>
+      <c r="J80" s="64">
+        <v>45159</v>
+      </c>
+      <c r="K80" s="64">
+        <v>45159</v>
+      </c>
       <c r="L80" s="14" t="s">
         <v>157</v>
       </c>
+      <c r="BM80" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D36:D42"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="AS10:BW10"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="D28:D35"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="BS11:BW11"/>
+    <mergeCell ref="AC11:AI11"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D15:D21"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="F13:F27"/>
+    <mergeCell ref="BL11:BR11"/>
+    <mergeCell ref="AJ11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="N10:AR10"/>
+    <mergeCell ref="O11:U11"/>
+    <mergeCell ref="V11:AB11"/>
+    <mergeCell ref="AX11:BD11"/>
+    <mergeCell ref="BE11:BK11"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
@@ -5314,45 +5155,14 @@
     <mergeCell ref="E43:E48"/>
     <mergeCell ref="E50:E52"/>
     <mergeCell ref="E58:E60"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="F13:F27"/>
-    <mergeCell ref="BL11:BR11"/>
-    <mergeCell ref="AJ11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="N10:AR10"/>
-    <mergeCell ref="O11:U11"/>
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="AX11:BD11"/>
-    <mergeCell ref="BE11:BK11"/>
-    <mergeCell ref="AC11:AI11"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D15:D21"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="AS10:BW10"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="D28:D35"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="BS11:BW11"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D36:D42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E53:E57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\project\Chunjae_Team_Proj01\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60012D86-7D54-465C-B86C-ABFB66CFD517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="11475"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="199">
   <si>
     <t>프로젝트 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,10 +382,6 @@
   </si>
   <si>
     <t>4. FAQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추후 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -814,7 +804,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -1874,9 +1864,135 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1886,33 +2002,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1929,15 +2018,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1955,107 +2035,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2363,14 +2353,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BW80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
@@ -2378,10 +2368,10 @@
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="H51" sqref="H51"/>
+      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
@@ -2397,235 +2387,235 @@
     <col min="76" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="80"/>
+      <c r="D2" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="118"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="92" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="80"/>
+      <c r="D3" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="118"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="92" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="80"/>
+      <c r="D4" s="119" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="118"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="80" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" s="80"/>
+      <c r="D5" s="118" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="118"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="80"/>
-    </row>
-    <row r="7" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="D6" s="118" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="118"/>
+    </row>
+    <row r="7" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="80"/>
+      <c r="D7" s="118" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="118"/>
     </row>
     <row r="9" spans="2:75" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="10" spans="2:75" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="107" t="s">
+    <row r="10" spans="2:75" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="117" t="s">
+      <c r="H10" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="117" t="s">
+      <c r="I10" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="117" t="s">
+      <c r="J10" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="117" t="s">
+      <c r="K10" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="121" t="s">
+      <c r="L10" s="102" t="s">
         <v>49</v>
       </c>
       <c r="M10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="120" t="s">
+      <c r="N10" s="117" t="s">
+        <v>163</v>
+      </c>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="117"/>
+      <c r="AA10" s="117"/>
+      <c r="AB10" s="117"/>
+      <c r="AC10" s="117"/>
+      <c r="AD10" s="117"/>
+      <c r="AE10" s="117"/>
+      <c r="AF10" s="117"/>
+      <c r="AG10" s="117"/>
+      <c r="AH10" s="117"/>
+      <c r="AI10" s="117"/>
+      <c r="AJ10" s="117"/>
+      <c r="AK10" s="117"/>
+      <c r="AL10" s="117"/>
+      <c r="AM10" s="117"/>
+      <c r="AN10" s="117"/>
+      <c r="AO10" s="117"/>
+      <c r="AP10" s="117"/>
+      <c r="AQ10" s="117"/>
+      <c r="AR10" s="117"/>
+      <c r="AS10" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="120"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="120"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="120"/>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="120"/>
-      <c r="AB10" s="120"/>
-      <c r="AC10" s="120"/>
-      <c r="AD10" s="120"/>
-      <c r="AE10" s="120"/>
-      <c r="AF10" s="120"/>
-      <c r="AG10" s="120"/>
-      <c r="AH10" s="120"/>
-      <c r="AI10" s="120"/>
-      <c r="AJ10" s="120"/>
-      <c r="AK10" s="120"/>
-      <c r="AL10" s="120"/>
-      <c r="AM10" s="120"/>
-      <c r="AN10" s="120"/>
-      <c r="AO10" s="120"/>
-      <c r="AP10" s="120"/>
-      <c r="AQ10" s="120"/>
-      <c r="AR10" s="120"/>
-      <c r="AS10" s="130" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT10" s="131"/>
-      <c r="AU10" s="131"/>
-      <c r="AV10" s="131"/>
-      <c r="AW10" s="131"/>
-      <c r="AX10" s="131"/>
-      <c r="AY10" s="131"/>
-      <c r="AZ10" s="131"/>
-      <c r="BA10" s="131"/>
-      <c r="BB10" s="131"/>
-      <c r="BC10" s="131"/>
-      <c r="BD10" s="131"/>
-      <c r="BE10" s="131"/>
-      <c r="BF10" s="131"/>
-      <c r="BG10" s="131"/>
-      <c r="BH10" s="131"/>
-      <c r="BI10" s="131"/>
-      <c r="BJ10" s="131"/>
-      <c r="BK10" s="131"/>
-      <c r="BL10" s="131"/>
-      <c r="BM10" s="131"/>
-      <c r="BN10" s="131"/>
-      <c r="BO10" s="131"/>
-      <c r="BP10" s="131"/>
-      <c r="BQ10" s="131"/>
-      <c r="BR10" s="131"/>
-      <c r="BS10" s="131"/>
-      <c r="BT10" s="131"/>
-      <c r="BU10" s="131"/>
-      <c r="BV10" s="131"/>
-      <c r="BW10" s="132"/>
-    </row>
-    <row r="11" spans="2:75" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="108"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="122"/>
+      <c r="AT10" s="86"/>
+      <c r="AU10" s="86"/>
+      <c r="AV10" s="86"/>
+      <c r="AW10" s="86"/>
+      <c r="AX10" s="86"/>
+      <c r="AY10" s="86"/>
+      <c r="AZ10" s="86"/>
+      <c r="BA10" s="86"/>
+      <c r="BB10" s="86"/>
+      <c r="BC10" s="86"/>
+      <c r="BD10" s="86"/>
+      <c r="BE10" s="86"/>
+      <c r="BF10" s="86"/>
+      <c r="BG10" s="86"/>
+      <c r="BH10" s="86"/>
+      <c r="BI10" s="86"/>
+      <c r="BJ10" s="86"/>
+      <c r="BK10" s="86"/>
+      <c r="BL10" s="86"/>
+      <c r="BM10" s="86"/>
+      <c r="BN10" s="86"/>
+      <c r="BO10" s="86"/>
+      <c r="BP10" s="86"/>
+      <c r="BQ10" s="86"/>
+      <c r="BR10" s="86"/>
+      <c r="BS10" s="86"/>
+      <c r="BT10" s="86"/>
+      <c r="BU10" s="86"/>
+      <c r="BV10" s="86"/>
+      <c r="BW10" s="87"/>
+    </row>
+    <row r="11" spans="2:75" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="109"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="103"/>
       <c r="M11" s="15" t="s">
         <v>13</v>
       </c>
       <c r="N11" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="113" t="s">
+      <c r="O11" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="113"/>
-      <c r="R11" s="113"/>
-      <c r="S11" s="113"/>
-      <c r="T11" s="113"/>
-      <c r="U11" s="113"/>
-      <c r="V11" s="113" t="s">
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="W11" s="113"/>
-      <c r="X11" s="113"/>
-      <c r="Y11" s="113"/>
-      <c r="Z11" s="113"/>
-      <c r="AA11" s="113"/>
-      <c r="AB11" s="113"/>
-      <c r="AC11" s="113" t="s">
+      <c r="W11" s="101"/>
+      <c r="X11" s="101"/>
+      <c r="Y11" s="101"/>
+      <c r="Z11" s="101"/>
+      <c r="AA11" s="101"/>
+      <c r="AB11" s="101"/>
+      <c r="AC11" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AD11" s="113"/>
-      <c r="AE11" s="113"/>
-      <c r="AF11" s="113"/>
-      <c r="AG11" s="113"/>
-      <c r="AH11" s="113"/>
-      <c r="AI11" s="113"/>
-      <c r="AJ11" s="113" t="s">
+      <c r="AD11" s="101"/>
+      <c r="AE11" s="101"/>
+      <c r="AF11" s="101"/>
+      <c r="AG11" s="101"/>
+      <c r="AH11" s="101"/>
+      <c r="AI11" s="101"/>
+      <c r="AJ11" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="AK11" s="113"/>
-      <c r="AL11" s="113"/>
-      <c r="AM11" s="113"/>
-      <c r="AN11" s="113"/>
-      <c r="AO11" s="113"/>
-      <c r="AP11" s="113"/>
-      <c r="AQ11" s="113" t="s">
-        <v>163</v>
-      </c>
-      <c r="AR11" s="113"/>
+      <c r="AK11" s="101"/>
+      <c r="AL11" s="101"/>
+      <c r="AM11" s="101"/>
+      <c r="AN11" s="101"/>
+      <c r="AO11" s="101"/>
+      <c r="AP11" s="101"/>
+      <c r="AQ11" s="101" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR11" s="101"/>
       <c r="AS11" s="114" t="s">
         <v>15</v>
       </c>
@@ -2633,53 +2623,53 @@
       <c r="AU11" s="115"/>
       <c r="AV11" s="115"/>
       <c r="AW11" s="116"/>
-      <c r="AX11" s="113" t="s">
+      <c r="AX11" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="AY11" s="113"/>
-      <c r="AZ11" s="113"/>
-      <c r="BA11" s="113"/>
-      <c r="BB11" s="113"/>
-      <c r="BC11" s="113"/>
-      <c r="BD11" s="113"/>
-      <c r="BE11" s="113" t="s">
+      <c r="AY11" s="101"/>
+      <c r="AZ11" s="101"/>
+      <c r="BA11" s="101"/>
+      <c r="BB11" s="101"/>
+      <c r="BC11" s="101"/>
+      <c r="BD11" s="101"/>
+      <c r="BE11" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="BF11" s="113"/>
-      <c r="BG11" s="113"/>
-      <c r="BH11" s="113"/>
-      <c r="BI11" s="113"/>
-      <c r="BJ11" s="113"/>
-      <c r="BK11" s="113"/>
-      <c r="BL11" s="113" t="s">
+      <c r="BF11" s="101"/>
+      <c r="BG11" s="101"/>
+      <c r="BH11" s="101"/>
+      <c r="BI11" s="101"/>
+      <c r="BJ11" s="101"/>
+      <c r="BK11" s="101"/>
+      <c r="BL11" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="BM11" s="113"/>
-      <c r="BN11" s="113"/>
-      <c r="BO11" s="113"/>
-      <c r="BP11" s="113"/>
-      <c r="BQ11" s="113"/>
-      <c r="BR11" s="113"/>
-      <c r="BS11" s="113" t="s">
+      <c r="BM11" s="101"/>
+      <c r="BN11" s="101"/>
+      <c r="BO11" s="101"/>
+      <c r="BP11" s="101"/>
+      <c r="BQ11" s="101"/>
+      <c r="BR11" s="101"/>
+      <c r="BS11" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="BT11" s="113"/>
-      <c r="BU11" s="113"/>
-      <c r="BV11" s="113"/>
-      <c r="BW11" s="113"/>
-    </row>
-    <row r="12" spans="2:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B12" s="109"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="123"/>
+      <c r="BT11" s="101"/>
+      <c r="BU11" s="101"/>
+      <c r="BV11" s="101"/>
+      <c r="BW11" s="101"/>
+    </row>
+    <row r="12" spans="2:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="110"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="104"/>
       <c r="M12" s="15" t="s">
         <v>14</v>
       </c>
@@ -2687,7 +2677,7 @@
         <v>16</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>17</v>
@@ -2774,13 +2764,13 @@
         <v>44</v>
       </c>
       <c r="AR12" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AS12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AT12" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AU12" s="5" t="s">
         <v>17</v>
@@ -2867,23 +2857,23 @@
         <v>44</v>
       </c>
       <c r="BW12" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="134" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="134" t="s">
+      <c r="D13" s="91" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="110"/>
+      <c r="F13" s="111"/>
       <c r="G13" s="54" t="str">
         <f t="shared" ref="G13:G43" si="0">IF(H13=1, "진행완료", "진행중")</f>
         <v>진행완료</v>
@@ -2906,14 +2896,14 @@
       </c>
       <c r="AG13" s="6"/>
     </row>
-    <row r="14" spans="2:75" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B14" s="126"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
+    <row r="14" spans="2:75" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="90"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="110"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="58" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -2936,20 +2926,20 @@
       </c>
       <c r="AH14" s="6"/>
     </row>
-    <row r="15" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B15" s="124" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="99" t="s">
+    <row r="15" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="99" t="s">
+      <c r="D15" s="98" t="s">
         <v>71</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="110"/>
+      <c r="F15" s="111"/>
       <c r="G15" s="60" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -2968,19 +2958,19 @@
         <v>45132</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AK15" s="6"/>
       <c r="AL15" s="6"/>
     </row>
-    <row r="16" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="125"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
+    <row r="16" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="81"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
       <c r="E16" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="110"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="51" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -2999,19 +2989,19 @@
         <v>45132</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
     </row>
-    <row r="17" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="125"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
+    <row r="17" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="81"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
       <c r="E17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="110"/>
+      <c r="F17" s="111"/>
       <c r="G17" s="51" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3030,18 +3020,18 @@
         <v>45132</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AL17" s="6"/>
     </row>
-    <row r="18" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B18" s="125"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
+    <row r="18" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="81"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
       <c r="E18" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="110"/>
+        <v>111</v>
+      </c>
+      <c r="F18" s="111"/>
       <c r="G18" s="51" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3060,19 +3050,19 @@
         <v>45134</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AM18" s="6"/>
       <c r="AN18" s="6"/>
     </row>
-    <row r="19" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B19" s="125"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
+    <row r="19" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="81"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
       <c r="E19" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="110"/>
+      <c r="F19" s="111"/>
       <c r="G19" s="51" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3091,19 +3081,19 @@
         <v>45134</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AM19" s="6"/>
       <c r="AN19" s="6"/>
     </row>
-    <row r="20" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B20" s="125"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
+    <row r="20" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="81"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
       <c r="E20" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="110"/>
+      <c r="F20" s="111"/>
       <c r="G20" s="51" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3122,18 +3112,18 @@
         <v>45135</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AO20" s="6"/>
     </row>
-    <row r="21" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B21" s="126"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
+    <row r="21" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="90"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
       <c r="E21" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="110"/>
+      <c r="F21" s="111"/>
       <c r="G21" s="52" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3156,20 +3146,20 @@
       </c>
       <c r="AO21" s="6"/>
     </row>
-    <row r="22" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B22" s="124" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="124" t="s">
+    <row r="22" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="127" t="s">
+      <c r="D22" s="105" t="s">
         <v>72</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="111"/>
+      <c r="F22" s="112"/>
       <c r="G22" s="54" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3188,18 +3178,18 @@
         <v>45138</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AR22" s="6"/>
     </row>
-    <row r="23" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="128"/>
+    <row r="23" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="106"/>
       <c r="E23" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="111"/>
+      <c r="F23" s="112"/>
       <c r="G23" s="51" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3218,18 +3208,18 @@
         <v>45138</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AR23" s="6"/>
     </row>
-    <row r="24" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B24" s="125"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="128"/>
+    <row r="24" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="106"/>
       <c r="E24" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="111"/>
+      <c r="F24" s="112"/>
       <c r="G24" s="51" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3248,18 +3238,18 @@
         <v>45139</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AS24" s="6"/>
     </row>
-    <row r="25" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="128"/>
+    <row r="25" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="106"/>
       <c r="E25" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="111"/>
+      <c r="F25" s="112"/>
       <c r="G25" s="51" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3278,18 +3268,18 @@
         <v>45138</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AR25" s="6"/>
     </row>
-    <row r="26" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="128"/>
+    <row r="26" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="106"/>
       <c r="E26" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="111"/>
+      <c r="F26" s="112"/>
       <c r="G26" s="51" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3308,18 +3298,18 @@
         <v>45139</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AS26" s="6"/>
     </row>
-    <row r="27" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B27" s="126"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="129"/>
+    <row r="27" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="107"/>
       <c r="E27" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="112"/>
+      <c r="F27" s="113"/>
       <c r="G27" s="58" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3338,21 +3328,21 @@
         <v>45139</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AS27" s="6"/>
     </row>
-    <row r="28" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B28" s="124" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="138" t="s">
+    <row r="28" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="138" t="s">
-        <v>113</v>
-      </c>
-      <c r="E28" s="136" t="s">
+      <c r="D28" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="93" t="s">
         <v>76</v>
       </c>
       <c r="F28" s="33" t="s">
@@ -3376,17 +3366,17 @@
         <v>45142</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
       <c r="AV28" s="6"/>
     </row>
-    <row r="29" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B29" s="125"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="137"/>
+    <row r="29" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="81"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="94"/>
       <c r="F29" s="34" t="s">
         <v>80</v>
       </c>
@@ -3408,17 +3398,17 @@
         <v>45142</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
       <c r="AV29" s="6"/>
     </row>
-    <row r="30" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B30" s="125"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="137" t="s">
+    <row r="30" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="81"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="94" t="s">
         <v>77</v>
       </c>
       <c r="F30" s="33" t="s">
@@ -3442,17 +3432,17 @@
         <v>45142</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AT30" s="6"/>
       <c r="AU30" s="6"/>
       <c r="AV30" s="6"/>
     </row>
-    <row r="31" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B31" s="125"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="137"/>
+    <row r="31" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="81"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="94"/>
       <c r="F31" s="35" t="s">
         <v>82</v>
       </c>
@@ -3474,20 +3464,20 @@
         <v>45142</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
     </row>
-    <row r="32" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B32" s="125"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="137"/>
+    <row r="32" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="81"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="94"/>
       <c r="F32" s="26" t="s">
         <v>83</v>
       </c>
@@ -3509,17 +3499,17 @@
         <v>45142</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AT32" s="6"/>
       <c r="AU32" s="6"/>
       <c r="AV32" s="6"/>
     </row>
-    <row r="33" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B33" s="125"/>
-      <c r="C33" s="139"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="137"/>
+    <row r="33" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="81"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="94"/>
       <c r="F33" s="27" t="s">
         <v>84</v>
       </c>
@@ -3541,17 +3531,17 @@
         <v>45142</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AT33" s="6"/>
       <c r="AU33" s="6"/>
       <c r="AV33" s="6"/>
     </row>
-    <row r="34" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B34" s="125"/>
-      <c r="C34" s="139"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="84" t="s">
+    <row r="34" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="81"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="88" t="s">
         <v>78</v>
       </c>
       <c r="F34" s="29" t="s">
@@ -3581,11 +3571,11 @@
       <c r="AU34" s="6"/>
       <c r="AV34" s="6"/>
     </row>
-    <row r="35" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B35" s="125"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="133"/>
+    <row r="35" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="81"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="89"/>
       <c r="F35" s="30" t="s">
         <v>86</v>
       </c>
@@ -3613,21 +3603,21 @@
       <c r="AU35" s="6"/>
       <c r="AV35" s="6"/>
     </row>
-    <row r="36" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B36" s="99" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="99" t="s">
+    <row r="36" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="86" t="s">
+      <c r="D36" s="138" t="s">
         <v>90</v>
       </c>
       <c r="E36" s="28" t="s">
         <v>91</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G36" s="73" t="str">
         <f t="shared" si="0"/>
@@ -3647,19 +3637,19 @@
         <v>45145</v>
       </c>
       <c r="L36" s="77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AW36" s="6"/>
     </row>
-    <row r="37" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="84" t="s">
+    <row r="37" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="88" t="s">
         <v>92</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G37" s="54" t="str">
         <f t="shared" si="0"/>
@@ -3679,17 +3669,17 @@
         <v>45145</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AW37" s="6"/>
     </row>
-    <row r="38" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B38" s="100"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="84"/>
+    <row r="38" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="88"/>
       <c r="F38" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G38" s="58" t="str">
         <f t="shared" si="0"/>
@@ -3709,19 +3699,19 @@
         <v>45145</v>
       </c>
       <c r="L38" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AW38" s="6"/>
     </row>
-    <row r="39" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B39" s="100"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="84" t="s">
+    <row r="39" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="99"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="88" t="s">
         <v>93</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G39" s="60" t="str">
         <f t="shared" si="0"/>
@@ -3741,17 +3731,17 @@
         <v>45145</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AW39" s="6"/>
     </row>
-    <row r="40" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B40" s="100"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="84"/>
+    <row r="40" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="139"/>
+      <c r="E40" s="88"/>
       <c r="F40" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G40" s="52" t="str">
         <f t="shared" si="0"/>
@@ -3771,19 +3761,19 @@
         <v>45145</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AW40" s="6"/>
     </row>
-    <row r="41" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="84" t="s">
+    <row r="41" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="88" t="s">
         <v>94</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G41" s="60" t="str">
         <f t="shared" si="0"/>
@@ -3803,17 +3793,17 @@
         <v>45145</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AW41" s="6"/>
     </row>
-    <row r="42" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B42" s="100"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="85"/>
+    <row r="42" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="137"/>
       <c r="F42" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G42" s="52" t="str">
         <f t="shared" si="0"/>
@@ -3833,21 +3823,21 @@
         <v>45145</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AW42" s="6"/>
     </row>
-    <row r="43" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="102" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" s="106" t="s">
-        <v>123</v>
+    <row r="43" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="132" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="136" t="s">
+        <v>122</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G43" s="54" t="str">
         <f t="shared" si="0"/>
@@ -3867,19 +3857,19 @@
         <v>45150</v>
       </c>
       <c r="L43" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BB43" s="6"/>
       <c r="BC43" s="6"/>
       <c r="BD43" s="6"/>
     </row>
-    <row r="44" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B44" s="100"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="82"/>
+    <row r="44" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="133"/>
+      <c r="E44" s="124"/>
       <c r="F44" s="47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G44" s="51" t="str">
         <f>IF(H44=1, "진행완료", "진행중")</f>
@@ -3899,7 +3889,7 @@
         <v>45155</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BB44" s="6"/>
       <c r="BC44" s="6"/>
@@ -3910,13 +3900,13 @@
       <c r="BH44" s="6"/>
       <c r="BI44" s="6"/>
     </row>
-    <row r="45" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B45" s="100"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="82"/>
+    <row r="45" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="124"/>
       <c r="F45" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G45" s="51" t="str">
         <f t="shared" ref="G45:G80" si="3">IF(H45=1, "진행완료", "진행중")</f>
@@ -3942,13 +3932,13 @@
       <c r="BC45" s="6"/>
       <c r="BD45" s="6"/>
     </row>
-    <row r="46" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B46" s="100"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="82"/>
+    <row r="46" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="99"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="133"/>
+      <c r="E46" s="124"/>
       <c r="F46" s="47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G46" s="51" t="str">
         <f t="shared" si="3"/>
@@ -3968,7 +3958,7 @@
         <v>45155</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BB46" s="6"/>
       <c r="BC46" s="6"/>
@@ -3979,13 +3969,13 @@
       <c r="BH46" s="6"/>
       <c r="BI46" s="6"/>
     </row>
-    <row r="47" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B47" s="100"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="82"/>
+    <row r="47" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="99"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="124"/>
       <c r="F47" s="47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G47" s="51" t="str">
         <f t="shared" si="3"/>
@@ -4005,7 +3995,7 @@
         <v>45155</v>
       </c>
       <c r="L47" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB47" s="6"/>
       <c r="BC47" s="6"/>
@@ -4016,13 +4006,13 @@
       <c r="BH47" s="6"/>
       <c r="BI47" s="6"/>
     </row>
-    <row r="48" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B48" s="100"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="83"/>
+    <row r="48" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="99"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="125"/>
       <c r="F48" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G48" s="52" t="str">
         <f t="shared" si="3"/>
@@ -4042,7 +4032,7 @@
         <v>45155</v>
       </c>
       <c r="L48" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB48" s="6"/>
       <c r="BC48" s="6"/>
@@ -4053,15 +4043,15 @@
       <c r="BH48" s="6"/>
       <c r="BI48" s="6"/>
     </row>
-    <row r="49" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B49" s="100"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="103"/>
+    <row r="49" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="99"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="133"/>
       <c r="E49" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F49" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G49" s="73" t="str">
         <f t="shared" si="3"/>
@@ -4081,21 +4071,21 @@
         <v>45154</v>
       </c>
       <c r="L49" s="77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BF49" s="6"/>
       <c r="BG49" s="6"/>
       <c r="BH49" s="6"/>
     </row>
-    <row r="50" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B50" s="100"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="81" t="s">
-        <v>118</v>
+    <row r="50" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="99"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="123" t="s">
+        <v>117</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G50" s="54" t="str">
         <f t="shared" si="3"/>
@@ -4115,18 +4105,18 @@
         <v>45151</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BD50" s="6"/>
       <c r="BE50" s="6"/>
     </row>
-    <row r="51" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="82"/>
+    <row r="51" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="99"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="124"/>
       <c r="F51" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G51" s="51" t="str">
         <f t="shared" si="3"/>
@@ -4146,25 +4136,25 @@
         <v>45151</v>
       </c>
       <c r="L51" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BD51" s="6"/>
       <c r="BE51" s="6"/>
     </row>
-    <row r="52" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B52" s="100"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="82"/>
+    <row r="52" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="99"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="133"/>
+      <c r="E52" s="124"/>
       <c r="F52" s="50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G52" s="58" t="str">
         <f t="shared" si="3"/>
-        <v>진행중</v>
-      </c>
-      <c r="H52" s="59" t="s">
-        <v>95</v>
+        <v>진행완료</v>
+      </c>
+      <c r="H52" s="59">
+        <v>1</v>
       </c>
       <c r="I52" s="53">
         <f t="shared" si="2"/>
@@ -4177,19 +4167,19 @@
         <v>45159</v>
       </c>
       <c r="L52" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BM52" s="6"/>
     </row>
-    <row r="53" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B53" s="100"/>
-      <c r="C53" s="100"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="89" t="s">
-        <v>167</v>
+    <row r="53" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="99"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="120" t="s">
+        <v>166</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G53" s="60" t="str">
         <f t="shared" si="3"/>
@@ -4213,13 +4203,13 @@
       </c>
       <c r="BD53" s="6"/>
     </row>
-    <row r="54" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B54" s="100"/>
-      <c r="C54" s="100"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="90"/>
+    <row r="54" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="99"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="121"/>
       <c r="F54" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G54" s="54" t="str">
         <f t="shared" si="3"/>
@@ -4239,18 +4229,18 @@
         <v>45151</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BD54" s="6"/>
       <c r="BE54" s="6"/>
     </row>
-    <row r="55" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B55" s="100"/>
-      <c r="C55" s="100"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="90"/>
+    <row r="55" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="99"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="134"/>
+      <c r="E55" s="121"/>
       <c r="F55" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G55" s="51" t="str">
         <f t="shared" si="3"/>
@@ -4275,13 +4265,13 @@
       <c r="BE55" s="6"/>
       <c r="BF55" s="6"/>
     </row>
-    <row r="56" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B56" s="100"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="90"/>
+    <row r="56" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="99"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="121"/>
       <c r="F56" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G56" s="51" t="str">
         <f t="shared" si="3"/>
@@ -4306,13 +4296,13 @@
       <c r="BG56" s="6"/>
       <c r="BH56" s="6"/>
     </row>
-    <row r="57" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B57" s="100"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="104"/>
-      <c r="E57" s="91"/>
+    <row r="57" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="99"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="122"/>
       <c r="F57" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G57" s="52" t="str">
         <f t="shared" si="3"/>
@@ -4338,15 +4328,15 @@
       <c r="BF57" s="6"/>
       <c r="BG57" s="6"/>
     </row>
-    <row r="58" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B58" s="100"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="103"/>
-      <c r="E58" s="82" t="s">
-        <v>168</v>
+    <row r="58" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="99"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="133"/>
+      <c r="E58" s="124" t="s">
+        <v>167</v>
       </c>
       <c r="F58" s="49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G58" s="60" t="str">
         <f t="shared" si="3"/>
@@ -4366,18 +4356,18 @@
         <v>45155</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="BH58" s="6"/>
       <c r="BI58" s="6"/>
     </row>
-    <row r="59" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B59" s="100"/>
-      <c r="C59" s="100"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="82"/>
+    <row r="59" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="99"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="133"/>
+      <c r="E59" s="124"/>
       <c r="F59" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G59" s="58" t="str">
         <f t="shared" si="3"/>
@@ -4397,18 +4387,18 @@
         <v>45155</v>
       </c>
       <c r="L59" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BH59" s="6"/>
       <c r="BI59" s="6"/>
     </row>
-    <row r="60" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B60" s="100"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="83"/>
+    <row r="60" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="99"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="133"/>
+      <c r="E60" s="125"/>
       <c r="F60" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G60" s="52" t="str">
         <f t="shared" si="3"/>
@@ -4428,20 +4418,20 @@
         <v>45155</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BH60" s="6"/>
       <c r="BI60" s="6"/>
     </row>
-    <row r="61" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="100"/>
-      <c r="C61" s="100"/>
-      <c r="D61" s="103"/>
-      <c r="E61" s="81" t="s">
-        <v>169</v>
+    <row r="61" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="99"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="133"/>
+      <c r="E61" s="123" t="s">
+        <v>168</v>
       </c>
       <c r="F61" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G61" s="60" t="str">
         <f t="shared" si="3"/>
@@ -4468,13 +4458,13 @@
       <c r="BH61" s="6"/>
       <c r="BI61" s="6"/>
     </row>
-    <row r="62" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B62" s="100"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="103"/>
-      <c r="E62" s="82"/>
+    <row r="62" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="99"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="133"/>
+      <c r="E62" s="124"/>
       <c r="F62" s="49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G62" s="51" t="str">
         <f t="shared" si="3"/>
@@ -4494,20 +4484,20 @@
         <v>45155</v>
       </c>
       <c r="L62" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BF62" s="6"/>
       <c r="BG62" s="6"/>
       <c r="BH62" s="6"/>
       <c r="BI62" s="6"/>
     </row>
-    <row r="63" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B63" s="100"/>
-      <c r="C63" s="100"/>
-      <c r="D63" s="103"/>
-      <c r="E63" s="82"/>
+    <row r="63" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="99"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="133"/>
+      <c r="E63" s="124"/>
       <c r="F63" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G63" s="51" t="str">
         <f t="shared" si="3"/>
@@ -4527,20 +4517,20 @@
         <v>45155</v>
       </c>
       <c r="L63" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BF63" s="6"/>
       <c r="BG63" s="6"/>
       <c r="BH63" s="6"/>
       <c r="BI63" s="6"/>
     </row>
-    <row r="64" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B64" s="100"/>
-      <c r="C64" s="100"/>
-      <c r="D64" s="103"/>
-      <c r="E64" s="82"/>
+    <row r="64" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="99"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="133"/>
+      <c r="E64" s="124"/>
       <c r="F64" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G64" s="51" t="str">
         <f t="shared" si="3"/>
@@ -4560,20 +4550,20 @@
         <v>45155</v>
       </c>
       <c r="L64" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BF64" s="6"/>
       <c r="BG64" s="6"/>
       <c r="BH64" s="6"/>
       <c r="BI64" s="6"/>
     </row>
-    <row r="65" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B65" s="100"/>
-      <c r="C65" s="100"/>
-      <c r="D65" s="105"/>
-      <c r="E65" s="83"/>
+    <row r="65" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="99"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="135"/>
+      <c r="E65" s="125"/>
       <c r="F65" s="48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G65" s="52" t="str">
         <f t="shared" si="3"/>
@@ -4593,24 +4583,24 @@
         <v>45155</v>
       </c>
       <c r="L65" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BF65" s="6"/>
       <c r="BG65" s="6"/>
       <c r="BH65" s="6"/>
       <c r="BI65" s="6"/>
     </row>
-    <row r="66" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="100"/>
-      <c r="C66" s="100"/>
-      <c r="D66" s="96" t="s">
-        <v>120</v>
-      </c>
-      <c r="E66" s="93" t="s">
-        <v>124</v>
+    <row r="66" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="99"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="E66" s="126" t="s">
+        <v>123</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G66" s="54" t="str">
         <f t="shared" si="3"/>
@@ -4630,7 +4620,7 @@
         <v>45155</v>
       </c>
       <c r="L66" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BE66" s="6"/>
       <c r="BF66" s="6"/>
@@ -4638,13 +4628,13 @@
       <c r="BH66" s="6"/>
       <c r="BI66" s="6"/>
     </row>
-    <row r="67" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="100"/>
-      <c r="C67" s="100"/>
-      <c r="D67" s="97"/>
-      <c r="E67" s="94"/>
+    <row r="67" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="99"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="130"/>
+      <c r="E67" s="127"/>
       <c r="F67" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G67" s="51" t="str">
         <f t="shared" si="3"/>
@@ -4664,19 +4654,19 @@
         <v>45153</v>
       </c>
       <c r="L67" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BE67" s="6"/>
       <c r="BF67" s="6"/>
       <c r="BG67" s="6"/>
     </row>
-    <row r="68" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="100"/>
-      <c r="C68" s="100"/>
-      <c r="D68" s="97"/>
-      <c r="E68" s="94"/>
+    <row r="68" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="99"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="130"/>
+      <c r="E68" s="127"/>
       <c r="F68" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G68" s="51" t="str">
         <f t="shared" si="3"/>
@@ -4696,19 +4686,19 @@
         <v>45153</v>
       </c>
       <c r="L68" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BE68" s="6"/>
       <c r="BF68" s="6"/>
       <c r="BG68" s="6"/>
     </row>
-    <row r="69" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="100"/>
-      <c r="C69" s="100"/>
-      <c r="D69" s="97"/>
-      <c r="E69" s="94"/>
+    <row r="69" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="99"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="130"/>
+      <c r="E69" s="127"/>
       <c r="F69" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G69" s="51" t="str">
         <f t="shared" si="3"/>
@@ -4736,13 +4726,13 @@
       <c r="BH69" s="6"/>
       <c r="BI69" s="6"/>
     </row>
-    <row r="70" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B70" s="100"/>
-      <c r="C70" s="100"/>
-      <c r="D70" s="97"/>
-      <c r="E70" s="94"/>
+    <row r="70" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="99"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="130"/>
+      <c r="E70" s="127"/>
       <c r="F70" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G70" s="51" t="str">
         <f t="shared" si="3"/>
@@ -4762,7 +4752,7 @@
         <v>45155</v>
       </c>
       <c r="L70" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BE70" s="6"/>
       <c r="BF70" s="6"/>
@@ -4770,13 +4760,13 @@
       <c r="BH70" s="6"/>
       <c r="BI70" s="6"/>
     </row>
-    <row r="71" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B71" s="100"/>
-      <c r="C71" s="100"/>
-      <c r="D71" s="97"/>
-      <c r="E71" s="94"/>
+    <row r="71" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="99"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="130"/>
+      <c r="E71" s="127"/>
       <c r="F71" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G71" s="51" t="str">
         <f t="shared" si="3"/>
@@ -4796,7 +4786,7 @@
         <v>45155</v>
       </c>
       <c r="L71" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BE71" s="6"/>
       <c r="BF71" s="6"/>
@@ -4804,13 +4794,13 @@
       <c r="BH71" s="6"/>
       <c r="BI71" s="6"/>
     </row>
-    <row r="72" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B72" s="100"/>
-      <c r="C72" s="100"/>
-      <c r="D72" s="97"/>
-      <c r="E72" s="94"/>
+    <row r="72" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="99"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="130"/>
+      <c r="E72" s="127"/>
       <c r="F72" s="50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G72" s="58" t="str">
         <f t="shared" si="3"/>
@@ -4830,7 +4820,7 @@
         <v>45155</v>
       </c>
       <c r="L72" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BE72" s="6"/>
       <c r="BF72" s="6"/>
@@ -4838,13 +4828,13 @@
       <c r="BH72" s="6"/>
       <c r="BI72" s="6"/>
     </row>
-    <row r="73" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B73" s="100"/>
-      <c r="C73" s="100"/>
-      <c r="D73" s="97"/>
-      <c r="E73" s="95"/>
+    <row r="73" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="99"/>
+      <c r="C73" s="99"/>
+      <c r="D73" s="130"/>
+      <c r="E73" s="128"/>
       <c r="F73" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G73" s="58" t="str">
         <f t="shared" si="3"/>
@@ -4864,7 +4854,7 @@
         <v>45155</v>
       </c>
       <c r="L73" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BE73" s="6"/>
       <c r="BF73" s="6"/>
@@ -4872,15 +4862,15 @@
       <c r="BH73" s="6"/>
       <c r="BI73" s="6"/>
     </row>
-    <row r="74" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="100"/>
-      <c r="C74" s="100"/>
-      <c r="D74" s="97"/>
-      <c r="E74" s="81" t="s">
+    <row r="74" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="99"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="130"/>
+      <c r="E74" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="F74" s="22" t="s">
         <v>138</v>
-      </c>
-      <c r="F74" s="22" t="s">
-        <v>139</v>
       </c>
       <c r="G74" s="60" t="str">
         <f t="shared" si="3"/>
@@ -4904,13 +4894,13 @@
       </c>
       <c r="BG74" s="6"/>
     </row>
-    <row r="75" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B75" s="100"/>
-      <c r="C75" s="100"/>
-      <c r="D75" s="97"/>
-      <c r="E75" s="83"/>
+    <row r="75" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="99"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="130"/>
+      <c r="E75" s="125"/>
       <c r="F75" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G75" s="58" t="str">
         <f t="shared" si="3"/>
@@ -4932,16 +4922,17 @@
       <c r="L75" s="20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B76" s="101"/>
-      <c r="C76" s="101"/>
-      <c r="D76" s="98"/>
+      <c r="BG75" s="6"/>
+    </row>
+    <row r="76" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="100"/>
+      <c r="C76" s="100"/>
+      <c r="D76" s="131"/>
       <c r="E76" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F76" s="79" t="s">
         <v>141</v>
-      </c>
-      <c r="F76" s="79" t="s">
-        <v>142</v>
       </c>
       <c r="G76" s="73" t="str">
         <f t="shared" si="3"/>
@@ -4961,31 +4952,32 @@
         <v>45155</v>
       </c>
       <c r="L76" s="77" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="77" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="89" t="s">
-        <v>115</v>
-      </c>
-      <c r="C77" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="BI76" s="6"/>
+    </row>
+    <row r="77" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="120" t="s">
+        <v>142</v>
+      </c>
+      <c r="D77" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="D77" s="81" t="s">
+      <c r="E77" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="F77" s="22" t="s">
         <v>145</v>
-      </c>
-      <c r="F77" s="22" t="s">
-        <v>146</v>
       </c>
       <c r="G77" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>진행중</v>
-      </c>
-      <c r="H77" s="55" t="s">
-        <v>95</v>
+        <v>진행완료</v>
+      </c>
+      <c r="H77" s="55">
+        <v>1</v>
       </c>
       <c r="I77" s="63">
         <f t="shared" si="4"/>
@@ -4998,26 +4990,26 @@
         <v>45159</v>
       </c>
       <c r="L77" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BM77" s="6"/>
     </row>
-    <row r="78" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B78" s="90"/>
-      <c r="C78" s="90"/>
-      <c r="D78" s="82"/>
+    <row r="78" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="121"/>
+      <c r="C78" s="121"/>
+      <c r="D78" s="124"/>
       <c r="E78" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" s="47" t="s">
         <v>147</v>
-      </c>
-      <c r="F78" s="47" t="s">
-        <v>148</v>
       </c>
       <c r="G78" s="51" t="str">
         <f t="shared" si="3"/>
-        <v>진행중</v>
-      </c>
-      <c r="H78" s="40" t="s">
-        <v>95</v>
+        <v>진행완료</v>
+      </c>
+      <c r="H78" s="55">
+        <v>1</v>
       </c>
       <c r="I78" s="7">
         <f t="shared" si="4"/>
@@ -5030,26 +5022,26 @@
         <v>45159</v>
       </c>
       <c r="L78" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BM78" s="6"/>
     </row>
-    <row r="79" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B79" s="90"/>
-      <c r="C79" s="90"/>
-      <c r="D79" s="82"/>
+    <row r="79" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="121"/>
+      <c r="C79" s="121"/>
+      <c r="D79" s="124"/>
       <c r="E79" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" s="47" t="s">
         <v>149</v>
-      </c>
-      <c r="F79" s="47" t="s">
-        <v>150</v>
       </c>
       <c r="G79" s="51" t="str">
         <f t="shared" si="3"/>
-        <v>진행중</v>
-      </c>
-      <c r="H79" s="40" t="s">
-        <v>95</v>
+        <v>진행완료</v>
+      </c>
+      <c r="H79" s="55">
+        <v>1</v>
       </c>
       <c r="I79" s="7">
         <f t="shared" si="4"/>
@@ -5062,44 +5054,91 @@
         <v>45159</v>
       </c>
       <c r="L79" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BM79" s="6"/>
     </row>
-    <row r="80" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B80" s="91"/>
-      <c r="C80" s="91"/>
-      <c r="D80" s="83"/>
+    <row r="80" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="122"/>
+      <c r="C80" s="122"/>
+      <c r="D80" s="125"/>
       <c r="E80" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" s="48" t="s">
         <v>151</v>
-      </c>
-      <c r="F80" s="48" t="s">
-        <v>152</v>
       </c>
       <c r="G80" s="52" t="str">
         <f t="shared" si="3"/>
-        <v>진행중</v>
-      </c>
-      <c r="H80" s="62" t="s">
-        <v>95</v>
+        <v>진행완료</v>
+      </c>
+      <c r="H80" s="62">
+        <v>1</v>
       </c>
       <c r="I80" s="53">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J80" s="64">
+      <c r="J80" s="69">
         <v>45159</v>
       </c>
-      <c r="K80" s="64">
+      <c r="K80" s="69">
         <v>45159</v>
       </c>
       <c r="L80" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BM80" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D36:D42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="E66:E73"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="D66:D76"/>
+    <mergeCell ref="C36:C76"/>
+    <mergeCell ref="B36:B76"/>
+    <mergeCell ref="D43:D65"/>
+    <mergeCell ref="E43:E48"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="F13:F27"/>
+    <mergeCell ref="BL11:BR11"/>
+    <mergeCell ref="AJ11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="N10:AR10"/>
+    <mergeCell ref="O11:U11"/>
+    <mergeCell ref="V11:AB11"/>
+    <mergeCell ref="AX11:BD11"/>
+    <mergeCell ref="BE11:BK11"/>
+    <mergeCell ref="AC11:AI11"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D15:D21"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="J10:J12"/>
     <mergeCell ref="B28:B35"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="E10:E12"/>
@@ -5116,53 +5155,6 @@
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="BS11:BW11"/>
-    <mergeCell ref="AC11:AI11"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D15:D21"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="F13:F27"/>
-    <mergeCell ref="BL11:BR11"/>
-    <mergeCell ref="AJ11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="N10:AR10"/>
-    <mergeCell ref="O11:U11"/>
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="AX11:BD11"/>
-    <mergeCell ref="BE11:BK11"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="E66:E73"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="D66:D76"/>
-    <mergeCell ref="C36:C76"/>
-    <mergeCell ref="B36:B76"/>
-    <mergeCell ref="D43:D65"/>
-    <mergeCell ref="E43:E48"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D36:D42"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E53:E57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
